--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E2829-ACCB-422F-BC5E-885977DF5EB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47D54C-C7A6-4269-B031-8684C7505C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="36" r:id="rId1"/>
@@ -30,7 +30,8 @@
     <sheet name="Sign" sheetId="29" r:id="rId15"/>
     <sheet name="Slice" sheetId="31" r:id="rId16"/>
     <sheet name="Unit" sheetId="35" r:id="rId17"/>
-    <sheet name="Workbook(Global)" sheetId="17" r:id="rId18"/>
+    <sheet name="Workbook" sheetId="38" r:id="rId18"/>
+    <sheet name="Workbook(Global)" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15519" uniqueCount="2774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15533" uniqueCount="2784">
   <si>
     <t/>
   </si>
@@ -7583,15 +7584,6 @@
     <t>{"FullName": "Астана","AbcBasic": "Geo.Basic","AbcBasic": "Geo.Template"}</t>
   </si>
   <si>
-    <t>{"FullName": "штука","MKEI": "796","AbcBasic": "Unit.Basic","AbcBasic": "Unit.Template"}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Price.Basic","AbcBasic": "Price.Template"}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Item.Basic","AbcBasic": "Item.Template"}</t>
-  </si>
-  <si>
     <t>Info.Code.RegAddress</t>
   </si>
   <si>
@@ -7625,15 +7617,9 @@
     <t>Face.kgd.Bank1</t>
   </si>
   <si>
-    <t>{"AbcBasic": "Face.Basic","AbcBasic": "Face.Template","Comment": ""}</t>
-  </si>
-  <si>
     <t>{"AbcBasic": "Face.Basic","Comment": ""}</t>
   </si>
   <si>
-    <t>{"IBAN": "","AbcBasic": "Face.Basic","AbcBasic": "Face.Template","Comment": ""}</t>
-  </si>
-  <si>
     <t>{"RegDescription": "НАО Государственная корпорация Правительство для граждан","BIN": "160440007161","BIC": "GCVPKZ2A","AbcBasic": "Face.Basic","Comment": ""}</t>
   </si>
   <si>
@@ -7646,15 +7632,9 @@
     <t>{"IBAN": "KZ92009MEDS368609103","AbcBasic": "Face.Basic","Comment": ""}</t>
   </si>
   <si>
-    <t>{"RegDescription": "Комитет государственных доходов","AbcBasic": "Face.Basic","AbcBasic": "Face.Template","Comment": ""}</t>
-  </si>
-  <si>
     <t>Info.Code.HomeAddress</t>
   </si>
   <si>
-    <t>{"AbcBasic": "Face.Basic","IIN": "","AbcBasic": "Face.Template","Comment": "","DateBirth": "","Name": "","Patronymic": "","Surname": "","Passport": "","PostAddress": "","HomeAddress": ""}</t>
-  </si>
-  <si>
     <t>Info.Code.Autobiography</t>
   </si>
   <si>
@@ -7676,27 +7656,6 @@
     <t>Info.Code.Surname</t>
   </si>
   <si>
-    <t>{"FullName": "","BIN": "","IIN": "","RNN": "","OKPO": "","Comment": "","HomeAddres": "","LawAddress": "","PostAddress": "","RegAddress": "","RegDescription": "","AbcBasic": "Face.Basic","AbcBasic": "Face.Template"}</t>
-  </si>
-  <si>
-    <t>{"FullName": "Товар (пример)","AbcBasic": "Asset.Basic","AbcBasic": "Asset.Template","Comment": ""}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Mark.Basic","AbcBasic": "Mark.Template"}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Meter.Basic","AbcBasic": "Meter.Template"}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Sign.Basic","AbcBasic": "Sign.Template"}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Account.Basic","AbcBasic": "Account.Template"}</t>
-  </si>
-  <si>
-    <t>{"AbcBasic": "Deal.Basic","AbcBasic": "Deal.Template"}</t>
-  </si>
-  <si>
     <t>итог суммы</t>
   </si>
   <si>
@@ -7763,12 +7722,6 @@
     <t>Info.Code.Street-House</t>
   </si>
   <si>
-    <t>{"AbcBasic": "Slice.Basic","AbcBasic": "Slice.Template"}</t>
-  </si>
-  <si>
-    <t>{"FullName": "Налог на транспортные средства с юр лиц","AbcBasic": "Debt.Basic","AbcBasic": "Debt.Template"}</t>
-  </si>
-  <si>
     <t>источник</t>
   </si>
   <si>
@@ -8351,19 +8304,97 @@
     <t>{"Comment": "","AbcBasic": "Workbook.Basic"}</t>
   </si>
   <si>
-    <t>{"FullName": "","BIN": "","IIN": "","RNN": "","OKPO": "","Comment": "","Home": "","Law": "","Post": "","Reg": "","RegDescription": "","BIC": "","AbcBasic": "Workbook.Basic"}</t>
-  </si>
-  <si>
-    <t>{"IBAN": "","Comment": "","AbcBasic": "Workbook.Basic"}</t>
-  </si>
-  <si>
-    <t>{"Comment": "","Home": "","Law": "","Post": "","Reg": "","AbcBasic": "Workbook.Basic"}</t>
-  </si>
-  <si>
-    <t>{"FullName": "","IIN": "","RNN": "","Comment": "","Home": "","Post": "","Reg": "","AbcBasic": "Workbook.Basic"}</t>
-  </si>
-  <si>
-    <t>{"FullName": "","Comment": "","AbcBasic": "Workbook.Basic"}</t>
+    <t>WorkbookData</t>
+  </si>
+  <si>
+    <t>таблица Workbook заменяет большое число дополнительных таблиц</t>
+  </si>
+  <si>
+    <t>она намеренно сделана денормализованной для облегчения работы запросов</t>
+  </si>
+  <si>
+    <t>любые схемы документов легко укладываются в нее</t>
+  </si>
+  <si>
+    <t>это одновременно таблица проводок, табличных частей доков, шапок доков, регистров, различных сведений, цен и т.д.</t>
+  </si>
+  <si>
+    <t>позволяет формировать любую иерархию шапок и любую иерархию табличных частей доков (не только одинарную)</t>
+  </si>
+  <si>
+    <t>{"FullName": "Товар (пример)","AbcBasic": "Asset.Basic","AbcTemplate": "Asset.Template","Comment": ""}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Deal.Basic","AbcTemplate": "Deal.Template"}</t>
+  </si>
+  <si>
+    <t>{"FullName": "Налог на транспортные средства с юр лиц","AbcBasic": "Debt.Basic","AbcTemplate": "Debt.Template"}</t>
+  </si>
+  <si>
+    <t>{"FullName": "","BIN": "","IIN": "","RNN": "","OKPO": "","Comment": "","HomeAddres": "","LawAddress": "","PostAddress": "","RegAddress": "","RegDescription": "","AbcBasic": "Face.Basic","AbcTemplate": "Face.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Face.Basic","AbcTemplate": "Face.Template","Comment": ""}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Face.Basic","IIN": "","AbcTemplate": "Face.Template","Comment": "","DateBirth": "","Name": "","Patronymic": "","Surname": "","Passport": "","PostAddress": "","HomeAddress": ""}</t>
+  </si>
+  <si>
+    <t>{"IBAN": "","AbcBasic": "Face.Basic","AbcTemplate": "Face.Template","Comment": ""}</t>
+  </si>
+  <si>
+    <t>{"RegDescription": "Комитет государственных доходов","AbcBasic": "Face.Basic","AbcTemplate": "Face.Template","Comment": ""}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Item.Basic","AbcTemplate": "Item.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Mark.Basic","AbcTemplate": "Mark.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Meter.Basic","AbcTemplate": "Meter.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Account.Basic","AbcTemplate": "Account.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Price.Basic","AbcTemplate": "Price.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Sign.Basic","AbcTemplate": "Sign.Template"}</t>
+  </si>
+  <si>
+    <t>{"AbcBasic": "Slice.Basic","AbcTemplate": "Slice.Template"}</t>
+  </si>
+  <si>
+    <t>{"FullName": "штука","MKEI": "796","AbcBasic": "Unit.Basic","AbcTemplate": "Unit.Template"}</t>
+  </si>
+  <si>
+    <t>{"Comment": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Price.Template"}</t>
+  </si>
+  <si>
+    <t>{"Comment": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Asset.Template"}</t>
+  </si>
+  <si>
+    <t>{"FullName": "","BIN": "","IIN": "","RNN": "","OKPO": "","Comment": "","Home": "","Law": "","Post": "","Reg": "","RegDescription": "","BIC": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Face.Template"}</t>
+  </si>
+  <si>
+    <t>{"IBAN": "","Comment": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Face.Template"}</t>
+  </si>
+  <si>
+    <t>{"Comment": "","Home": "","Law": "","Post": "","Reg": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Face.Template"}</t>
+  </si>
+  <si>
+    <t>{"FullName": "","IIN": "","RNN": "","Comment": "","Home": "","Post": "","Reg": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Face.Template"}</t>
+  </si>
+  <si>
+    <t>{"FullName": "","Comment": "","AbcBasic": "Workbook.Basic","AbcTemplate": "Deal.Template"}</t>
+  </si>
+  <si>
+    <t>Meter.Range</t>
+  </si>
+  <si>
+    <t>диапазон</t>
   </si>
 </sst>
 </file>
@@ -8618,7 +8649,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1"/>
@@ -8874,6 +8905,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Гиперссылка" xfId="19" builtinId="8"/>
@@ -9178,9 +9211,7 @@
   </sheetPr>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9193,22 +9224,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2657</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>2658</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>2659</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>2660</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9216,13 +9247,13 @@
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>266</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>280</v>
@@ -9230,7 +9261,7 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>2662</v>
+        <v>2646</v>
       </c>
       <c r="B7" s="85" t="s">
         <v>266</v>
@@ -9244,83 +9275,83 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="89" t="s">
-        <v>2669</v>
+        <v>2653</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>2670</v>
+        <v>2654</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E13" s="88" t="s">
         <v>394</v>
@@ -9328,27 +9359,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B14" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="E15" s="88" t="s">
         <v>276</v>
@@ -9356,41 +9387,41 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
-        <v>2680</v>
+        <v>2664</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>2681</v>
+        <v>2665</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="E18" s="88" t="s">
         <v>624</v>
@@ -9398,21 +9429,21 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B21" s="82" t="s">
         <v>299</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E21" s="82" t="s">
         <v>2397</v>
@@ -9426,7 +9457,7 @@
         <v>299</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>2692</v>
+        <v>2676</v>
       </c>
       <c r="E22" s="82" t="s">
         <v>2397</v>
@@ -9434,72 +9465,72 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E23" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E25" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
-        <v>2688</v>
+        <v>2672</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>2689</v>
+        <v>2673</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E26" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
-        <v>2690</v>
+        <v>2674</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>2691</v>
+        <v>2675</v>
       </c>
       <c r="D27" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E27" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9510,7 +9541,7 @@
         <v>265</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E28" s="88" t="s">
         <v>394</v>
@@ -9518,27 +9549,27 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D30" s="88" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="E30" s="88" t="s">
         <v>276</v>
@@ -9546,84 +9577,84 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B31" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D31" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="E31" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B32" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D32" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="E32" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="B33" s="88" t="s">
         <v>276</v>
       </c>
       <c r="D33" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B36" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="84" t="s">
-        <v>2693</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B38" s="82" t="s">
         <v>265</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>276</v>
@@ -9637,7 +9668,7 @@
         <v>265</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="E39" s="82" t="s">
         <v>276</v>
@@ -9645,83 +9676,83 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B40" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B41" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E41" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B42" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D42" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E42" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B43" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D43" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E43" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B44" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B45" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D45" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E45" s="88" t="s">
         <v>394</v>
@@ -9729,41 +9760,41 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D46" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E46" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="B47" s="88" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="E47" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="B48" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="E48" s="88" t="s">
         <v>624</v>
@@ -9771,51 +9802,51 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
       <c r="D49" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E49" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D51" s="84" t="s">
-        <v>2696</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B52" s="94" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
       <c r="D52" t="s">
-        <v>2697</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="95" t="s">
-        <v>2694</v>
+        <v>2678</v>
       </c>
       <c r="B53" s="94" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
       <c r="D53" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E53" s="82" t="s">
         <v>473</v>
@@ -9823,13 +9854,13 @@
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D54" s="94" t="s">
-        <v>2698</v>
+        <v>2682</v>
       </c>
       <c r="E54" s="82" t="s">
         <v>473</v>
@@ -9837,83 +9868,83 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D55" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E55" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B56" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E56" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="92" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B57" s="92" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D57" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E57" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="96" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E58" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B59" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B60" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E60" s="88" t="s">
         <v>394</v>
@@ -9921,147 +9952,147 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="92"/>
       <c r="B62" s="92"/>
       <c r="D62" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E62" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
-        <v>2709</v>
+        <v>2693</v>
       </c>
       <c r="B63" s="49"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
-        <v>2695</v>
+        <v>2679</v>
       </c>
       <c r="B64" s="49"/>
     </row>
     <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>2699</v>
+        <v>2683</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E66" s="82" t="s">
-        <v>2701</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="85" t="s">
-        <v>2700</v>
+        <v>2684</v>
       </c>
       <c r="B67" s="82" t="s">
-        <v>2699</v>
+        <v>2683</v>
       </c>
       <c r="D67" s="94" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>2701</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B68" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D68" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E68" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B69" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D69" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E69" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D70" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E70" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B71" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D71" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E71" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B72" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D72" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E72" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B73" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D73" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E73" s="88" t="s">
         <v>394</v>
@@ -10069,27 +10100,27 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B74" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D74" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E74" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B75" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="E75" s="88" t="s">
         <v>624</v>
@@ -10097,24 +10128,24 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E76" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B78" s="82" t="s">
         <v>619</v>
       </c>
       <c r="D78" s="97" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E78" s="95" t="s">
-        <v>2703</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -10125,85 +10156,85 @@
         <v>619</v>
       </c>
       <c r="D79" s="98" t="s">
-        <v>2704</v>
+        <v>2688</v>
       </c>
       <c r="E79" s="95" t="s">
-        <v>2703</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B80" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D80" s="99" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E80" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B81" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D81" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E81" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B82" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D82" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E82" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B83" s="88" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D83" s="100" t="s">
         <v>2672</v>
       </c>
-      <c r="D83" s="100" t="s">
-        <v>2688</v>
-      </c>
       <c r="E83" s="88" t="s">
-        <v>2689</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B84" s="88" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D84" s="100" t="s">
         <v>2674</v>
       </c>
-      <c r="D84" s="100" t="s">
-        <v>2690</v>
-      </c>
       <c r="E84" s="88" t="s">
-        <v>2691</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B85" s="88" t="s">
         <v>394</v>
@@ -10217,55 +10248,55 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D86" s="89" t="s">
-        <v>2669</v>
+        <v>2653</v>
       </c>
       <c r="E86" s="89" t="s">
-        <v>2670</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="B87" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
       <c r="D87" s="100" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E87" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="B88" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
       <c r="D88" s="100" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E88" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="B89" s="88" t="s">
         <v>624</v>
       </c>
       <c r="D89" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E89" s="88" t="s">
         <v>394</v>
@@ -10273,21 +10304,21 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B90" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
       <c r="D90" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E90" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D91" s="88" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="E91" s="88" t="s">
         <v>276</v>
@@ -10295,10 +10326,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D92" s="100" t="s">
-        <v>2680</v>
+        <v>2664</v>
       </c>
       <c r="E92" s="88" t="s">
-        <v>2681</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -10327,7 +10358,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D96" s="88" t="s">
-        <v>2698</v>
+        <v>2682</v>
       </c>
       <c r="E96" s="88" t="s">
         <v>473</v>
@@ -10335,7 +10366,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D97" s="88" t="s">
-        <v>2692</v>
+        <v>2676</v>
       </c>
       <c r="E97" s="88" t="s">
         <v>2397</v>
@@ -10351,39 +10382,39 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D99" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="E99" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D100" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="E100" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D101" s="92" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="E101" s="92" t="s">
-        <v>2701</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D102" s="88" t="s">
-        <v>2705</v>
+        <v>2689</v>
       </c>
       <c r="E102" s="88" t="s">
-        <v>2706</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D103" s="93" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="E103" s="96" t="s">
         <v>624</v>
@@ -10391,135 +10422,135 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D104" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E104" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D105" s="96" t="s">
-        <v>2700</v>
+        <v>2684</v>
       </c>
       <c r="E105" s="96" t="s">
-        <v>2699</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B106" s="82" t="s">
-        <v>2707</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="82" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="B107" s="82" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E107" s="82" t="s">
-        <v>2681</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B108" s="86" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D108" s="85" t="s">
         <v>2664</v>
       </c>
-      <c r="D108" s="85" t="s">
-        <v>2680</v>
-      </c>
       <c r="E108" s="82" t="s">
-        <v>2681</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B109" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D109" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E109" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B110" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D110" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E110" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B111" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D111" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E111" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B112" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D112" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E112" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B113" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D113" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E113" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B114" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D114" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E114" s="88" t="s">
         <v>394</v>
@@ -10527,47 +10558,47 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B115" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
       <c r="D115" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E115" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="88"/>
       <c r="B116" s="88"/>
       <c r="D116" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E116" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="84" t="s">
-        <v>2710</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="84" t="s">
-        <v>2695</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="B120" s="82" t="s">
-        <v>2670</v>
+        <v>2654</v>
       </c>
       <c r="D120" s="82" t="s">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="E120" s="82" t="s">
         <v>624</v>
@@ -10575,13 +10606,13 @@
     </row>
     <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="s">
-        <v>2669</v>
+        <v>2653</v>
       </c>
       <c r="B121" s="82" t="s">
-        <v>2670</v>
+        <v>2654</v>
       </c>
       <c r="D121" s="94" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="E121" s="94" t="s">
         <v>624</v>
@@ -10589,83 +10620,83 @@
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B122" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
       <c r="D122" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="E122" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B123" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
       <c r="D123" s="88" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="E123" s="88" t="s">
-        <v>2666</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B124" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
       <c r="D124" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="E124" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B125" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
       <c r="D125" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="E125" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B126" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
       <c r="D126" s="92" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="E126" s="92" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B127" s="88" t="s">
         <v>394</v>
       </c>
       <c r="D127" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="E127" s="88" t="s">
         <v>394</v>
@@ -10673,43 +10704,43 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B128" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
       <c r="D128" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="E128" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B129" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
       <c r="D129" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="E129" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D130" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="E130" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="85" t="s">
-        <v>2708</v>
+        <v>2692</v>
       </c>
       <c r="B131" s="85" t="s">
         <v>1295</v>
@@ -10717,42 +10748,57 @@
     </row>
     <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="86" t="s">
-        <v>2663</v>
+        <v>2647</v>
       </c>
       <c r="B132" s="86" t="s">
-        <v>2664</v>
+        <v>2648</v>
+      </c>
+      <c r="D132" s="106" t="s">
+        <v>2754</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="87" t="s">
-        <v>2665</v>
+        <v>2649</v>
       </c>
       <c r="B133" s="87" t="s">
-        <v>2666</v>
+        <v>2650</v>
+      </c>
+      <c r="D133" s="106" t="s">
+        <v>2755</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="88" t="s">
-        <v>2667</v>
+        <v>2651</v>
       </c>
       <c r="B134" s="88" t="s">
-        <v>2668</v>
+        <v>2652</v>
+      </c>
+      <c r="D134" s="106" t="s">
+        <v>2756</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="88" t="s">
-        <v>2688</v>
+        <v>2672</v>
       </c>
       <c r="B135" s="88" t="s">
-        <v>2689</v>
+        <v>2673</v>
+      </c>
+      <c r="D135" s="106" t="s">
+        <v>2757</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="88" t="s">
-        <v>2690</v>
+        <v>2674</v>
       </c>
       <c r="B136" s="88" t="s">
-        <v>2691</v>
+        <v>2675</v>
+      </c>
+      <c r="D136" s="106" t="s">
+        <v>2758</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -10765,31 +10811,31 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="89" t="s">
-        <v>2669</v>
+        <v>2653</v>
       </c>
       <c r="B138" s="89" t="s">
-        <v>2670</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="88" t="s">
-        <v>2671</v>
+        <v>2655</v>
       </c>
       <c r="B139" s="88" t="s">
-        <v>2672</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="88" t="s">
-        <v>2673</v>
+        <v>2657</v>
       </c>
       <c r="B140" s="88" t="s">
-        <v>2674</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="88" t="s">
-        <v>2675</v>
+        <v>2659</v>
       </c>
       <c r="B141" s="88" t="s">
         <v>394</v>
@@ -10797,15 +10843,15 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="88" t="s">
-        <v>2676</v>
+        <v>2660</v>
       </c>
       <c r="B142" s="88" t="s">
-        <v>2677</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="88" t="s">
-        <v>2684</v>
+        <v>2668</v>
       </c>
       <c r="B143" s="88" t="s">
         <v>276</v>
@@ -10813,10 +10859,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="100" t="s">
-        <v>2680</v>
+        <v>2664</v>
       </c>
       <c r="B144" s="88" t="s">
-        <v>2681</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -10829,10 +10875,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="88" t="s">
-        <v>2704</v>
+        <v>2688</v>
       </c>
       <c r="B146" s="88" t="s">
-        <v>2703</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -10853,7 +10899,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="88" t="s">
-        <v>2698</v>
+        <v>2682</v>
       </c>
       <c r="B149" s="88" t="s">
         <v>473</v>
@@ -10861,7 +10907,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="88" t="s">
-        <v>2692</v>
+        <v>2676</v>
       </c>
       <c r="B150" s="88" t="s">
         <v>2397</v>
@@ -10877,39 +10923,39 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="88" t="s">
-        <v>2678</v>
+        <v>2662</v>
       </c>
       <c r="B152" s="88" t="s">
-        <v>2679</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="92" t="s">
-        <v>2685</v>
+        <v>2669</v>
       </c>
       <c r="B153" s="92" t="s">
-        <v>2686</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="92" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="B154" s="92" t="s">
-        <v>2701</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="88" t="s">
-        <v>2705</v>
+        <v>2689</v>
       </c>
       <c r="B155" s="88" t="s">
-        <v>2706</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="s">
-        <v>2687</v>
+        <v>2671</v>
       </c>
       <c r="B156" s="88" t="s">
         <v>624</v>
@@ -10917,18 +10963,18 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="88" t="s">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="B157" s="88" t="s">
-        <v>2683</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="96" t="s">
-        <v>2700</v>
+        <v>2684</v>
       </c>
       <c r="B158" s="96" t="s">
-        <v>2699</v>
+        <v>2683</v>
       </c>
     </row>
   </sheetData>
@@ -10948,7 +10994,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10963,7 +11009,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2063</v>
+        <v>2683</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -10971,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2063</v>
+        <v>2683</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2064</v>
@@ -11019,7 +11065,7 @@
         <v>273</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2546</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11111,7 +11157,7 @@
     <sortCondition ref="E1:E7"/>
   </sortState>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11120,10 +11166,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11139,13 +11185,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>1678</v>
+        <v>2685</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="8"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>1678</v>
+        <v>2685</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>1230</v>
@@ -11176,7 +11222,7 @@
         <v>286</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>2547</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -11205,47 +11251,43 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>1681</v>
+        <v>2782</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>1681</v>
+        <v>2782</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>2783</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="9" t="s">
         <v>2106</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>642</v>
+        <v>554</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>2106</v>
@@ -11253,23 +11295,23 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1678</v>
+        <v>1690</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1942</v>
+        <v>642</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>2106</v>
@@ -11277,7 +11319,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1678</v>
@@ -11287,10 +11329,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>1942</v>
@@ -11301,7 +11343,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1678</v>
@@ -11311,13 +11353,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1299</v>
+        <v>636</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>282</v>
+        <v>1942</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>2106</v>
@@ -11325,7 +11367,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>1678</v>
@@ -11335,13 +11377,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>631</v>
+        <v>1299</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>629</v>
+        <v>282</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>2106</v>
@@ -11349,7 +11391,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1678</v>
@@ -11359,10 +11401,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>629</v>
@@ -11373,23 +11415,23 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>2106</v>
@@ -11397,23 +11439,23 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>2048</v>
+        <v>1687</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1678</v>
+        <v>1695</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>2048</v>
+        <v>1687</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>2047</v>
+        <v>637</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>282</v>
+        <v>633</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>2106</v>
@@ -11421,20 +11463,20 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>1688</v>
+        <v>2048</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1688</v>
+        <v>2048</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>638</v>
+        <v>2047</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>282</v>
@@ -11445,23 +11487,23 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1679</v>
+        <v>1690</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>286</v>
+        <v>638</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>2106</v>
@@ -11469,23 +11511,23 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>282</v>
+        <v>626</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>2106</v>
@@ -11493,7 +11535,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>1678</v>
@@ -11503,13 +11545,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>625</v>
+        <v>1298</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>624</v>
+        <v>282</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>2106</v>
@@ -11517,7 +11559,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>1678</v>
@@ -11527,13 +11569,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>525</v>
+        <v>624</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>2106</v>
@@ -11541,23 +11583,23 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>2106</v>
@@ -11565,23 +11607,23 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>2590</v>
+        <v>1692</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>2590</v>
+        <v>1692</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>2575</v>
+        <v>640</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>629</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>2106</v>
@@ -11589,7 +11631,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>1693</v>
+        <v>2574</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>1678</v>
@@ -11599,13 +11641,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1693</v>
+        <v>2574</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>471</v>
+        <v>2559</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>2106</v>
@@ -11613,7 +11655,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>1678</v>
@@ -11623,13 +11665,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>634</v>
+        <v>471</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>2106</v>
@@ -11637,7 +11679,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>1678</v>
@@ -11647,13 +11689,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>633</v>
+        <v>293</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>2106</v>
@@ -11661,7 +11703,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>1678</v>
@@ -11671,21 +11713,45 @@
         <v>0</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>2106</v>
       </c>
     </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>2106</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H23">
-    <sortCondition ref="E1:E23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H24">
+    <sortCondition ref="E1:E24"/>
   </sortState>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11699,8 +11765,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11718,7 +11784,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1699</v>
+        <v>619</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11728,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1699</v>
+        <v>619</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>644</v>
@@ -11769,7 +11835,7 @@
         <v>375</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>2514</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -12058,8 +12124,8 @@
   </sheetPr>
   <dimension ref="A1:Y263"/>
   <sheetViews>
-    <sheetView topLeftCell="K55" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="X55" sqref="X55"/>
+    <sheetView topLeftCell="M1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12087,14 +12153,14 @@
     <col min="21" max="21" width="15.140625" style="63" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.5703125" style="63" customWidth="1"/>
     <col min="23" max="23" width="13.42578125" style="63" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" style="63" customWidth="1"/>
+    <col min="24" max="24" width="8" style="63" customWidth="1"/>
     <col min="25" max="25" width="7.140625" style="63" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>1721</v>
+        <v>2687</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>0</v>
@@ -12118,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>1721</v>
+        <v>2687</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>768</v>
@@ -12167,7 +12233,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>2711</v>
+        <v>2695</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>1721</v>
@@ -12188,13 +12254,13 @@
         <v>2062</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>2711</v>
+        <v>2695</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>2651</v>
+        <v>2635</v>
       </c>
       <c r="K2" s="65" t="s">
         <v>268</v>
@@ -12224,7 +12290,7 @@
         <v>1238</v>
       </c>
       <c r="T2" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U2" s="76" t="s">
         <v>1682</v>
@@ -12244,10 +12310,10 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>2750</v>
+        <v>2734</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>2711</v>
+        <v>2695</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>1651</v>
@@ -12265,13 +12331,13 @@
         <v>2062</v>
       </c>
       <c r="H3" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>2750</v>
+        <v>2734</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>2744</v>
+        <v>2728</v>
       </c>
       <c r="K3" s="65" t="s">
         <v>268</v>
@@ -12301,7 +12367,7 @@
         <v>687</v>
       </c>
       <c r="T3" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U3" s="76" t="s">
         <v>1682</v>
@@ -12321,10 +12387,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>2752</v>
+        <v>2736</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>2750</v>
+        <v>2734</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>1651</v>
@@ -12343,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>2751</v>
+        <v>2735</v>
       </c>
       <c r="J4" s="65" t="s">
         <v>664</v>
@@ -12373,10 +12439,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U4" s="61" t="s">
         <v>1679</v>
@@ -12396,10 +12462,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="101" t="s">
-        <v>2747</v>
+        <v>2731</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>2750</v>
+        <v>2734</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>1651</v>
@@ -12412,16 +12478,16 @@
         <v>1708</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>2649</v>
+        <v>2633</v>
       </c>
       <c r="H5" s="69" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>2747</v>
+        <v>2731</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>2743</v>
+        <v>2727</v>
       </c>
       <c r="K5" s="65" t="s">
         <v>268</v>
@@ -12439,7 +12505,7 @@
         <v>1238</v>
       </c>
       <c r="T5" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U5" s="61" t="s">
         <v>1679</v>
@@ -12457,10 +12523,10 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="101" t="s">
-        <v>2748</v>
+        <v>2732</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>2747</v>
+        <v>2731</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>1651</v>
@@ -12473,16 +12539,16 @@
         <v>1708</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>2649</v>
+        <v>2633</v>
       </c>
       <c r="H6" s="69" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="101" t="s">
-        <v>2748</v>
+        <v>2732</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>2745</v>
+        <v>2729</v>
       </c>
       <c r="K6" s="65" t="s">
         <v>268</v>
@@ -12506,7 +12572,7 @@
         <v>1238</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U6" s="61" t="s">
         <v>1679</v>
@@ -12524,10 +12590,10 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
-        <v>2749</v>
+        <v>2733</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>2747</v>
+        <v>2731</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>1651</v>
@@ -12540,16 +12606,16 @@
         <v>1708</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>2650</v>
+        <v>2634</v>
       </c>
       <c r="H7" s="69" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="101" t="s">
-        <v>2749</v>
+        <v>2733</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>2746</v>
+        <v>2730</v>
       </c>
       <c r="K7" s="65" t="s">
         <v>268</v>
@@ -12573,7 +12639,7 @@
         <v>1238</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U7" s="61" t="s">
         <v>1679</v>
@@ -12591,10 +12657,10 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>2712</v>
+        <v>2696</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>2750</v>
+        <v>2734</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>1651</v>
@@ -12612,10 +12678,10 @@
         <v>2062</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>2712</v>
+        <v>2696</v>
       </c>
       <c r="J8" s="65" t="s">
         <v>693</v>
@@ -12648,7 +12714,7 @@
         <v>687</v>
       </c>
       <c r="T8" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U8" s="76" t="s">
         <v>1682</v>
@@ -12668,10 +12734,10 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>2713</v>
+        <v>2697</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>2712</v>
+        <v>2696</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>1651</v>
@@ -12692,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>2713</v>
+        <v>2697</v>
       </c>
       <c r="J9" s="65" t="s">
         <v>694</v>
@@ -12723,7 +12789,7 @@
         <v>1238</v>
       </c>
       <c r="T9" s="75" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="U9" s="61" t="s">
         <v>1679</v>
@@ -12743,10 +12809,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>2714</v>
+        <v>2698</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>2712</v>
+        <v>2696</v>
       </c>
       <c r="C10" s="61" t="s">
         <v>1651</v>
@@ -12767,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>2714</v>
+        <v>2698</v>
       </c>
       <c r="J10" s="65" t="s">
         <v>695</v>
@@ -12800,7 +12866,7 @@
         <v>1238</v>
       </c>
       <c r="T10" s="75" t="s">
-        <v>2583</v>
+        <v>2567</v>
       </c>
       <c r="U10" s="61" t="s">
         <v>1679</v>
@@ -12820,10 +12886,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
-        <v>2715</v>
+        <v>2699</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>2712</v>
+        <v>2696</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>1651</v>
@@ -12844,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>2715</v>
+        <v>2699</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>2646</v>
+        <v>2630</v>
       </c>
       <c r="K11" s="65" t="s">
         <v>268</v>
@@ -12875,7 +12941,7 @@
         <v>614</v>
       </c>
       <c r="T11" s="75" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="U11" s="61" t="s">
         <v>1679</v>
@@ -12895,10 +12961,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>2712</v>
+        <v>2696</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>1651</v>
@@ -12916,10 +12982,10 @@
         <v>2062</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I12" s="81" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
       <c r="J12" s="65" t="s">
         <v>685</v>
@@ -12972,10 +13038,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>2722</v>
+        <v>2706</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>1651</v>
@@ -12996,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>2722</v>
+        <v>2706</v>
       </c>
       <c r="J13" s="65" t="s">
         <v>686</v>
@@ -13027,7 +13093,7 @@
         <v>1238</v>
       </c>
       <c r="T13" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U13" s="61" t="s">
         <v>1679</v>
@@ -13047,10 +13113,10 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>2723</v>
+        <v>2707</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>2722</v>
+        <v>2706</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>1651</v>
@@ -13071,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="65" t="s">
-        <v>2723</v>
+        <v>2707</v>
       </c>
       <c r="J14" s="65" t="s">
         <v>688</v>
@@ -13102,7 +13168,7 @@
         <v>1238</v>
       </c>
       <c r="T14" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U14" s="61" t="s">
         <v>1679</v>
@@ -13122,10 +13188,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>2726</v>
+        <v>2710</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>1651</v>
@@ -13146,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>2726</v>
+        <v>2710</v>
       </c>
       <c r="J15" s="65" t="s">
         <v>689</v>
@@ -13177,7 +13243,7 @@
         <v>614</v>
       </c>
       <c r="T15" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U15" s="61" t="s">
         <v>1679</v>
@@ -13197,10 +13263,10 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
-        <v>2727</v>
+        <v>2711</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>2726</v>
+        <v>2710</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>1651</v>
@@ -13221,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="65" t="s">
-        <v>2727</v>
+        <v>2711</v>
       </c>
       <c r="J16" s="65" t="s">
         <v>690</v>
@@ -13252,7 +13318,7 @@
         <v>614</v>
       </c>
       <c r="T16" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U16" s="61" t="s">
         <v>1679</v>
@@ -13272,10 +13338,10 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>2724</v>
+        <v>2708</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>1651</v>
@@ -13296,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>2724</v>
+        <v>2708</v>
       </c>
       <c r="J17" s="65" t="s">
         <v>691</v>
@@ -13327,7 +13393,7 @@
         <v>614</v>
       </c>
       <c r="T17" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U17" s="61" t="s">
         <v>1679</v>
@@ -13347,10 +13413,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>2725</v>
+        <v>2709</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>2724</v>
+        <v>2708</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>1651</v>
@@ -13371,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="65" t="s">
-        <v>2725</v>
+        <v>2709</v>
       </c>
       <c r="J18" s="65" t="s">
         <v>692</v>
@@ -13402,7 +13468,7 @@
         <v>614</v>
       </c>
       <c r="T18" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U18" s="61" t="s">
         <v>1679</v>
@@ -13422,10 +13488,10 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>2716</v>
+        <v>2700</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>1651</v>
@@ -13443,10 +13509,10 @@
         <v>2062</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>2716</v>
+        <v>2700</v>
       </c>
       <c r="J19" s="65" t="s">
         <v>699</v>
@@ -13499,10 +13565,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
-        <v>2717</v>
+        <v>2701</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>2716</v>
+        <v>2700</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>1651</v>
@@ -13523,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="65" t="s">
-        <v>2717</v>
+        <v>2701</v>
       </c>
       <c r="J20" s="65" t="s">
         <v>700</v>
@@ -13556,7 +13622,7 @@
         <v>614</v>
       </c>
       <c r="T20" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U20" s="61" t="s">
         <v>1679</v>
@@ -13576,10 +13642,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
-        <v>2718</v>
+        <v>2702</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>2716</v>
+        <v>2700</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>1651</v>
@@ -13600,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>2718</v>
+        <v>2702</v>
       </c>
       <c r="J21" s="65" t="s">
         <v>701</v>
@@ -13633,7 +13699,7 @@
         <v>614</v>
       </c>
       <c r="T21" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U21" s="61" t="s">
         <v>1679</v>
@@ -13653,10 +13719,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
-        <v>2719</v>
+        <v>2703</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>2716</v>
+        <v>2700</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>1651</v>
@@ -13677,10 +13743,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>2719</v>
+        <v>2703</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>2656</v>
+        <v>2640</v>
       </c>
       <c r="K22" s="65" t="s">
         <v>268</v>
@@ -13710,7 +13776,7 @@
         <v>614</v>
       </c>
       <c r="T22" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U22" s="61" t="s">
         <v>1679</v>
@@ -13730,10 +13796,10 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
-        <v>2720</v>
+        <v>2704</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>2717</v>
+        <v>2701</v>
       </c>
       <c r="C23" s="61" t="s">
         <v>1651</v>
@@ -13754,10 +13820,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>2728</v>
+        <v>2712</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>2730</v>
+        <v>2714</v>
       </c>
       <c r="K23" s="65" t="s">
         <v>268</v>
@@ -13785,7 +13851,7 @@
         <v>614</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U23" s="61" t="s">
         <v>1679</v>
@@ -13805,10 +13871,10 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
-        <v>2721</v>
+        <v>2705</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>2718</v>
+        <v>2702</v>
       </c>
       <c r="C24" s="61" t="s">
         <v>1651</v>
@@ -13829,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>2729</v>
+        <v>2713</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>2731</v>
+        <v>2715</v>
       </c>
       <c r="K24" s="65" t="s">
         <v>268</v>
@@ -13862,7 +13928,7 @@
         <v>614</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U24" s="61" t="s">
         <v>1679</v>
@@ -13885,7 +13951,7 @@
         <v>2245</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>2655</v>
+        <v>2639</v>
       </c>
       <c r="C25" s="61" t="s">
         <v>1651</v>
@@ -13903,7 +13969,7 @@
         <v>2062</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I25" s="81" t="s">
         <v>2245</v>
@@ -13939,7 +14005,7 @@
         <v>687</v>
       </c>
       <c r="T25" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U25" s="76" t="s">
         <v>1682</v>
@@ -13959,7 +14025,7 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
-        <v>2652</v>
+        <v>2636</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>2245</v>
@@ -13975,16 +14041,16 @@
         <v>1708</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>2649</v>
+        <v>2633</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="65" t="s">
-        <v>2652</v>
+        <v>2636</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>2647</v>
+        <v>2631</v>
       </c>
       <c r="K26" s="65" t="s">
         <v>268</v>
@@ -14004,7 +14070,7 @@
         <v>1238</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U26" s="61" t="s">
         <v>1679</v>
@@ -14022,7 +14088,7 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
-        <v>2653</v>
+        <v>2637</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>2245</v>
@@ -14038,16 +14104,16 @@
         <v>1708</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>2650</v>
+        <v>2634</v>
       </c>
       <c r="H27" s="69" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>2653</v>
+        <v>2637</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>2648</v>
+        <v>2632</v>
       </c>
       <c r="K27" s="65" t="s">
         <v>268</v>
@@ -14067,7 +14133,7 @@
         <v>1238</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U27" s="61" t="s">
         <v>1679</v>
@@ -14162,7 +14228,7 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
-        <v>2600</v>
+        <v>2584</v>
       </c>
       <c r="B29" s="61" t="s">
         <v>1722</v>
@@ -14186,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="65" t="s">
-        <v>2600</v>
+        <v>2584</v>
       </c>
       <c r="J29" s="65" t="s">
         <v>652</v>
@@ -14214,10 +14280,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="74" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="T29" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U29" s="61" t="s">
         <v>1679</v>
@@ -14237,10 +14303,10 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
-        <v>2609</v>
+        <v>2593</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>2600</v>
+        <v>2584</v>
       </c>
       <c r="C30" s="61" t="s">
         <v>1651</v>
@@ -14259,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>2609</v>
+        <v>2593</v>
       </c>
       <c r="J30" s="65" t="s">
         <v>653</v>
@@ -14289,10 +14355,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T30" s="75" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U30" s="61" t="s">
         <v>1679</v>
@@ -14339,7 +14405,7 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
-        <v>2617</v>
+        <v>2601</v>
       </c>
       <c r="B32" s="61" t="s">
         <v>1721</v>
@@ -14358,13 +14424,13 @@
         <v>2062</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>2623</v>
+        <v>2607</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>2617</v>
+        <v>2601</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>2616</v>
+        <v>2600</v>
       </c>
       <c r="K32" s="65" t="s">
         <v>268</v>
@@ -14380,7 +14446,7 @@
         <v>739</v>
       </c>
       <c r="T32" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U32" s="76" t="s">
         <v>1682</v>
@@ -14400,10 +14466,10 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
-        <v>2618</v>
+        <v>2602</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>2617</v>
+        <v>2601</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>1653</v>
@@ -14424,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>2618</v>
+        <v>2602</v>
       </c>
       <c r="J33" s="65" t="s">
         <v>743</v>
@@ -14454,10 +14520,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T33" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U33" s="61" t="s">
         <v>1679</v>
@@ -14477,10 +14543,10 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
-        <v>2619</v>
+        <v>2603</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>2617</v>
+        <v>2601</v>
       </c>
       <c r="C34" s="61" t="s">
         <v>1653</v>
@@ -14501,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>2619</v>
+        <v>2603</v>
       </c>
       <c r="J34" s="65" t="s">
         <v>659</v>
@@ -14531,10 +14597,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T34" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U34" s="61" t="s">
         <v>1679</v>
@@ -14602,7 +14668,7 @@
         <v>2062</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>2641</v>
+        <v>2625</v>
       </c>
       <c r="I36" s="65" t="s">
         <v>1723</v>
@@ -14658,7 +14724,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
-        <v>2595</v>
+        <v>2579</v>
       </c>
       <c r="B37" s="61" t="s">
         <v>1723</v>
@@ -14682,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="65" t="s">
-        <v>2595</v>
+        <v>2579</v>
       </c>
       <c r="J37" s="65" t="s">
         <v>655</v>
@@ -14713,7 +14779,7 @@
         <v>475</v>
       </c>
       <c r="T37" s="75" t="s">
-        <v>2586</v>
+        <v>2570</v>
       </c>
       <c r="U37" s="76" t="s">
         <v>1682</v>
@@ -14733,10 +14799,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
-        <v>2592</v>
+        <v>2576</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>2595</v>
+        <v>2579</v>
       </c>
       <c r="C38" s="61" t="s">
         <v>1651</v>
@@ -14757,10 +14823,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="65" t="s">
-        <v>2592</v>
+        <v>2576</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>2591</v>
+        <v>2575</v>
       </c>
       <c r="K38" s="65" t="s">
         <v>268</v>
@@ -14785,10 +14851,10 @@
       </c>
       <c r="R38" s="78"/>
       <c r="S38" s="74" t="s">
-        <v>2598</v>
+        <v>2582</v>
       </c>
       <c r="T38" s="75" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="U38" s="76" t="s">
         <v>1690</v>
@@ -14808,10 +14874,10 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>2593</v>
+        <v>2577</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>2592</v>
+        <v>2576</v>
       </c>
       <c r="C39" s="61" t="s">
         <v>1651</v>
@@ -14832,10 +14898,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>2593</v>
+        <v>2577</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>2556</v>
+        <v>2542</v>
       </c>
       <c r="K39" s="65" t="s">
         <v>268</v>
@@ -14862,10 +14928,10 @@
         <v>1244</v>
       </c>
       <c r="S39" s="74" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="T39" s="75" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="U39" s="76" t="s">
         <v>1689</v>
@@ -14885,10 +14951,10 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
-        <v>2603</v>
+        <v>2587</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>2593</v>
+        <v>2577</v>
       </c>
       <c r="C40" s="61" t="s">
         <v>1651</v>
@@ -14909,10 +14975,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="65" t="s">
-        <v>2603</v>
+        <v>2587</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>2604</v>
+        <v>2588</v>
       </c>
       <c r="K40" s="65" t="s">
         <v>268</v>
@@ -14937,10 +15003,10 @@
       </c>
       <c r="R40" s="78"/>
       <c r="S40" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T40" s="75" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="U40" s="76" t="s">
         <v>1681</v>
@@ -14960,10 +15026,10 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
-        <v>2594</v>
+        <v>2578</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>2593</v>
+        <v>2577</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>1651</v>
@@ -14984,10 +15050,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>2594</v>
+        <v>2578</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>2557</v>
+        <v>2543</v>
       </c>
       <c r="K41" s="65" t="s">
         <v>268</v>
@@ -15012,10 +15078,10 @@
       </c>
       <c r="R41" s="78"/>
       <c r="S41" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T41" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U41" s="61" t="s">
         <v>1679</v>
@@ -15035,10 +15101,10 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
-        <v>2601</v>
+        <v>2585</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>2594</v>
+        <v>2578</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>1651</v>
@@ -15059,10 +15125,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="65" t="s">
-        <v>2601</v>
+        <v>2585</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>2602</v>
+        <v>2586</v>
       </c>
       <c r="K42" s="65" t="s">
         <v>268</v>
@@ -15085,10 +15151,10 @@
       </c>
       <c r="R42" s="78"/>
       <c r="S42" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T42" s="75" t="s">
-        <v>2588</v>
+        <v>2572</v>
       </c>
       <c r="U42" s="61" t="s">
         <v>1679</v>
@@ -15108,10 +15174,10 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
-        <v>2605</v>
+        <v>2589</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>2594</v>
+        <v>2578</v>
       </c>
       <c r="C43" s="61" t="s">
         <v>1651</v>
@@ -15132,10 +15198,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="65" t="s">
-        <v>2605</v>
+        <v>2589</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>2606</v>
+        <v>2590</v>
       </c>
       <c r="K43" s="65" t="s">
         <v>268</v>
@@ -15154,10 +15220,10 @@
       </c>
       <c r="R43" s="78"/>
       <c r="S43" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T43" s="75" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U43" s="61" t="s">
         <v>1679</v>
@@ -15177,10 +15243,10 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
-        <v>2607</v>
+        <v>2591</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>2605</v>
+        <v>2589</v>
       </c>
       <c r="C44" s="61" t="s">
         <v>1651</v>
@@ -15201,10 +15267,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="65" t="s">
-        <v>2607</v>
+        <v>2591</v>
       </c>
       <c r="J44" s="65" t="s">
-        <v>2608</v>
+        <v>2592</v>
       </c>
       <c r="K44" s="65" t="s">
         <v>268</v>
@@ -15223,10 +15289,10 @@
       </c>
       <c r="R44" s="78"/>
       <c r="S44" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T44" s="75" t="s">
-        <v>2589</v>
+        <v>2573</v>
       </c>
       <c r="U44" s="61" t="s">
         <v>1679</v>
@@ -15246,10 +15312,10 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
-        <v>2596</v>
+        <v>2580</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>2595</v>
+        <v>2579</v>
       </c>
       <c r="C45" s="61" t="s">
         <v>1660</v>
@@ -15270,10 +15336,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>2596</v>
+        <v>2580</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>2597</v>
+        <v>2581</v>
       </c>
       <c r="K45" s="65" t="s">
         <v>268</v>
@@ -15303,13 +15369,13 @@
         <v>656</v>
       </c>
       <c r="T45" s="75" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="U45" s="76" t="s">
-        <v>2590</v>
+        <v>2574</v>
       </c>
       <c r="V45" s="65" t="s">
-        <v>2595</v>
+        <v>2579</v>
       </c>
       <c r="W45" s="60" t="s">
         <v>642</v>
@@ -15323,10 +15389,10 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
-        <v>2614</v>
+        <v>2598</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>2596</v>
+        <v>2580</v>
       </c>
       <c r="C46" s="61" t="s">
         <v>1651</v>
@@ -15347,10 +15413,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="65" t="s">
-        <v>2614</v>
+        <v>2598</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>2611</v>
+        <v>2595</v>
       </c>
       <c r="K46" s="65" t="s">
         <v>268</v>
@@ -15384,10 +15450,10 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
-        <v>2628</v>
+        <v>2612</v>
       </c>
       <c r="B47" s="65" t="s">
-        <v>2614</v>
+        <v>2598</v>
       </c>
       <c r="C47" s="61" t="s">
         <v>1651</v>
@@ -15408,10 +15474,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="65" t="s">
-        <v>2628</v>
+        <v>2612</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>2612</v>
+        <v>2596</v>
       </c>
       <c r="K47" s="65" t="s">
         <v>268</v>
@@ -15461,10 +15527,10 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
-        <v>2629</v>
+        <v>2613</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>2614</v>
+        <v>2598</v>
       </c>
       <c r="C48" s="61" t="s">
         <v>1651</v>
@@ -15485,10 +15551,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="65" t="s">
-        <v>2629</v>
+        <v>2613</v>
       </c>
       <c r="J48" s="65" t="s">
-        <v>2613</v>
+        <v>2597</v>
       </c>
       <c r="K48" s="65" t="s">
         <v>268</v>
@@ -15538,10 +15604,10 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
-        <v>2610</v>
+        <v>2594</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>2596</v>
+        <v>2580</v>
       </c>
       <c r="C49" s="61" t="s">
         <v>1651</v>
@@ -15562,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="65" t="s">
-        <v>2610</v>
+        <v>2594</v>
       </c>
       <c r="J49" s="65" t="s">
         <v>657</v>
@@ -15640,10 +15706,10 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
-        <v>2626</v>
+        <v>2610</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>2610</v>
+        <v>2594</v>
       </c>
       <c r="C51" s="61" t="s">
         <v>1653</v>
@@ -15664,10 +15730,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="65" t="s">
-        <v>2626</v>
+        <v>2610</v>
       </c>
       <c r="J51" s="65" t="s">
-        <v>2615</v>
+        <v>2599</v>
       </c>
       <c r="K51" s="65" t="s">
         <v>268</v>
@@ -15742,10 +15808,10 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="s">
-        <v>2632</v>
+        <v>2616</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>2626</v>
+        <v>2610</v>
       </c>
       <c r="C53" s="61" t="s">
         <v>1653</v>
@@ -15766,10 +15832,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>2632</v>
+        <v>2616</v>
       </c>
       <c r="J53" s="65" t="s">
-        <v>2633</v>
+        <v>2617</v>
       </c>
       <c r="K53" s="65" t="s">
         <v>268</v>
@@ -15796,10 +15862,10 @@
         <v>0</v>
       </c>
       <c r="S53" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T53" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U53" s="61" t="s">
         <v>1679</v>
@@ -15846,10 +15912,10 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
-        <v>2627</v>
+        <v>2611</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>2610</v>
+        <v>2594</v>
       </c>
       <c r="C55" s="62" t="s">
         <v>1654</v>
@@ -15870,10 +15936,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>2627</v>
+        <v>2611</v>
       </c>
       <c r="J55" s="65" t="s">
-        <v>2630</v>
+        <v>2614</v>
       </c>
       <c r="K55" s="65" t="s">
         <v>268</v>
@@ -15919,10 +15985,10 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
-        <v>2631</v>
+        <v>2615</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>2627</v>
+        <v>2611</v>
       </c>
       <c r="C56" s="62" t="s">
         <v>1654</v>
@@ -15943,10 +16009,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="65" t="s">
-        <v>2631</v>
+        <v>2615</v>
       </c>
       <c r="J56" s="65" t="s">
-        <v>2634</v>
+        <v>2618</v>
       </c>
       <c r="K56" s="65" t="s">
         <v>268</v>
@@ -15973,10 +16039,10 @@
         <v>0</v>
       </c>
       <c r="S56" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T56" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U56" s="61" t="s">
         <v>1679</v>
@@ -15996,10 +16062,10 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
-        <v>2635</v>
+        <v>2619</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>2627</v>
+        <v>2611</v>
       </c>
       <c r="C57" s="62" t="s">
         <v>1654</v>
@@ -16020,10 +16086,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>2635</v>
+        <v>2619</v>
       </c>
       <c r="J57" s="65" t="s">
-        <v>2636</v>
+        <v>2620</v>
       </c>
       <c r="K57" s="65" t="s">
         <v>268</v>
@@ -16050,10 +16116,10 @@
         <v>0</v>
       </c>
       <c r="S57" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T57" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U57" s="61" t="s">
         <v>1679</v>
@@ -16073,10 +16139,10 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="65" t="s">
-        <v>2625</v>
+        <v>2609</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>2610</v>
+        <v>2594</v>
       </c>
       <c r="C58" s="61" t="s">
         <v>1651</v>
@@ -16097,10 +16163,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="65" t="s">
-        <v>2625</v>
+        <v>2609</v>
       </c>
       <c r="J58" s="65" t="s">
-        <v>2638</v>
+        <v>2622</v>
       </c>
       <c r="K58" s="65" t="s">
         <v>268</v>
@@ -16128,7 +16194,7 @@
         <v>661</v>
       </c>
       <c r="T58" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U58" s="76" t="s">
         <v>1682</v>
@@ -16146,10 +16212,10 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="65" t="s">
-        <v>2637</v>
+        <v>2621</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>2625</v>
+        <v>2609</v>
       </c>
       <c r="C59" s="61" t="s">
         <v>1658</v>
@@ -16168,10 +16234,10 @@
       </c>
       <c r="H59" s="69"/>
       <c r="I59" s="65" t="s">
-        <v>2637</v>
+        <v>2621</v>
       </c>
       <c r="J59" s="65" t="s">
-        <v>2639</v>
+        <v>2623</v>
       </c>
       <c r="K59" s="65" t="s">
         <v>268</v>
@@ -16190,10 +16256,10 @@
       <c r="Q59" s="61"/>
       <c r="R59" s="61"/>
       <c r="S59" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T59" s="75" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="U59" s="61" t="s">
         <v>1690</v>
@@ -16211,10 +16277,10 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="65" t="s">
-        <v>2736</v>
+        <v>2720</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>2625</v>
+        <v>2609</v>
       </c>
       <c r="C60" s="61" t="s">
         <v>1651</v>
@@ -16235,10 +16301,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="65" t="s">
-        <v>2736</v>
+        <v>2720</v>
       </c>
       <c r="J60" s="65" t="s">
-        <v>2738</v>
+        <v>2722</v>
       </c>
       <c r="K60" s="65" t="s">
         <v>268</v>
@@ -16282,10 +16348,10 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="65" t="s">
-        <v>2739</v>
+        <v>2723</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>2736</v>
+        <v>2720</v>
       </c>
       <c r="C61" s="61" t="s">
         <v>1658</v>
@@ -16306,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>2739</v>
+        <v>2723</v>
       </c>
       <c r="J61" s="65" t="s">
         <v>662</v>
@@ -16336,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="74" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="T61" s="75" t="s">
         <v>2499</v>
@@ -16359,10 +16425,10 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="65" t="s">
-        <v>2753</v>
+        <v>2737</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>2739</v>
+        <v>2723</v>
       </c>
       <c r="C62" s="61" t="s">
         <v>1658</v>
@@ -16383,10 +16449,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="65" t="s">
-        <v>2753</v>
+        <v>2737</v>
       </c>
       <c r="J62" s="65" t="s">
-        <v>2755</v>
+        <v>2739</v>
       </c>
       <c r="K62" s="65" t="s">
         <v>268</v>
@@ -16409,10 +16475,10 @@
         <v>1244</v>
       </c>
       <c r="S62" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T62" s="75" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="U62" s="61" t="s">
         <v>1689</v>
@@ -16432,10 +16498,10 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
-        <v>2754</v>
+        <v>2738</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>2753</v>
+        <v>2737</v>
       </c>
       <c r="C63" s="61" t="s">
         <v>1658</v>
@@ -16456,10 +16522,10 @@
         <v>0</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>2754</v>
+        <v>2738</v>
       </c>
       <c r="J63" s="65" t="s">
-        <v>2756</v>
+        <v>2740</v>
       </c>
       <c r="K63" s="65" t="s">
         <v>268</v>
@@ -16486,10 +16552,10 @@
         <v>0</v>
       </c>
       <c r="S63" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T63" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U63" s="61" t="s">
         <v>1679</v>
@@ -16509,10 +16575,10 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="65" t="s">
-        <v>2757</v>
+        <v>2741</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>2754</v>
+        <v>2738</v>
       </c>
       <c r="C64" s="61" t="s">
         <v>1651</v>
@@ -16533,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="65" t="s">
-        <v>2757</v>
+        <v>2741</v>
       </c>
       <c r="J64" s="65" t="s">
         <v>663</v>
@@ -16563,10 +16629,10 @@
         <v>0</v>
       </c>
       <c r="S64" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T64" s="75" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U64" s="61" t="s">
         <v>1679</v>
@@ -16667,10 +16733,10 @@
     </row>
     <row r="68" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
-        <v>2758</v>
+        <v>2742</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>2754</v>
+        <v>2738</v>
       </c>
       <c r="C68" s="61" t="s">
         <v>1651</v>
@@ -16691,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="65" t="s">
-        <v>2758</v>
+        <v>2742</v>
       </c>
       <c r="J68" s="65" t="s">
         <v>665</v>
@@ -16721,10 +16787,10 @@
         <v>0</v>
       </c>
       <c r="S68" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T68" s="75" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U68" s="61" t="s">
         <v>1679</v>
@@ -16825,10 +16891,10 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="65" t="s">
-        <v>2737</v>
+        <v>2721</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>2595</v>
+        <v>2579</v>
       </c>
       <c r="C72" s="61" t="s">
         <v>1651</v>
@@ -16849,10 +16915,10 @@
         <v>0</v>
       </c>
       <c r="I72" s="65" t="s">
-        <v>2737</v>
+        <v>2721</v>
       </c>
       <c r="J72" s="65" t="s">
-        <v>2740</v>
+        <v>2724</v>
       </c>
       <c r="K72" s="65" t="s">
         <v>268</v>
@@ -16873,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="14" t="s">
-        <v>2642</v>
+        <v>2626</v>
       </c>
       <c r="T72" s="75" t="s">
         <v>277</v>
@@ -16896,10 +16962,10 @@
     </row>
     <row r="73" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="65" t="s">
-        <v>2741</v>
+        <v>2725</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>2737</v>
+        <v>2721</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>1658</v>
@@ -16920,10 +16986,10 @@
         <v>0</v>
       </c>
       <c r="I73" s="65" t="s">
-        <v>2741</v>
+        <v>2725</v>
       </c>
       <c r="J73" s="65" t="s">
-        <v>2742</v>
+        <v>2726</v>
       </c>
       <c r="K73" s="65" t="s">
         <v>268</v>
@@ -16946,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="74" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="T73" s="75" t="s">
         <v>2499</v>
@@ -16969,10 +17035,10 @@
     </row>
     <row r="74" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="65" t="s">
-        <v>2759</v>
+        <v>2743</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>2741</v>
+        <v>2725</v>
       </c>
       <c r="C74" s="61" t="s">
         <v>1658</v>
@@ -16993,10 +17059,10 @@
         <v>0</v>
       </c>
       <c r="I74" s="65" t="s">
-        <v>2759</v>
+        <v>2743</v>
       </c>
       <c r="J74" s="65" t="s">
-        <v>2763</v>
+        <v>2747</v>
       </c>
       <c r="K74" s="65" t="s">
         <v>268</v>
@@ -17019,10 +17085,10 @@
         <v>1244</v>
       </c>
       <c r="S74" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T74" s="75" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="U74" s="61" t="s">
         <v>1689</v>
@@ -17042,10 +17108,10 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
-        <v>2760</v>
+        <v>2744</v>
       </c>
       <c r="B75" s="65" t="s">
-        <v>2759</v>
+        <v>2743</v>
       </c>
       <c r="C75" s="61" t="s">
         <v>1658</v>
@@ -17066,10 +17132,10 @@
         <v>0</v>
       </c>
       <c r="I75" s="65" t="s">
-        <v>2760</v>
+        <v>2744</v>
       </c>
       <c r="J75" s="65" t="s">
-        <v>2764</v>
+        <v>2748</v>
       </c>
       <c r="K75" s="65" t="s">
         <v>268</v>
@@ -17096,10 +17162,10 @@
         <v>0</v>
       </c>
       <c r="S75" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T75" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U75" s="61" t="s">
         <v>1679</v>
@@ -17119,10 +17185,10 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
-        <v>2765</v>
+        <v>2749</v>
       </c>
       <c r="B76" s="65" t="s">
-        <v>2759</v>
+        <v>2743</v>
       </c>
       <c r="C76" s="61" t="s">
         <v>1651</v>
@@ -17143,7 +17209,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="65" t="s">
-        <v>2765</v>
+        <v>2749</v>
       </c>
       <c r="J76" s="65" t="s">
         <v>666</v>
@@ -17176,7 +17242,7 @@
         <v>614</v>
       </c>
       <c r="T76" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U76" s="76"/>
       <c r="V76" s="61" t="s">
@@ -17194,10 +17260,10 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
-        <v>2766</v>
+        <v>2750</v>
       </c>
       <c r="B77" s="65" t="s">
-        <v>2765</v>
+        <v>2749</v>
       </c>
       <c r="C77" s="61" t="s">
         <v>1658</v>
@@ -17218,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="65" t="s">
-        <v>2766</v>
+        <v>2750</v>
       </c>
       <c r="J77" s="65" t="s">
         <v>668</v>
@@ -17244,10 +17310,10 @@
         <v>0</v>
       </c>
       <c r="S77" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T77" s="75" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="U77" s="61" t="s">
         <v>1679</v>
@@ -17267,10 +17333,10 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="s">
-        <v>2761</v>
+        <v>2745</v>
       </c>
       <c r="B78" s="65" t="s">
-        <v>2760</v>
+        <v>2744</v>
       </c>
       <c r="C78" s="61" t="s">
         <v>1651</v>
@@ -17291,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="65" t="s">
-        <v>2761</v>
+        <v>2745</v>
       </c>
       <c r="J78" s="65" t="s">
         <v>663</v>
@@ -17321,10 +17387,10 @@
         <v>0</v>
       </c>
       <c r="S78" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T78" s="75" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U78" s="61" t="s">
         <v>1679</v>
@@ -17344,10 +17410,10 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="65" t="s">
-        <v>2762</v>
+        <v>2746</v>
       </c>
       <c r="B79" s="65" t="s">
-        <v>2760</v>
+        <v>2744</v>
       </c>
       <c r="C79" s="61" t="s">
         <v>1651</v>
@@ -17368,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="65" t="s">
-        <v>2762</v>
+        <v>2746</v>
       </c>
       <c r="J79" s="65" t="s">
         <v>665</v>
@@ -17398,10 +17464,10 @@
         <v>0</v>
       </c>
       <c r="S79" s="74" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="T79" s="75" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="U79" s="61" t="s">
         <v>1679</v>
@@ -17421,10 +17487,10 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="65" t="s">
-        <v>2732</v>
+        <v>2716</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>2736</v>
+        <v>2720</v>
       </c>
       <c r="C80" s="61" t="s">
         <v>1660</v>
@@ -17443,10 +17509,10 @@
         <v>0</v>
       </c>
       <c r="I80" s="65" t="s">
-        <v>2732</v>
+        <v>2716</v>
       </c>
       <c r="J80" s="65" t="s">
-        <v>2734</v>
+        <v>2718</v>
       </c>
       <c r="K80" s="65" t="s">
         <v>268</v>
@@ -17476,7 +17542,7 @@
         <v>669</v>
       </c>
       <c r="T80" s="75" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="U80" s="76" t="s">
         <v>1682</v>
@@ -17494,10 +17560,10 @@
     </row>
     <row r="81" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="65" t="s">
-        <v>2733</v>
+        <v>2717</v>
       </c>
       <c r="B81" s="65" t="s">
-        <v>2737</v>
+        <v>2721</v>
       </c>
       <c r="C81" s="61" t="s">
         <v>1660</v>
@@ -17516,10 +17582,10 @@
         <v>0</v>
       </c>
       <c r="I81" s="65" t="s">
-        <v>2733</v>
+        <v>2717</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>2735</v>
+        <v>2719</v>
       </c>
       <c r="K81" s="65" t="s">
         <v>268</v>
@@ -17549,7 +17615,7 @@
         <v>669</v>
       </c>
       <c r="T81" s="75" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="U81" s="76" t="s">
         <v>1682</v>
@@ -17621,10 +17687,10 @@
     </row>
     <row r="84" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="65" t="s">
-        <v>2640</v>
+        <v>2624</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>2596</v>
+        <v>2580</v>
       </c>
       <c r="C84" s="61" t="s">
         <v>1660</v>
@@ -17645,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="65" t="s">
-        <v>2640</v>
+        <v>2624</v>
       </c>
       <c r="J84" s="65" t="s">
         <v>670</v>
@@ -17796,7 +17862,7 @@
         <v>2062</v>
       </c>
       <c r="H88" s="69" t="s">
-        <v>2641</v>
+        <v>2625</v>
       </c>
       <c r="I88" s="65" t="s">
         <v>1724</v>
@@ -19232,7 +19298,7 @@
         <v>2062</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>2622</v>
+        <v>2606</v>
       </c>
       <c r="I113" s="65" t="s">
         <v>1742</v>
@@ -28239,7 +28305,7 @@
     </row>
     <row r="233" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="65" t="s">
-        <v>2620</v>
+        <v>2604</v>
       </c>
       <c r="B233" s="61" t="s">
         <v>1859</v>
@@ -28263,10 +28329,10 @@
         <v>0</v>
       </c>
       <c r="I233" s="65" t="s">
-        <v>2620</v>
+        <v>2604</v>
       </c>
       <c r="J233" s="65" t="s">
-        <v>2621</v>
+        <v>2605</v>
       </c>
       <c r="K233" s="65" t="s">
         <v>268</v>
@@ -28400,10 +28466,10 @@
         <v>687</v>
       </c>
       <c r="T235" s="75" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
       <c r="U235" s="61" t="s">
-        <v>2590</v>
+        <v>2574</v>
       </c>
       <c r="V235" s="61" t="s">
         <v>1721</v>
@@ -30531,8 +30597,8 @@
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="E58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="D127" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30548,7 +30614,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1720</v>
+        <v>2663</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -30558,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1720</v>
+        <v>2663</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>853</v>
@@ -31453,7 +31519,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
-        <v>2598</v>
+        <v>2582</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>902</v>
@@ -31463,10 +31529,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>2598</v>
+        <v>2582</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>2599</v>
+        <v>2583</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>2109</v>
@@ -31652,7 +31718,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>961</v>
@@ -31673,7 +31739,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>962</v>
@@ -31907,7 +31973,7 @@
         <v>809</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>2644</v>
+        <v>2628</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>2124</v>
@@ -31915,7 +31981,7 @@
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>2642</v>
+        <v>2626</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>852</v>
@@ -31925,13 +31991,13 @@
         <v>0</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>2642</v>
+        <v>2626</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>2643</v>
+        <v>2627</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>2645</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33631,7 +33697,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33646,7 +33712,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>1890</v>
+        <v>2665</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -33656,7 +33722,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1890</v>
+        <v>2665</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1065</v>
@@ -33746,7 +33812,7 @@
         <v>1044</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>2548</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34732,7 +34798,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34747,7 +34813,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>2065</v>
+        <v>2654</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="16"/>
@@ -34755,7 +34821,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2065</v>
+        <v>2654</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2066</v>
@@ -34782,7 +34848,7 @@
         <v>1091</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2573</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35048,7 +35114,7 @@
     <sortCondition ref="E1:E16"/>
   </sortState>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35059,8 +35125,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35075,7 +35141,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>1941</v>
+        <v>624</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -35085,7 +35151,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1941</v>
+        <v>624</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1160</v>
@@ -35980,7 +36046,7 @@
         <v>1238</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2513</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -36401,15 +36467,66 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5A54E-E5C7-4E33-825E-F4392C475C17}">
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2753</v>
+      </c>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="9" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFFB933-7E45-4220-A611-276103225669}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36437,7 +36554,7 @@
     <col min="22" max="22" width="20.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="26" style="36"/>
   </cols>
@@ -36539,7 +36656,7 @@
         <v>268</v>
       </c>
       <c r="Y2" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z2" s="36" t="s">
         <v>1706</v>
@@ -36574,7 +36691,7 @@
         <v>1297</v>
       </c>
       <c r="Y3" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z3" s="36" t="s">
         <v>1706</v>
@@ -36609,7 +36726,7 @@
         <v>1297</v>
       </c>
       <c r="Y4" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z4" s="36" t="s">
         <v>1706</v>
@@ -36650,7 +36767,7 @@
         <v>1297</v>
       </c>
       <c r="Y5" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z5" s="36" t="s">
         <v>1706</v>
@@ -36688,7 +36805,7 @@
         <v>1297</v>
       </c>
       <c r="Y6" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z6" s="36" t="s">
         <v>1706</v>
@@ -36726,7 +36843,7 @@
         <v>1297</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z7" s="36" t="s">
         <v>1706</v>
@@ -36764,7 +36881,7 @@
         <v>1297</v>
       </c>
       <c r="Y8" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z8" s="36" t="s">
         <v>1706</v>
@@ -36802,7 +36919,7 @@
         <v>1297</v>
       </c>
       <c r="Y9" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z9" s="36" t="s">
         <v>1706</v>
@@ -36840,7 +36957,7 @@
         <v>1297</v>
       </c>
       <c r="Y10" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z10" s="36" t="s">
         <v>1706</v>
@@ -36878,7 +36995,7 @@
         <v>1297</v>
       </c>
       <c r="Y11" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z11" s="36" t="s">
         <v>1706</v>
@@ -36919,7 +37036,7 @@
         <v>1297</v>
       </c>
       <c r="Y12" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z12" s="36" t="s">
         <v>1706</v>
@@ -36957,7 +37074,7 @@
         <v>1297</v>
       </c>
       <c r="Y13" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z13" s="36" t="s">
         <v>1706</v>
@@ -36998,7 +37115,7 @@
         <v>1297</v>
       </c>
       <c r="Y14" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z14" s="36" t="s">
         <v>1706</v>
@@ -37036,7 +37153,7 @@
         <v>1297</v>
       </c>
       <c r="Y15" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z15" s="36" t="s">
         <v>1706</v>
@@ -37059,7 +37176,7 @@
         <v>268</v>
       </c>
       <c r="Y16" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z16" s="36" t="s">
         <v>1706</v>
@@ -37097,7 +37214,7 @@
         <v>1297</v>
       </c>
       <c r="Y17" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z17" s="36" t="s">
         <v>1706</v>
@@ -37138,7 +37255,7 @@
         <v>1300</v>
       </c>
       <c r="Y18" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z18" s="36" t="s">
         <v>1706</v>
@@ -37179,7 +37296,7 @@
         <v>1300</v>
       </c>
       <c r="Y19" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z19" s="36" t="s">
         <v>1706</v>
@@ -37220,7 +37337,7 @@
         <v>1300</v>
       </c>
       <c r="Y20" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z20" s="36" t="s">
         <v>1706</v>
@@ -37261,7 +37378,7 @@
         <v>1300</v>
       </c>
       <c r="Y21" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z21" s="36" t="s">
         <v>1706</v>
@@ -37302,7 +37419,7 @@
         <v>1300</v>
       </c>
       <c r="Y22" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z22" s="36" t="s">
         <v>1706</v>
@@ -37343,7 +37460,7 @@
         <v>1300</v>
       </c>
       <c r="Y23" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z23" s="36" t="s">
         <v>1706</v>
@@ -37384,7 +37501,7 @@
         <v>1300</v>
       </c>
       <c r="Y24" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z24" s="36" t="s">
         <v>1706</v>
@@ -37425,7 +37542,7 @@
         <v>1300</v>
       </c>
       <c r="Y25" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z25" s="36" t="s">
         <v>1706</v>
@@ -37466,7 +37583,7 @@
         <v>1300</v>
       </c>
       <c r="Y26" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z26" s="36" t="s">
         <v>1706</v>
@@ -37507,7 +37624,7 @@
         <v>1300</v>
       </c>
       <c r="Y27" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z27" s="36" t="s">
         <v>1706</v>
@@ -37548,7 +37665,7 @@
         <v>1300</v>
       </c>
       <c r="Y28" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z28" s="36" t="s">
         <v>1706</v>
@@ -37589,7 +37706,7 @@
         <v>1300</v>
       </c>
       <c r="Y29" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z29" s="36" t="s">
         <v>1706</v>
@@ -37609,7 +37726,7 @@
         <v>484</v>
       </c>
       <c r="Y30" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -37647,7 +37764,7 @@
         <v>375</v>
       </c>
       <c r="Y31" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z31" s="36" t="s">
         <v>1706</v>
@@ -37688,7 +37805,7 @@
         <v>375</v>
       </c>
       <c r="Y32" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z32" s="36" t="s">
         <v>1706</v>
@@ -37729,7 +37846,7 @@
         <v>375</v>
       </c>
       <c r="Y33" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z33" s="36" t="s">
         <v>1706</v>
@@ -37770,7 +37887,7 @@
         <v>375</v>
       </c>
       <c r="Y34" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z34" s="36" t="s">
         <v>1706</v>
@@ -37811,7 +37928,7 @@
         <v>375</v>
       </c>
       <c r="Y35" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z35" s="36" t="s">
         <v>1706</v>
@@ -37852,7 +37969,7 @@
         <v>375</v>
       </c>
       <c r="Y36" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z36" s="36" t="s">
         <v>1706</v>
@@ -37893,7 +38010,7 @@
         <v>375</v>
       </c>
       <c r="Y37" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z37" s="36" t="s">
         <v>1706</v>
@@ -37934,7 +38051,7 @@
         <v>375</v>
       </c>
       <c r="Y38" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z38" s="36" t="s">
         <v>1706</v>
@@ -37975,7 +38092,7 @@
         <v>375</v>
       </c>
       <c r="Y39" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z39" s="36" t="s">
         <v>1706</v>
@@ -38016,7 +38133,7 @@
         <v>375</v>
       </c>
       <c r="Y40" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z40" s="36" t="s">
         <v>1706</v>
@@ -38057,7 +38174,7 @@
         <v>375</v>
       </c>
       <c r="Y41" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z41" s="36" t="s">
         <v>1706</v>
@@ -38098,7 +38215,7 @@
         <v>375</v>
       </c>
       <c r="Y42" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z42" s="36" t="s">
         <v>1706</v>
@@ -38139,7 +38256,7 @@
         <v>375</v>
       </c>
       <c r="Y43" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z43" s="36" t="s">
         <v>1706</v>
@@ -38159,7 +38276,7 @@
         <v>1190</v>
       </c>
       <c r="Y44" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -38197,7 +38314,7 @@
         <v>375</v>
       </c>
       <c r="Y45" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z45" s="36" t="s">
         <v>1706</v>
@@ -38238,7 +38355,7 @@
         <v>375</v>
       </c>
       <c r="Y46" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z46" s="36" t="s">
         <v>1706</v>
@@ -38279,7 +38396,7 @@
         <v>375</v>
       </c>
       <c r="Y47" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z47" s="36" t="s">
         <v>1706</v>
@@ -38320,7 +38437,7 @@
         <v>375</v>
       </c>
       <c r="Y48" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z48" s="36" t="s">
         <v>1706</v>
@@ -38361,7 +38478,7 @@
         <v>375</v>
       </c>
       <c r="Y49" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z49" s="36" t="s">
         <v>1706</v>
@@ -38402,7 +38519,7 @@
         <v>375</v>
       </c>
       <c r="Y50" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z50" s="36" t="s">
         <v>1706</v>
@@ -38443,7 +38560,7 @@
         <v>375</v>
       </c>
       <c r="Y51" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z51" s="36" t="s">
         <v>1706</v>
@@ -38484,7 +38601,7 @@
         <v>375</v>
       </c>
       <c r="Y52" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z52" s="36" t="s">
         <v>1706</v>
@@ -38525,7 +38642,7 @@
         <v>375</v>
       </c>
       <c r="Y53" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z53" s="36" t="s">
         <v>1706</v>
@@ -38566,7 +38683,7 @@
         <v>375</v>
       </c>
       <c r="Y54" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z54" s="36" t="s">
         <v>1706</v>
@@ -38607,7 +38724,7 @@
         <v>375</v>
       </c>
       <c r="Y55" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z55" s="36" t="s">
         <v>1706</v>
@@ -38648,7 +38765,7 @@
         <v>375</v>
       </c>
       <c r="Y56" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z56" s="36" t="s">
         <v>1706</v>
@@ -38689,7 +38806,7 @@
         <v>375</v>
       </c>
       <c r="Y57" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z57" s="36" t="s">
         <v>1706</v>
@@ -38715,7 +38832,7 @@
         <v>1679</v>
       </c>
       <c r="Y58" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -38756,7 +38873,7 @@
         <v>525</v>
       </c>
       <c r="Y59" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z59" s="36" t="s">
         <v>1706</v>
@@ -38800,7 +38917,7 @@
         <v>525</v>
       </c>
       <c r="Y60" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z60" s="36" t="s">
         <v>1706</v>
@@ -38844,7 +38961,7 @@
         <v>525</v>
       </c>
       <c r="Y61" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z61" s="36" t="s">
         <v>1706</v>
@@ -38885,7 +39002,7 @@
         <v>2428</v>
       </c>
       <c r="V62" s="36" t="s">
-        <v>1679</v>
+        <v>2782</v>
       </c>
       <c r="W62" s="36" t="s">
         <v>2433</v>
@@ -38894,7 +39011,7 @@
         <v>375</v>
       </c>
       <c r="Y62" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z62" s="36" t="s">
         <v>1706</v>
@@ -38938,7 +39055,7 @@
         <v>525</v>
       </c>
       <c r="Y63" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z63" s="36" t="s">
         <v>1706</v>
@@ -38982,7 +39099,7 @@
         <v>525</v>
       </c>
       <c r="Y64" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z64" s="36" t="s">
         <v>1706</v>
@@ -39026,7 +39143,7 @@
         <v>525</v>
       </c>
       <c r="Y65" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z65" s="36" t="s">
         <v>1706</v>
@@ -39070,7 +39187,7 @@
         <v>525</v>
       </c>
       <c r="Y66" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z66" s="36" t="s">
         <v>1706</v>
@@ -39111,7 +39228,7 @@
         <v>511</v>
       </c>
       <c r="Y67" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z67" s="36" t="s">
         <v>1706</v>
@@ -39152,7 +39269,7 @@
         <v>511</v>
       </c>
       <c r="Y68" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z68" s="36" t="s">
         <v>1706</v>
@@ -39196,7 +39313,7 @@
         <v>511</v>
       </c>
       <c r="Y69" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z69" s="36" t="s">
         <v>1706</v>
@@ -39240,7 +39357,7 @@
         <v>511</v>
       </c>
       <c r="Y70" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z70" s="36" t="s">
         <v>1706</v>
@@ -39284,7 +39401,7 @@
         <v>525</v>
       </c>
       <c r="Y71" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z71" s="36" t="s">
         <v>1706</v>
@@ -39328,7 +39445,7 @@
         <v>525</v>
       </c>
       <c r="Y72" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z72" s="36" t="s">
         <v>1706</v>
@@ -39372,7 +39489,7 @@
         <v>525</v>
       </c>
       <c r="Y73" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z73" s="36" t="s">
         <v>1706</v>
@@ -39416,7 +39533,7 @@
         <v>525</v>
       </c>
       <c r="Y74" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z74" s="36" t="s">
         <v>1706</v>
@@ -39463,7 +39580,7 @@
         <v>525</v>
       </c>
       <c r="Y75" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z75" s="36" t="s">
         <v>1706</v>
@@ -39510,7 +39627,7 @@
         <v>525</v>
       </c>
       <c r="Y76" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z76" s="36" t="s">
         <v>1706</v>
@@ -39557,7 +39674,7 @@
         <v>525</v>
       </c>
       <c r="Y77" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z77" s="36" t="s">
         <v>1706</v>
@@ -39604,7 +39721,7 @@
         <v>525</v>
       </c>
       <c r="Y78" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z78" s="36" t="s">
         <v>1706</v>
@@ -39651,7 +39768,7 @@
         <v>525</v>
       </c>
       <c r="Y79" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z79" s="36" t="s">
         <v>1706</v>
@@ -39677,7 +39794,7 @@
         <v>268</v>
       </c>
       <c r="Y80" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z80" s="36" t="s">
         <v>1706</v>
@@ -39718,7 +39835,7 @@
         <v>269</v>
       </c>
       <c r="Y81" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z81" s="36" t="s">
         <v>1706</v>
@@ -39759,7 +39876,7 @@
         <v>269</v>
       </c>
       <c r="Y82" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z82" s="36" t="s">
         <v>1706</v>
@@ -39800,7 +39917,7 @@
         <v>269</v>
       </c>
       <c r="Y83" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z83" s="36" t="s">
         <v>1706</v>
@@ -39841,7 +39958,7 @@
         <v>269</v>
       </c>
       <c r="Y84" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z84" s="36" t="s">
         <v>1706</v>
@@ -39882,7 +39999,7 @@
         <v>269</v>
       </c>
       <c r="Y85" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z85" s="36" t="s">
         <v>1706</v>
@@ -39923,7 +40040,7 @@
         <v>269</v>
       </c>
       <c r="Y86" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z86" s="36" t="s">
         <v>1706</v>
@@ -39964,7 +40081,7 @@
         <v>269</v>
       </c>
       <c r="Y87" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z87" s="36" t="s">
         <v>1706</v>
@@ -40005,7 +40122,7 @@
         <v>269</v>
       </c>
       <c r="Y88" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z88" s="36" t="s">
         <v>1706</v>
@@ -40046,7 +40163,7 @@
         <v>269</v>
       </c>
       <c r="Y89" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z89" s="36" t="s">
         <v>1706</v>
@@ -40087,7 +40204,7 @@
         <v>269</v>
       </c>
       <c r="Y90" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z90" s="36" t="s">
         <v>1706</v>
@@ -40128,7 +40245,7 @@
         <v>269</v>
       </c>
       <c r="Y91" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z91" s="36" t="s">
         <v>1706</v>
@@ -40169,7 +40286,7 @@
         <v>269</v>
       </c>
       <c r="Y92" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z92" s="36" t="s">
         <v>1706</v>
@@ -40210,7 +40327,7 @@
         <v>269</v>
       </c>
       <c r="Y93" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z93" s="36" t="s">
         <v>1706</v>
@@ -40251,7 +40368,7 @@
         <v>269</v>
       </c>
       <c r="Y94" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z94" s="36" t="s">
         <v>1706</v>
@@ -40292,7 +40409,7 @@
         <v>269</v>
       </c>
       <c r="Y95" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z95" s="36" t="s">
         <v>1706</v>
@@ -40333,7 +40450,7 @@
         <v>269</v>
       </c>
       <c r="Y96" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z96" s="36" t="s">
         <v>1706</v>
@@ -40374,7 +40491,7 @@
         <v>269</v>
       </c>
       <c r="Y97" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z97" s="36" t="s">
         <v>1706</v>
@@ -40415,7 +40532,7 @@
         <v>269</v>
       </c>
       <c r="Y98" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z98" s="36" t="s">
         <v>1706</v>
@@ -40456,7 +40573,7 @@
         <v>269</v>
       </c>
       <c r="Y99" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z99" s="36" t="s">
         <v>1706</v>
@@ -40497,7 +40614,7 @@
         <v>269</v>
       </c>
       <c r="Y100" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z100" s="36" t="s">
         <v>1706</v>
@@ -40538,7 +40655,7 @@
         <v>269</v>
       </c>
       <c r="Y101" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z101" s="36" t="s">
         <v>1706</v>
@@ -40579,7 +40696,7 @@
         <v>269</v>
       </c>
       <c r="Y102" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z102" s="36" t="s">
         <v>1706</v>
@@ -40620,7 +40737,7 @@
         <v>269</v>
       </c>
       <c r="Y103" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z103" s="36" t="s">
         <v>1706</v>
@@ -40661,7 +40778,7 @@
         <v>269</v>
       </c>
       <c r="Y104" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z104" s="36" t="s">
         <v>1706</v>
@@ -40702,7 +40819,7 @@
         <v>269</v>
       </c>
       <c r="Y105" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z105" s="36" t="s">
         <v>1706</v>
@@ -40743,7 +40860,7 @@
         <v>269</v>
       </c>
       <c r="Y106" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z106" s="36" t="s">
         <v>1706</v>
@@ -40784,7 +40901,7 @@
         <v>269</v>
       </c>
       <c r="Y107" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z107" s="36" t="s">
         <v>1706</v>
@@ -40825,7 +40942,7 @@
         <v>269</v>
       </c>
       <c r="Y108" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z108" s="36" t="s">
         <v>1706</v>
@@ -40866,7 +40983,7 @@
         <v>269</v>
       </c>
       <c r="Y109" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z109" s="36" t="s">
         <v>1706</v>
@@ -40907,7 +41024,7 @@
         <v>269</v>
       </c>
       <c r="Y110" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z110" s="36" t="s">
         <v>1706</v>
@@ -40948,7 +41065,7 @@
         <v>269</v>
       </c>
       <c r="Y111" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z111" s="36" t="s">
         <v>1706</v>
@@ -40989,7 +41106,7 @@
         <v>269</v>
       </c>
       <c r="Y112" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z112" s="36" t="s">
         <v>1706</v>
@@ -41030,7 +41147,7 @@
         <v>269</v>
       </c>
       <c r="Y113" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z113" s="36" t="s">
         <v>1706</v>
@@ -41071,7 +41188,7 @@
         <v>269</v>
       </c>
       <c r="Y114" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z114" s="36" t="s">
         <v>1706</v>
@@ -41112,7 +41229,7 @@
         <v>269</v>
       </c>
       <c r="Y115" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z115" s="36" t="s">
         <v>1706</v>
@@ -41153,7 +41270,7 @@
         <v>269</v>
       </c>
       <c r="Y116" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z116" s="36" t="s">
         <v>1706</v>
@@ -41194,7 +41311,7 @@
         <v>269</v>
       </c>
       <c r="Y117" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z117" s="36" t="s">
         <v>1706</v>
@@ -41235,7 +41352,7 @@
         <v>269</v>
       </c>
       <c r="Y118" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z118" s="36" t="s">
         <v>1706</v>
@@ -41276,7 +41393,7 @@
         <v>269</v>
       </c>
       <c r="Y119" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z119" s="36" t="s">
         <v>1706</v>
@@ -41317,7 +41434,7 @@
         <v>269</v>
       </c>
       <c r="Y120" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z120" s="36" t="s">
         <v>1706</v>
@@ -41358,7 +41475,7 @@
         <v>269</v>
       </c>
       <c r="Y121" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z121" s="36" t="s">
         <v>1706</v>
@@ -41399,7 +41516,7 @@
         <v>269</v>
       </c>
       <c r="Y122" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z122" s="36" t="s">
         <v>1706</v>
@@ -41440,7 +41557,7 @@
         <v>269</v>
       </c>
       <c r="Y123" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z123" s="36" t="s">
         <v>1706</v>
@@ -41481,7 +41598,7 @@
         <v>269</v>
       </c>
       <c r="Y124" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z124" s="36" t="s">
         <v>1706</v>
@@ -41522,7 +41639,7 @@
         <v>269</v>
       </c>
       <c r="Y125" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z125" s="36" t="s">
         <v>1706</v>
@@ -41563,7 +41680,7 @@
         <v>269</v>
       </c>
       <c r="Y126" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z126" s="36" t="s">
         <v>1706</v>
@@ -41604,7 +41721,7 @@
         <v>269</v>
       </c>
       <c r="Y127" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z127" s="36" t="s">
         <v>1706</v>
@@ -41645,7 +41762,7 @@
         <v>269</v>
       </c>
       <c r="Y128" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z128" s="36" t="s">
         <v>1706</v>
@@ -41686,7 +41803,7 @@
         <v>269</v>
       </c>
       <c r="Y129" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z129" s="36" t="s">
         <v>1706</v>
@@ -41727,7 +41844,7 @@
         <v>269</v>
       </c>
       <c r="Y130" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z130" s="36" t="s">
         <v>1706</v>
@@ -41768,7 +41885,7 @@
         <v>269</v>
       </c>
       <c r="Y131" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z131" s="36" t="s">
         <v>1706</v>
@@ -41809,7 +41926,7 @@
         <v>269</v>
       </c>
       <c r="Y132" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z132" s="36" t="s">
         <v>1706</v>
@@ -41850,7 +41967,7 @@
         <v>269</v>
       </c>
       <c r="Y133" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z133" s="36" t="s">
         <v>1706</v>
@@ -41891,7 +42008,7 @@
         <v>269</v>
       </c>
       <c r="Y134" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z134" s="36" t="s">
         <v>1706</v>
@@ -41932,7 +42049,7 @@
         <v>269</v>
       </c>
       <c r="Y135" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z135" s="36" t="s">
         <v>1706</v>
@@ -41973,7 +42090,7 @@
         <v>269</v>
       </c>
       <c r="Y136" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z136" s="36" t="s">
         <v>1706</v>
@@ -42014,7 +42131,7 @@
         <v>269</v>
       </c>
       <c r="Y137" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z137" s="36" t="s">
         <v>1706</v>
@@ -42055,7 +42172,7 @@
         <v>269</v>
       </c>
       <c r="Y138" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z138" s="36" t="s">
         <v>1706</v>
@@ -42096,7 +42213,7 @@
         <v>269</v>
       </c>
       <c r="Y139" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -42122,7 +42239,7 @@
         <v>2245</v>
       </c>
       <c r="Y140" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z140" s="36" t="s">
         <v>1706</v>
@@ -42169,7 +42286,7 @@
         <v>269</v>
       </c>
       <c r="Y141" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z141" s="36" t="s">
         <v>1706</v>
@@ -42216,7 +42333,7 @@
         <v>269</v>
       </c>
       <c r="Y142" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z142" s="36" t="s">
         <v>1706</v>
@@ -42263,7 +42380,7 @@
         <v>269</v>
       </c>
       <c r="Y143" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z143" s="36" t="s">
         <v>1706</v>
@@ -42310,7 +42427,7 @@
         <v>269</v>
       </c>
       <c r="Y144" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z144" s="36" t="s">
         <v>1706</v>
@@ -42336,7 +42453,7 @@
         <v>268</v>
       </c>
       <c r="Y145" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z145" s="36" t="s">
         <v>1706</v>
@@ -42380,7 +42497,7 @@
         <v>525</v>
       </c>
       <c r="Y146" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z146" s="36" t="s">
         <v>1706</v>
@@ -42421,7 +42538,7 @@
         <v>623</v>
       </c>
       <c r="Y147" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z147" s="36" t="s">
         <v>1706</v>
@@ -42465,13 +42582,13 @@
         <v>1189</v>
       </c>
       <c r="Y148" s="64" t="s">
-        <v>2767</v>
+        <v>2751</v>
       </c>
       <c r="Z148" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
         <v>2434</v>
       </c>
@@ -42490,14 +42607,14 @@
       <c r="K149" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="Y149" s="64" t="s">
-        <v>2767</v>
+      <c r="Y149" s="36" t="s">
+        <v>2752</v>
       </c>
       <c r="Z149" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
         <v>2435</v>
       </c>
@@ -42537,14 +42654,14 @@
       <c r="X150" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="Y150" s="64" t="s">
-        <v>2767</v>
+      <c r="Y150" s="36" t="s">
+        <v>2775</v>
       </c>
       <c r="Z150" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
         <v>2436</v>
       </c>
@@ -42585,13 +42702,13 @@
         <v>525</v>
       </c>
       <c r="Y151" s="36" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="Z151" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
         <v>2445</v>
       </c>
@@ -42632,13 +42749,13 @@
         <v>375</v>
       </c>
       <c r="Y152" s="36" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="Z152" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
         <v>2447</v>
       </c>
@@ -42682,13 +42799,13 @@
         <v>375</v>
       </c>
       <c r="Y153" s="36" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="Z153" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
         <v>2447</v>
       </c>
@@ -42732,13 +42849,13 @@
         <v>375</v>
       </c>
       <c r="Y154" s="36" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="Z154" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
         <v>2449</v>
       </c>
@@ -42788,13 +42905,13 @@
         <v>375</v>
       </c>
       <c r="Y155" s="36" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="Z155" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
         <v>2451</v>
       </c>
@@ -42826,13 +42943,13 @@
         <v>282</v>
       </c>
       <c r="Y156" s="36" t="s">
-        <v>2768</v>
+        <v>2776</v>
       </c>
       <c r="Z156" s="36" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
         <v>2453</v>
       </c>
@@ -42861,7 +42978,7 @@
         <v>388</v>
       </c>
       <c r="Y157" s="36" t="s">
-        <v>2769</v>
+        <v>2777</v>
       </c>
       <c r="Z157" s="36" t="s">
         <v>1706</v>
@@ -42908,7 +43025,7 @@
         <v>375</v>
       </c>
       <c r="Y158" s="36" t="s">
-        <v>2770</v>
+        <v>2778</v>
       </c>
       <c r="Z158" s="36" t="s">
         <v>1706</v>
@@ -42952,7 +43069,7 @@
         <v>2460</v>
       </c>
       <c r="Y159" s="36" t="s">
-        <v>2771</v>
+        <v>2779</v>
       </c>
       <c r="Z159" s="36" t="s">
         <v>1706</v>
@@ -42985,7 +43102,7 @@
       </c>
       <c r="T160" s="45"/>
       <c r="Y160" s="36" t="s">
-        <v>2772</v>
+        <v>2780</v>
       </c>
       <c r="Z160" s="36" t="s">
         <v>1706</v>
@@ -43015,7 +43132,7 @@
       </c>
       <c r="T161" s="45"/>
       <c r="Y161" s="36" t="s">
-        <v>2773</v>
+        <v>2781</v>
       </c>
       <c r="Z161" s="36" t="s">
         <v>1706</v>
@@ -43034,8 +43151,8 @@
   </sheetPr>
   <dimension ref="A1:J346"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F344" sqref="F344"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43054,7 +43171,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>1586</v>
+        <v>266</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="20" t="s">
@@ -43065,7 +43182,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1586</v>
+        <v>266</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>267</v>
@@ -43165,7 +43282,7 @@
         <v>2053</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>2549</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -53434,7 +53551,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -53445,8 +53562,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53466,8 +53583,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>1649</v>
+      <c r="A1" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
@@ -53477,7 +53594,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>1649</v>
+        <v>280</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>281</v>
@@ -53555,7 +53672,7 @@
         <v>282</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>2545</v>
+        <v>2759</v>
       </c>
     </row>
   </sheetData>
@@ -53575,7 +53692,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53596,7 +53713,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>1666</v>
+        <v>299</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -53615,7 +53732,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1666</v>
+        <v>299</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>300</v>
@@ -53733,7 +53850,7 @@
         <v>309</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>2550</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53927,8 +54044,8 @@
   </sheetPr>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53945,7 +54062,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>1964</v>
+        <v>2397</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -53955,7 +54072,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1964</v>
+        <v>2397</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>1963</v>
@@ -54026,7 +54143,7 @@
         <v>405</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>2574</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -56773,8 +56890,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="F1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56794,7 +56911,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>1660</v>
+        <v>265</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -56804,7 +56921,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>1660</v>
+        <v>265</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>336</v>
@@ -56845,7 +56962,7 @@
         <v>320</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -56877,7 +56994,7 @@
         <v>387</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>2544</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -56907,7 +57024,7 @@
         <v>1236</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>2527</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -56937,7 +57054,7 @@
         <v>1236</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>2527</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -56967,7 +57084,7 @@
         <v>1236</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>2527</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -56997,7 +57114,7 @@
         <v>2489</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>2527</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -57027,10 +57144,10 @@
         <v>352</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>2493</v>
       </c>
@@ -57057,7 +57174,7 @@
         <v>1236</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>2529</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -57087,7 +57204,7 @@
         <v>495</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>2536</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -57117,7 +57234,7 @@
         <v>1236</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>2527</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -57147,7 +57264,7 @@
         <v>334</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>2527</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -57177,7 +57294,7 @@
         <v>320</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -57207,7 +57324,7 @@
         <v>345</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -57237,7 +57354,7 @@
         <v>347</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -57267,7 +57384,7 @@
         <v>349</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -57297,12 +57414,12 @@
         <v>320</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>1661</v>
@@ -57312,7 +57429,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="F18" s="46" t="s">
         <v>2456</v>
@@ -57327,7 +57444,7 @@
         <v>1236</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>2529</v>
+        <v>2765</v>
       </c>
     </row>
   </sheetData>
@@ -57348,7 +57465,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57364,8 +57481,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1675</v>
+      <c r="A1" s="31" t="s">
+        <v>276</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -57375,7 +57492,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1675</v>
+        <v>276</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>353</v>
@@ -57782,8 +57899,8 @@
   </sheetPr>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57798,7 +57915,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>1676</v>
+        <v>2670</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -57808,7 +57925,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>1676</v>
+        <v>2670</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>386</v>
@@ -57987,7 +58104,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>2537</v>
+        <v>2530</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>393</v>
@@ -57997,7 +58114,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>2537</v>
+        <v>2530</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>477</v>
@@ -58008,7 +58125,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>2578</v>
+        <v>2562</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>393</v>
@@ -58016,10 +58133,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>2578</v>
+        <v>2562</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>2095</v>
@@ -58069,7 +58186,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>393</v>
@@ -58079,7 +58196,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>454</v>
@@ -58090,7 +58207,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>2561</v>
+        <v>2547</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>393</v>
@@ -58100,7 +58217,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>2561</v>
+        <v>2547</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2457</v>
@@ -58111,7 +58228,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>2538</v>
+        <v>2531</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>393</v>
@@ -58121,7 +58238,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>2538</v>
+        <v>2531</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>478</v>
@@ -58132,7 +58249,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>2562</v>
+        <v>2548</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>393</v>
@@ -58142,7 +58259,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>2562</v>
+        <v>2548</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>455</v>
@@ -58195,7 +58312,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>2563</v>
+        <v>2549</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>393</v>
@@ -58205,7 +58322,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>2563</v>
+        <v>2549</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>457</v>
@@ -58216,7 +58333,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>393</v>
@@ -58226,7 +58343,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>460</v>
@@ -58237,7 +58354,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>2565</v>
+        <v>2551</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>393</v>
@@ -58247,7 +58364,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>2565</v>
+        <v>2551</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>461</v>
@@ -58268,7 +58385,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>2227</v>
@@ -58384,7 +58501,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>393</v>
@@ -58394,7 +58511,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>2228</v>
@@ -58405,7 +58522,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>2566</v>
+        <v>2552</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>393</v>
@@ -58415,7 +58532,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>2566</v>
+        <v>2552</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>462</v>
@@ -58447,7 +58564,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>2539</v>
+        <v>2532</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>393</v>
@@ -58457,7 +58574,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>2539</v>
+        <v>2532</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>479</v>
@@ -58468,7 +58585,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>2540</v>
+        <v>2533</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>393</v>
@@ -58478,7 +58595,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>2540</v>
+        <v>2533</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>480</v>
@@ -58531,7 +58648,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>2541</v>
+        <v>2534</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>393</v>
@@ -58541,7 +58658,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>2541</v>
+        <v>2534</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>481</v>
@@ -58552,7 +58669,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>393</v>
@@ -58562,7 +58679,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>464</v>
@@ -58573,7 +58690,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>2568</v>
+        <v>2554</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>393</v>
@@ -58583,7 +58700,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>2568</v>
+        <v>2554</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>465</v>
@@ -58594,7 +58711,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>393</v>
@@ -58604,7 +58721,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>2229</v>
@@ -58615,7 +58732,7 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>393</v>
@@ -58625,7 +58742,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>2230</v>
@@ -58657,7 +58774,7 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>2542</v>
+        <v>2535</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>393</v>
@@ -58667,7 +58784,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>2542</v>
+        <v>2535</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>482</v>
@@ -58720,7 +58837,7 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>2569</v>
+        <v>2555</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>393</v>
@@ -58730,7 +58847,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>2569</v>
+        <v>2555</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>467</v>
@@ -58741,7 +58858,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>2570</v>
+        <v>2556</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>393</v>
@@ -58751,7 +58868,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>2570</v>
+        <v>2556</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>468</v>
@@ -58762,7 +58879,7 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>2571</v>
+        <v>2557</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>393</v>
@@ -58772,7 +58889,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>2571</v>
+        <v>2557</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>469</v>
@@ -58783,7 +58900,7 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>2577</v>
+        <v>2561</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>393</v>
@@ -58791,10 +58908,10 @@
       <c r="C48" s="8"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>2577</v>
+        <v>2561</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>2575</v>
+        <v>2559</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>2095</v>
@@ -58802,7 +58919,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>2572</v>
+        <v>2558</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>393</v>
@@ -58812,7 +58929,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>2572</v>
+        <v>2558</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>470</v>
@@ -58823,7 +58940,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>2543</v>
+        <v>2536</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>393</v>
@@ -58833,7 +58950,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>2543</v>
+        <v>2536</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>483</v>
@@ -59495,7 +59612,7 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>2502</v>
@@ -59505,7 +59622,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>627</v>
@@ -59516,7 +59633,7 @@
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>2502</v>
@@ -59526,10 +59643,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>2551</v>
+        <v>2537</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>2095</v>
@@ -59537,7 +59654,7 @@
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>2502</v>
@@ -59547,10 +59664,10 @@
         <v>0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>2552</v>
+        <v>2538</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>2095</v>
@@ -59558,7 +59675,7 @@
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>2502</v>
@@ -59568,7 +59685,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>542</v>
@@ -59579,7 +59696,7 @@
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>2583</v>
+        <v>2567</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>2502</v>
@@ -59589,10 +59706,10 @@
         <v>0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>2583</v>
+        <v>2567</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>2584</v>
+        <v>2568</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>2095</v>
@@ -59600,7 +59717,7 @@
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>2502</v>
@@ -59610,7 +59727,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>626</v>
@@ -59621,7 +59738,7 @@
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>2502</v>
@@ -59631,10 +59748,10 @@
         <v>0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>2095</v>
@@ -59642,7 +59759,7 @@
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>2586</v>
+        <v>2570</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>2502</v>
@@ -59652,10 +59769,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>2586</v>
+        <v>2570</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>2585</v>
+        <v>2569</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>2095</v>
@@ -59663,7 +59780,7 @@
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>2502</v>
@@ -59673,10 +59790,10 @@
         <v>0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>2559</v>
+        <v>2545</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>2095</v>
@@ -59705,7 +59822,7 @@
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>2588</v>
+        <v>2572</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>2502</v>
@@ -59715,10 +59832,10 @@
         <v>0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>2588</v>
+        <v>2572</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>2095</v>
@@ -59726,7 +59843,7 @@
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>2589</v>
+        <v>2573</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>2502</v>
@@ -59736,10 +59853,10 @@
         <v>0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>2589</v>
+        <v>2573</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>2587</v>
+        <v>2571</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>2095</v>
@@ -59747,7 +59864,7 @@
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>2502</v>
@@ -59757,10 +59874,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>2095</v>
@@ -59768,7 +59885,7 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>2581</v>
+        <v>2565</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>2502</v>
@@ -59778,10 +59895,10 @@
         <v>0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>2581</v>
+        <v>2565</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>2582</v>
+        <v>2566</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>2095</v>
@@ -60516,7 +60633,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60529,8 +60646,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>1677</v>
+      <c r="A1" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -60539,8 +60656,8 @@
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>1677</v>
+      <c r="E1" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>540</v>
@@ -60672,7 +60789,7 @@
         <v>554</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>2515</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6A698-7240-454A-A28A-A092962A51DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD14B6E5-01BB-46BA-810C-E92B5E9731E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="36" r:id="rId1"/>
@@ -37420,7 +37420,7 @@
   </sheetPr>
   <dimension ref="A1:J346"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -47880,7 +47880,7 @@
   </sheetPr>
   <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD14B6E5-01BB-46BA-810C-E92B5E9731E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38E6A92-14C2-495C-8EB8-2DAD0A81B8C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="36" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15304" uniqueCount="2815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15315" uniqueCount="2817">
   <si>
     <t/>
   </si>
@@ -8114,9 +8114,6 @@
     <t>ExtraDayOff.KurbanAit2024</t>
   </si>
   <si>
-    <t>PublicHoliday.NewYearDay</t>
-  </si>
-  <si>
     <t>PublicHoliday.InternationalWomenDay</t>
   </si>
   <si>
@@ -8490,6 +8487,15 @@
   </si>
   <si>
     <t>Debt.Pension.OPVR.RateBasic2028</t>
+  </si>
+  <si>
+    <t>PublicHoliday.NewYearDay1</t>
+  </si>
+  <si>
+    <t>PublicHoliday.NewYearDay2</t>
+  </si>
+  <si>
+    <t>-01-02</t>
   </si>
 </sst>
 </file>
@@ -11103,7 +11109,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>392</v>
@@ -11113,13 +11119,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2806</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>2807</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>2808</v>
       </c>
     </row>
   </sheetData>
@@ -36758,7 +36764,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1935</v>
@@ -36768,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>483</v>
@@ -37420,7 +37426,7 @@
   </sheetPr>
   <dimension ref="A1:J346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -47878,11 +47884,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z140"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47997,7 +48003,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>2689</v>
+        <v>2814</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>1709</v>
@@ -48006,7 +48012,7 @@
         <v>2266</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>2689</v>
+        <v>2814</v>
       </c>
       <c r="J2" s="36" t="s">
         <v>2264</v>
@@ -48030,9 +48036,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>2690</v>
+        <v>2815</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>1709</v>
@@ -48041,10 +48047,10 @@
         <v>2266</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>2690</v>
+        <v>2815</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>268</v>
@@ -48053,7 +48059,7 @@
         <v>1693</v>
       </c>
       <c r="W3" s="36" t="s">
-        <v>2658</v>
+        <v>2816</v>
       </c>
       <c r="X3" s="36" t="s">
         <v>1293</v>
@@ -48065,9 +48071,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>1709</v>
@@ -48075,14 +48081,11 @@
       <c r="G4" s="36" t="s">
         <v>2266</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>2267</v>
-      </c>
       <c r="I4" s="36" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>268</v>
@@ -48091,7 +48094,7 @@
         <v>1693</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="X4" s="36" t="s">
         <v>1293</v>
@@ -48105,7 +48108,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>1709</v>
@@ -48117,7 +48120,7 @@
         <v>2267</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>2268</v>
@@ -48129,7 +48132,7 @@
         <v>1693</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="X5" s="36" t="s">
         <v>1293</v>
@@ -48143,16 +48146,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>2269</v>
+        <v>2266</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>2267</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>2268</v>
@@ -48164,7 +48170,7 @@
         <v>1693</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="X6" s="36" t="s">
         <v>1293</v>
@@ -48178,7 +48184,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>1709</v>
@@ -48187,7 +48193,7 @@
         <v>2269</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="J7" s="36" t="s">
         <v>2268</v>
@@ -48199,7 +48205,7 @@
         <v>1693</v>
       </c>
       <c r="W7" s="36" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="X7" s="36" t="s">
         <v>1293</v>
@@ -48213,7 +48219,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>1709</v>
@@ -48222,7 +48228,7 @@
         <v>2269</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>2268</v>
@@ -48234,7 +48240,7 @@
         <v>1693</v>
       </c>
       <c r="W8" s="36" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="X8" s="36" t="s">
         <v>1293</v>
@@ -48246,9 +48252,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>1709</v>
@@ -48257,10 +48263,10 @@
         <v>2269</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>268</v>
@@ -48269,7 +48275,7 @@
         <v>1693</v>
       </c>
       <c r="W9" s="36" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="X9" s="36" t="s">
         <v>1293</v>
@@ -48283,19 +48289,19 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>268</v>
@@ -48304,7 +48310,7 @@
         <v>1693</v>
       </c>
       <c r="W10" s="36" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="X10" s="36" t="s">
         <v>1293</v>
@@ -48316,21 +48322,21 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="K11" s="36" t="s">
         <v>268</v>
@@ -48339,7 +48345,7 @@
         <v>1693</v>
       </c>
       <c r="W11" s="36" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="X11" s="36" t="s">
         <v>1293</v>
@@ -48353,7 +48359,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>1709</v>
@@ -48362,10 +48368,10 @@
         <v>2269</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="K12" s="36" t="s">
         <v>268</v>
@@ -48374,7 +48380,7 @@
         <v>1693</v>
       </c>
       <c r="W12" s="36" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="X12" s="36" t="s">
         <v>1293</v>
@@ -48386,9 +48392,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>1709</v>
@@ -48397,10 +48403,10 @@
         <v>2269</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="K13" s="36" t="s">
         <v>268</v>
@@ -48409,7 +48415,7 @@
         <v>1693</v>
       </c>
       <c r="W13" s="36" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="X13" s="36" t="s">
         <v>1293</v>
@@ -48421,9 +48427,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>1709</v>
@@ -48431,14 +48437,11 @@
       <c r="G14" s="36" t="s">
         <v>2269</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>2276</v>
-      </c>
       <c r="I14" s="36" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="K14" s="36" t="s">
         <v>268</v>
@@ -48447,7 +48450,7 @@
         <v>1693</v>
       </c>
       <c r="W14" s="36" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="X14" s="36" t="s">
         <v>1293</v>
@@ -48461,7 +48464,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>1709</v>
@@ -48473,7 +48476,7 @@
         <v>2276</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>2277</v>
@@ -48485,7 +48488,7 @@
         <v>1693</v>
       </c>
       <c r="W15" s="36" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="X15" s="36" t="s">
         <v>1293</v>
@@ -48499,16 +48502,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>2278</v>
+        <v>2269</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>2276</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>2277</v>
@@ -48520,7 +48526,7 @@
         <v>1693</v>
       </c>
       <c r="W16" s="36" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="X16" s="36" t="s">
         <v>1293</v>
@@ -48532,24 +48538,21 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>2269</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="K17" s="36" t="s">
         <v>268</v>
@@ -48558,7 +48561,7 @@
         <v>1693</v>
       </c>
       <c r="W17" s="36" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="X17" s="36" t="s">
         <v>1293</v>
@@ -48570,21 +48573,24 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>2278</v>
+        <v>2269</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>2276</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="K18" s="36" t="s">
         <v>268</v>
@@ -48593,7 +48599,7 @@
         <v>1693</v>
       </c>
       <c r="W18" s="36" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="X18" s="36" t="s">
         <v>1293</v>
@@ -48607,28 +48613,28 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>2683</v>
+        <v>2697</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>2683</v>
+        <v>2697</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="K19" s="36" t="s">
         <v>268</v>
       </c>
       <c r="V19" s="36" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="W19" s="36" t="s">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="X19" s="36" t="s">
         <v>1293</v>
@@ -48642,22 +48648,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>2282</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>2283</v>
+        <v>2269</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>2675</v>
+        <v>2281</v>
       </c>
       <c r="K20" s="36" t="s">
         <v>268</v>
@@ -48666,10 +48669,10 @@
         <v>1694</v>
       </c>
       <c r="W20" s="36" t="s">
-        <v>2670</v>
+        <v>2659</v>
       </c>
       <c r="X20" s="36" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="Y20" s="106" t="s">
         <v>2623</v>
@@ -48680,22 +48683,22 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="K21" s="36" t="s">
         <v>268</v>
@@ -48704,7 +48707,7 @@
         <v>1694</v>
       </c>
       <c r="W21" s="36" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="X21" s="36" t="s">
         <v>1296</v>
@@ -48718,22 +48721,22 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>2285</v>
+        <v>2276</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="K22" s="36" t="s">
         <v>268</v>
@@ -48742,7 +48745,7 @@
         <v>1694</v>
       </c>
       <c r="W22" s="36" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="X22" s="36" t="s">
         <v>1296</v>
@@ -48756,22 +48759,22 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="K23" s="36" t="s">
         <v>268</v>
@@ -48780,7 +48783,7 @@
         <v>1694</v>
       </c>
       <c r="W23" s="36" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="X23" s="36" t="s">
         <v>1296</v>
@@ -48794,22 +48797,22 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>2649</v>
+        <v>2286</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>2650</v>
+        <v>2287</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="K24" s="36" t="s">
         <v>268</v>
@@ -48818,7 +48821,7 @@
         <v>1694</v>
       </c>
       <c r="W24" s="36" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="X24" s="36" t="s">
         <v>1296</v>
@@ -48832,34 +48835,34 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>2700</v>
+        <v>2688</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>2282</v>
+        <v>2649</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>2288</v>
+        <v>2650</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>2700</v>
+        <v>2688</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>2289</v>
+        <v>2679</v>
       </c>
       <c r="K25" s="36" t="s">
         <v>268</v>
       </c>
       <c r="V25" s="36" t="s">
-        <v>1675</v>
-      </c>
-      <c r="W25" s="36">
-        <v>2651</v>
+        <v>1694</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>2674</v>
       </c>
       <c r="X25" s="36" t="s">
-        <v>374</v>
+        <v>1296</v>
       </c>
       <c r="Y25" s="106" t="s">
         <v>2623</v>
@@ -48870,22 +48873,22 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>2283</v>
+        <v>2288</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="K26" s="36" t="s">
         <v>268</v>
@@ -48894,7 +48897,7 @@
         <v>1675</v>
       </c>
       <c r="W26" s="36">
-        <v>2778</v>
+        <v>2651</v>
       </c>
       <c r="X26" s="36" t="s">
         <v>374</v>
@@ -48908,22 +48911,22 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="K27" s="36" t="s">
         <v>268</v>
@@ -48932,7 +48935,7 @@
         <v>1675</v>
       </c>
       <c r="W27" s="36">
-        <v>2917</v>
+        <v>2778</v>
       </c>
       <c r="X27" s="36" t="s">
         <v>374</v>
@@ -48946,22 +48949,22 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>2285</v>
+        <v>2276</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="K28" s="36" t="s">
         <v>268</v>
@@ -48970,7 +48973,7 @@
         <v>1675</v>
       </c>
       <c r="W28" s="36">
-        <v>3063</v>
+        <v>2917</v>
       </c>
       <c r="X28" s="36" t="s">
         <v>374</v>
@@ -48984,22 +48987,22 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="F29" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="K29" s="36" t="s">
         <v>268</v>
@@ -49008,7 +49011,7 @@
         <v>1675</v>
       </c>
       <c r="W29" s="36">
-        <v>3450</v>
+        <v>3063</v>
       </c>
       <c r="X29" s="36" t="s">
         <v>374</v>
@@ -49022,22 +49025,22 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>2649</v>
+        <v>2286</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>2650</v>
+        <v>2287</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>2651</v>
+        <v>2294</v>
       </c>
       <c r="K30" s="36" t="s">
         <v>268</v>
@@ -49045,14 +49048,14 @@
       <c r="V30" s="36" t="s">
         <v>1675</v>
       </c>
-      <c r="W30" s="36" t="s">
-        <v>2652</v>
+      <c r="W30" s="36">
+        <v>3450</v>
       </c>
       <c r="X30" s="36" t="s">
         <v>374</v>
       </c>
       <c r="Y30" s="106" t="s">
-        <v>2809</v>
+        <v>2623</v>
       </c>
       <c r="Z30" s="36" t="s">
         <v>1702</v>
@@ -49060,22 +49063,22 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>2282</v>
+        <v>2649</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>2288</v>
+        <v>2650</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>2295</v>
+        <v>2651</v>
       </c>
       <c r="K31" s="36" t="s">
         <v>268</v>
@@ -49083,14 +49086,14 @@
       <c r="V31" s="36" t="s">
         <v>1675</v>
       </c>
-      <c r="W31" s="36">
-        <v>42500</v>
+      <c r="W31" s="36" t="s">
+        <v>2652</v>
       </c>
       <c r="X31" s="36" t="s">
         <v>374</v>
       </c>
       <c r="Y31" s="106" t="s">
-        <v>2623</v>
+        <v>2808</v>
       </c>
       <c r="Z31" s="36" t="s">
         <v>1702</v>
@@ -49098,22 +49101,22 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>2283</v>
+        <v>2288</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="K32" s="36" t="s">
         <v>268</v>
@@ -49136,22 +49139,22 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="K33" s="36" t="s">
         <v>268</v>
@@ -49174,22 +49177,22 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>2285</v>
+        <v>2276</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="K34" s="36" t="s">
         <v>268</v>
@@ -49198,7 +49201,7 @@
         <v>1675</v>
       </c>
       <c r="W34" s="36">
-        <v>60000</v>
+        <v>42500</v>
       </c>
       <c r="X34" s="36" t="s">
         <v>374</v>
@@ -49212,22 +49215,22 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="K35" s="36" t="s">
         <v>268</v>
@@ -49236,7 +49239,7 @@
         <v>1675</v>
       </c>
       <c r="W35" s="36">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="X35" s="36" t="s">
         <v>374</v>
@@ -49250,22 +49253,22 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>2649</v>
+        <v>2286</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>2650</v>
+        <v>2287</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>2653</v>
+        <v>2299</v>
       </c>
       <c r="K36" s="36" t="s">
         <v>268</v>
@@ -49273,14 +49276,14 @@
       <c r="V36" s="36" t="s">
         <v>1675</v>
       </c>
-      <c r="W36" s="36" t="s">
-        <v>2654</v>
+      <c r="W36" s="36">
+        <v>70000</v>
       </c>
       <c r="X36" s="36" t="s">
         <v>374</v>
       </c>
       <c r="Y36" s="106" t="s">
-        <v>2809</v>
+        <v>2623</v>
       </c>
       <c r="Z36" s="36" t="s">
         <v>1702</v>
@@ -49288,40 +49291,37 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>2682</v>
+        <v>2710</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>2054</v>
+        <v>2649</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>2650</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>2682</v>
+        <v>2710</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>2301</v>
+        <v>2653</v>
       </c>
       <c r="K37" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="P37" s="36" t="s">
-        <v>2302</v>
-      </c>
-      <c r="R37" s="36" t="s">
-        <v>2682</v>
-      </c>
       <c r="V37" s="36" t="s">
-        <v>1687</v>
-      </c>
-      <c r="W37" s="36">
-        <v>5</v>
+        <v>1675</v>
+      </c>
+      <c r="W37" s="36" t="s">
+        <v>2654</v>
       </c>
       <c r="X37" s="36" t="s">
-        <v>524</v>
+        <v>374</v>
       </c>
       <c r="Y37" s="106" t="s">
-        <v>2623</v>
+        <v>2808</v>
       </c>
       <c r="Z37" s="36" t="s">
         <v>1702</v>
@@ -49329,7 +49329,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>1984</v>
+        <v>2682</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>1709</v>
@@ -49338,25 +49338,25 @@
         <v>2054</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>1984</v>
+        <v>2682</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="K38" s="36" t="s">
         <v>268</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>312</v>
+        <v>2302</v>
       </c>
       <c r="R38" s="36" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="V38" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W38" s="36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X38" s="36" t="s">
         <v>524</v>
@@ -49368,9 +49368,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>2195</v>
+        <v>1984</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>1709</v>
@@ -49379,10 +49379,10 @@
         <v>2054</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>2195</v>
+        <v>1984</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>2194</v>
+        <v>2303</v>
       </c>
       <c r="K39" s="36" t="s">
         <v>268</v>
@@ -49391,13 +49391,13 @@
         <v>312</v>
       </c>
       <c r="R39" s="36" t="s">
-        <v>2195</v>
+        <v>2681</v>
       </c>
       <c r="V39" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W39" s="36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X39" s="36" t="s">
         <v>524</v>
@@ -49409,9 +49409,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>1998</v>
+        <v>2195</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>1709</v>
@@ -49420,25 +49420,25 @@
         <v>2054</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>1998</v>
+        <v>2195</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="K40" s="36" t="s">
         <v>268</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>1668</v>
+        <v>312</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>1998</v>
+        <v>2195</v>
       </c>
       <c r="V40" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W40" s="36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X40" s="36" t="s">
         <v>524</v>
@@ -49452,34 +49452,34 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>2209</v>
+        <v>1998</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>2278</v>
+        <v>2054</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>2209</v>
+        <v>1998</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="K41" s="36" t="s">
         <v>268</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="R41" s="36" t="s">
-        <v>2209</v>
+        <v>1998</v>
       </c>
       <c r="V41" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W41" s="36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X41" s="36" t="s">
         <v>524</v>
@@ -49491,21 +49491,21 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>1992</v>
+        <v>2209</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>2054</v>
+        <v>2278</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>1992</v>
+        <v>2209</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>2304</v>
+        <v>2210</v>
       </c>
       <c r="K42" s="36" t="s">
         <v>268</v>
@@ -49514,13 +49514,13 @@
         <v>1670</v>
       </c>
       <c r="R42" s="36" t="s">
-        <v>1992</v>
+        <v>2209</v>
       </c>
       <c r="V42" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W42" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X42" s="36" t="s">
         <v>524</v>
@@ -49532,9 +49532,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>2680</v>
+        <v>1992</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>1709</v>
@@ -49543,25 +49543,25 @@
         <v>2054</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>2680</v>
+        <v>1992</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="K43" s="36" t="s">
         <v>268</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>312</v>
+        <v>1670</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>2680</v>
+        <v>1992</v>
       </c>
       <c r="V43" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W43" s="36">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="X43" s="36" t="s">
         <v>524</v>
@@ -49575,7 +49575,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>2204</v>
+        <v>2680</v>
       </c>
       <c r="F44" s="36" t="s">
         <v>1709</v>
@@ -49584,25 +49584,28 @@
         <v>2054</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>2204</v>
+        <v>2680</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>2203</v>
+        <v>2305</v>
       </c>
       <c r="K44" s="36" t="s">
         <v>268</v>
       </c>
+      <c r="P44" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="R44" s="36" t="s">
-        <v>2204</v>
+        <v>2680</v>
       </c>
       <c r="V44" s="36" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="W44" s="36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X44" s="36" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="Y44" s="106" t="s">
         <v>2623</v>
@@ -49613,7 +49616,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>2782</v>
+        <v>2204</v>
       </c>
       <c r="F45" s="36" t="s">
         <v>1709</v>
@@ -49622,22 +49625,22 @@
         <v>2054</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>2782</v>
+        <v>2204</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="K45" s="36" t="s">
         <v>268</v>
       </c>
       <c r="R45" s="36" t="s">
-        <v>2782</v>
+        <v>2204</v>
       </c>
       <c r="V45" s="36" t="s">
         <v>1686</v>
       </c>
       <c r="W45" s="36">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="X45" s="36" t="s">
         <v>510</v>
@@ -49651,7 +49654,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>2205</v>
+        <v>2781</v>
       </c>
       <c r="F46" s="36" t="s">
         <v>1709</v>
@@ -49660,25 +49663,22 @@
         <v>2054</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>2205</v>
+        <v>2781</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="K46" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="P46" s="36" t="s">
-        <v>1670</v>
-      </c>
       <c r="R46" s="36" t="s">
-        <v>2205</v>
+        <v>2781</v>
       </c>
       <c r="V46" s="36" t="s">
         <v>1686</v>
       </c>
       <c r="W46" s="36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X46" s="36" t="s">
         <v>510</v>
@@ -49692,7 +49692,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>1709</v>
@@ -49701,10 +49701,10 @@
         <v>2054</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="K47" s="36" t="s">
         <v>268</v>
@@ -49713,13 +49713,13 @@
         <v>1670</v>
       </c>
       <c r="R47" s="36" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="V47" s="36" t="s">
         <v>1686</v>
       </c>
       <c r="W47" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X47" s="36" t="s">
         <v>510</v>
@@ -49731,39 +49731,39 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>2211</v>
+    <row r="48" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>2207</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>2269</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>2212</v>
+        <v>2054</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>2207</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>2208</v>
       </c>
       <c r="K48" s="36" t="s">
         <v>268</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="V48" s="36" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W48" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X48" s="36" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="Y48" s="106" t="s">
         <v>2623</v>
@@ -49774,7 +49774,7 @@
     </row>
     <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="F49" s="36" t="s">
         <v>1709</v>
@@ -49783,10 +49783,10 @@
         <v>2269</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="K49" s="36" t="s">
         <v>268</v>
@@ -49795,13 +49795,13 @@
         <v>1667</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="V49" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W49" s="36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X49" s="36" t="s">
         <v>524</v>
@@ -49815,7 +49815,7 @@
     </row>
     <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="F50" s="36" t="s">
         <v>1709</v>
@@ -49824,10 +49824,10 @@
         <v>2269</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="J50" s="38" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="K50" s="36" t="s">
         <v>268</v>
@@ -49836,13 +49836,13 @@
         <v>1667</v>
       </c>
       <c r="R50" s="36" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="V50" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W50" s="36">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X50" s="36" t="s">
         <v>524</v>
@@ -49856,7 +49856,7 @@
     </row>
     <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F51" s="36" t="s">
         <v>1709</v>
@@ -49865,10 +49865,10 @@
         <v>2269</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="J51" s="38" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="K51" s="36" t="s">
         <v>268</v>
@@ -49877,13 +49877,13 @@
         <v>1667</v>
       </c>
       <c r="R51" s="36" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="V51" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W51" s="36">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="X51" s="36" t="s">
         <v>524</v>
@@ -49895,39 +49895,36 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>2015</v>
+    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>2215</v>
       </c>
       <c r="F52" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>2054</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>2015</v>
-      </c>
-      <c r="J52" s="36" t="s">
-        <v>617</v>
+        <v>2269</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>2218</v>
       </c>
       <c r="K52" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="O52" s="36" t="s">
-        <v>280</v>
-      </c>
       <c r="P52" s="36" t="s">
-        <v>312</v>
+        <v>1667</v>
       </c>
       <c r="R52" s="36" t="s">
-        <v>2015</v>
+        <v>2215</v>
       </c>
       <c r="V52" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W52" s="36">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X52" s="36" t="s">
         <v>524</v>
@@ -49941,7 +49938,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F53" s="36" t="s">
         <v>1709</v>
@@ -49950,10 +49947,10 @@
         <v>2054</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K53" s="36" t="s">
         <v>268</v>
@@ -49965,7 +49962,7 @@
         <v>312</v>
       </c>
       <c r="R53" s="36" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="V53" s="36" t="s">
         <v>1687</v>
@@ -49985,7 +49982,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F54" s="36" t="s">
         <v>1709</v>
@@ -49994,10 +49991,10 @@
         <v>2054</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>2306</v>
+        <v>618</v>
       </c>
       <c r="K54" s="36" t="s">
         <v>268</v>
@@ -50009,13 +50006,13 @@
         <v>312</v>
       </c>
       <c r="R54" s="36" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="V54" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W54" s="36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X54" s="36" t="s">
         <v>524</v>
@@ -50027,9 +50024,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F55" s="36" t="s">
         <v>1709</v>
@@ -50038,10 +50035,10 @@
         <v>2054</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>619</v>
+        <v>2306</v>
       </c>
       <c r="K55" s="36" t="s">
         <v>268</v>
@@ -50053,13 +50050,13 @@
         <v>312</v>
       </c>
       <c r="R55" s="36" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="V55" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W55" s="36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X55" s="36" t="s">
         <v>524</v>
@@ -50073,7 +50070,7 @@
     </row>
     <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F56" s="36" t="s">
         <v>1709</v>
@@ -50082,10 +50079,10 @@
         <v>2054</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>2307</v>
+        <v>619</v>
       </c>
       <c r="K56" s="36" t="s">
         <v>268</v>
@@ -50097,13 +50094,13 @@
         <v>312</v>
       </c>
       <c r="R56" s="36" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="V56" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W56" s="36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X56" s="36" t="s">
         <v>524</v>
@@ -50115,39 +50112,45 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>2785</v>
+        <v>2023</v>
       </c>
       <c r="F57" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>2649</v>
+        <v>2054</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>2785</v>
+        <v>2023</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>2786</v>
+        <v>2307</v>
       </c>
       <c r="K57" s="36" t="s">
         <v>268</v>
       </c>
+      <c r="O57" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="R57" s="36" t="s">
-        <v>2785</v>
+        <v>2023</v>
       </c>
       <c r="V57" s="36" t="s">
-        <v>1686</v>
-      </c>
-      <c r="W57" s="36" t="s">
-        <v>615</v>
+        <v>1687</v>
+      </c>
+      <c r="W57" s="36">
+        <v>8</v>
       </c>
       <c r="X57" s="36" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="Y57" s="106" t="s">
-        <v>2788</v>
+        <v>2623</v>
       </c>
       <c r="Z57" s="36" t="s">
         <v>1702</v>
@@ -50167,7 +50170,7 @@
         <v>2784</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>2201</v>
+        <v>2785</v>
       </c>
       <c r="K58" s="36" t="s">
         <v>268</v>
@@ -50178,14 +50181,14 @@
       <c r="V58" s="36" t="s">
         <v>1686</v>
       </c>
-      <c r="W58" s="36">
-        <v>50</v>
+      <c r="W58" s="36" t="s">
+        <v>615</v>
       </c>
       <c r="X58" s="36" t="s">
         <v>510</v>
       </c>
       <c r="Y58" s="106" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Z58" s="36" t="s">
         <v>1702</v>
@@ -50193,7 +50196,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>2810</v>
+        <v>2783</v>
       </c>
       <c r="F59" s="36" t="s">
         <v>1709</v>
@@ -50201,14 +50204,11 @@
       <c r="G59" s="36" t="s">
         <v>2649</v>
       </c>
-      <c r="H59" s="36" t="s">
-        <v>2650</v>
-      </c>
       <c r="I59" s="36" t="s">
-        <v>2810</v>
+        <v>2783</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>2787</v>
+        <v>2201</v>
       </c>
       <c r="K59" s="36" t="s">
         <v>268</v>
@@ -50217,16 +50217,16 @@
         <v>2783</v>
       </c>
       <c r="V59" s="36" t="s">
-        <v>1687</v>
-      </c>
-      <c r="W59" s="36" t="s">
-        <v>2789</v>
+        <v>1686</v>
+      </c>
+      <c r="W59" s="36">
+        <v>50</v>
       </c>
       <c r="X59" s="36" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="Y59" s="106" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Z59" s="36" t="s">
         <v>1702</v>
@@ -50234,40 +50234,40 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>2790</v>
+        <v>2649</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>2794</v>
+        <v>2650</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="K60" s="36" t="s">
         <v>268</v>
       </c>
       <c r="R60" s="36" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="V60" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W60" s="36" t="s">
-        <v>2797</v>
+        <v>2788</v>
       </c>
       <c r="X60" s="36" t="s">
         <v>524</v>
       </c>
       <c r="Y60" s="106" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Z60" s="36" t="s">
         <v>1702</v>
@@ -50275,40 +50275,40 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="F61" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="K61" s="36" t="s">
         <v>268</v>
       </c>
       <c r="R61" s="36" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="V61" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W61" s="36" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="X61" s="36" t="s">
         <v>524</v>
       </c>
       <c r="Y61" s="106" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Z61" s="36" t="s">
         <v>1702</v>
@@ -50316,40 +50316,40 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="F62" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="K62" s="36" t="s">
         <v>268</v>
       </c>
       <c r="R62" s="36" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="V62" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W62" s="36" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="X62" s="36" t="s">
         <v>524</v>
       </c>
       <c r="Y62" s="106" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Z62" s="36" t="s">
         <v>1702</v>
@@ -50357,37 +50357,40 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="F63" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>2793</v>
+        <v>2791</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>2795</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="K63" s="36" t="s">
         <v>268</v>
       </c>
       <c r="R63" s="36" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="V63" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W63" s="36" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="X63" s="36" t="s">
         <v>524</v>
       </c>
       <c r="Y63" s="106" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="Z63" s="36" t="s">
         <v>1702</v>
@@ -50395,37 +50398,37 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>2723</v>
+        <v>2813</v>
       </c>
       <c r="F64" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>2054</v>
+        <v>2792</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>2723</v>
+        <v>2813</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>1286</v>
+        <v>2786</v>
       </c>
       <c r="K64" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="M64" s="36" t="s">
-        <v>1584</v>
+      <c r="R64" s="36" t="s">
+        <v>2782</v>
       </c>
       <c r="V64" s="36" t="s">
-        <v>2040</v>
+        <v>1687</v>
       </c>
       <c r="W64" s="36" t="s">
-        <v>1298</v>
+        <v>2799</v>
       </c>
       <c r="X64" s="36" t="s">
-        <v>269</v>
+        <v>524</v>
       </c>
       <c r="Y64" s="106" t="s">
-        <v>2623</v>
+        <v>2787</v>
       </c>
       <c r="Z64" s="36" t="s">
         <v>1702</v>
@@ -50433,7 +50436,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="F65" s="36" t="s">
         <v>1709</v>
@@ -50442,22 +50445,22 @@
         <v>2054</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>1245</v>
+        <v>1286</v>
       </c>
       <c r="K65" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="V65" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W65" s="36" t="s">
-        <v>1342</v>
+        <v>1298</v>
       </c>
       <c r="X65" s="36" t="s">
         <v>269</v>
@@ -50471,7 +50474,7 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="F66" s="36" t="s">
         <v>1709</v>
@@ -50480,22 +50483,22 @@
         <v>2054</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="K66" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M66" s="36" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="V66" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W66" s="36" t="s">
-        <v>1327</v>
+        <v>1342</v>
       </c>
       <c r="X66" s="36" t="s">
         <v>269</v>
@@ -50509,7 +50512,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="F67" s="36" t="s">
         <v>1709</v>
@@ -50518,22 +50521,22 @@
         <v>2054</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>1274</v>
+        <v>1244</v>
       </c>
       <c r="K67" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M67" s="36" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="V67" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W67" s="36" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="X67" s="36" t="s">
         <v>269</v>
@@ -50547,7 +50550,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="F68" s="36" t="s">
         <v>1709</v>
@@ -50556,22 +50559,22 @@
         <v>2054</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K68" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="V68" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W68" s="36" t="s">
-        <v>1398</v>
+        <v>1329</v>
       </c>
       <c r="X68" s="36" t="s">
         <v>269</v>
@@ -50585,7 +50588,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="F69" s="36" t="s">
         <v>1709</v>
@@ -50594,22 +50597,22 @@
         <v>2054</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="K69" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="V69" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W69" s="36" t="s">
-        <v>1327</v>
+        <v>1398</v>
       </c>
       <c r="X69" s="36" t="s">
         <v>269</v>
@@ -50623,7 +50626,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="F70" s="36" t="s">
         <v>1709</v>
@@ -50632,22 +50635,22 @@
         <v>2054</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="K70" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M70" s="36" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="V70" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W70" s="36" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="X70" s="36" t="s">
         <v>269</v>
@@ -50661,7 +50664,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="F71" s="36" t="s">
         <v>1709</v>
@@ -50670,22 +50673,22 @@
         <v>2054</v>
       </c>
       <c r="I71" s="36" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="J71" s="36" t="s">
-        <v>1276</v>
+        <v>1249</v>
       </c>
       <c r="K71" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M71" s="36" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="V71" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="X71" s="36" t="s">
         <v>269</v>
@@ -50699,7 +50702,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="F72" s="36" t="s">
         <v>1709</v>
@@ -50708,22 +50711,22 @@
         <v>2054</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>1248</v>
+        <v>1276</v>
       </c>
       <c r="K72" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M72" s="36" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="V72" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W72" s="36" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="X72" s="36" t="s">
         <v>269</v>
@@ -50735,9 +50738,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="F73" s="36" t="s">
         <v>1709</v>
@@ -50746,22 +50749,22 @@
         <v>2054</v>
       </c>
       <c r="I73" s="36" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>1277</v>
+        <v>1248</v>
       </c>
       <c r="K73" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M73" s="36" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="V73" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W73" s="36" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="X73" s="36" t="s">
         <v>269</v>
@@ -50773,9 +50776,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="F74" s="36" t="s">
         <v>1709</v>
@@ -50784,22 +50787,22 @@
         <v>2054</v>
       </c>
       <c r="I74" s="36" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>1246</v>
+        <v>1277</v>
       </c>
       <c r="K74" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M74" s="36" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="V74" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W74" s="36" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="X74" s="36" t="s">
         <v>269</v>
@@ -50813,7 +50816,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="F75" s="36" t="s">
         <v>1709</v>
@@ -50822,22 +50825,22 @@
         <v>2054</v>
       </c>
       <c r="I75" s="36" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K75" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M75" s="36" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="V75" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W75" s="36" t="s">
-        <v>1456</v>
+        <v>1318</v>
       </c>
       <c r="X75" s="36" t="s">
         <v>269</v>
@@ -50851,7 +50854,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="F76" s="36" t="s">
         <v>1709</v>
@@ -50860,22 +50863,22 @@
         <v>2054</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="K76" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M76" s="36" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="V76" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W76" s="36" t="s">
-        <v>1490</v>
+        <v>1456</v>
       </c>
       <c r="X76" s="36" t="s">
         <v>269</v>
@@ -50889,7 +50892,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="F77" s="36" t="s">
         <v>1709</v>
@@ -50898,22 +50901,22 @@
         <v>2054</v>
       </c>
       <c r="I77" s="36" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>235</v>
+        <v>1259</v>
       </c>
       <c r="K77" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M77" s="36" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="V77" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W77" s="36" t="s">
-        <v>1544</v>
+        <v>1490</v>
       </c>
       <c r="X77" s="36" t="s">
         <v>269</v>
@@ -50927,7 +50930,7 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="F78" s="36" t="s">
         <v>1709</v>
@@ -50936,22 +50939,22 @@
         <v>2054</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>1280</v>
+        <v>235</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M78" s="36" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="V78" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W78" s="36" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="X78" s="36" t="s">
         <v>269</v>
@@ -50965,7 +50968,7 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="F79" s="36" t="s">
         <v>1709</v>
@@ -50974,22 +50977,22 @@
         <v>2054</v>
       </c>
       <c r="I79" s="36" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="K79" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M79" s="36" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V79" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W79" s="36" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="X79" s="36" t="s">
         <v>269</v>
@@ -51003,7 +51006,7 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="F80" s="36" t="s">
         <v>1709</v>
@@ -51012,22 +51015,22 @@
         <v>2054</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>244</v>
+        <v>1279</v>
       </c>
       <c r="K80" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M80" s="36" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="V80" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W80" s="36" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="X80" s="36" t="s">
         <v>269</v>
@@ -51041,7 +51044,7 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="F81" s="36" t="s">
         <v>1709</v>
@@ -51050,22 +51053,22 @@
         <v>2054</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="J81" s="36" t="s">
-        <v>1281</v>
+        <v>244</v>
       </c>
       <c r="K81" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="V81" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W81" s="36" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
       <c r="X81" s="36" t="s">
         <v>269</v>
@@ -51077,9 +51080,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="F82" s="36" t="s">
         <v>1709</v>
@@ -51088,22 +51091,22 @@
         <v>2054</v>
       </c>
       <c r="I82" s="36" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="J82" s="36" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="K82" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M82" s="36" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="V82" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W82" s="36" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="X82" s="36" t="s">
         <v>269</v>
@@ -51115,9 +51118,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="F83" s="36" t="s">
         <v>1709</v>
@@ -51126,22 +51129,22 @@
         <v>2054</v>
       </c>
       <c r="I83" s="36" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>88</v>
+        <v>1287</v>
       </c>
       <c r="K83" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M83" s="36" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="V83" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W83" s="36" t="s">
-        <v>1380</v>
+        <v>1559</v>
       </c>
       <c r="X83" s="36" t="s">
         <v>269</v>
@@ -51153,9 +51156,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="F84" s="36" t="s">
         <v>1709</v>
@@ -51164,16 +51167,16 @@
         <v>2054</v>
       </c>
       <c r="I84" s="36" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="J84" s="36" t="s">
-        <v>1261</v>
+        <v>88</v>
       </c>
       <c r="K84" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M84" s="36" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="V84" s="36" t="s">
         <v>2040</v>
@@ -51191,9 +51194,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="F85" s="36" t="s">
         <v>1709</v>
@@ -51202,16 +51205,16 @@
         <v>2054</v>
       </c>
       <c r="I85" s="36" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="J85" s="36" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K85" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M85" s="36" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="V85" s="36" t="s">
         <v>2040</v>
@@ -51229,9 +51232,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="F86" s="36" t="s">
         <v>1709</v>
@@ -51240,22 +51243,22 @@
         <v>2054</v>
       </c>
       <c r="I86" s="36" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>1109</v>
+        <v>1262</v>
       </c>
       <c r="K86" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M86" s="36" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="V86" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W86" s="36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="X86" s="36" t="s">
         <v>269</v>
@@ -51269,7 +51272,7 @@
     </row>
     <row r="87" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="F87" s="36" t="s">
         <v>1709</v>
@@ -51278,22 +51281,22 @@
         <v>2054</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="J87" s="36" t="s">
-        <v>1263</v>
+        <v>1109</v>
       </c>
       <c r="K87" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M87" s="36" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="V87" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W87" s="36" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="X87" s="36" t="s">
         <v>269</v>
@@ -51305,9 +51308,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="F88" s="36" t="s">
         <v>1709</v>
@@ -51316,16 +51319,16 @@
         <v>2054</v>
       </c>
       <c r="I88" s="36" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="J88" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="K88" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M88" s="36" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="V88" s="36" t="s">
         <v>2040</v>
@@ -51343,9 +51346,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="F89" s="36" t="s">
         <v>1709</v>
@@ -51354,16 +51357,16 @@
         <v>2054</v>
       </c>
       <c r="I89" s="36" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="K89" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M89" s="36" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="V89" s="36" t="s">
         <v>2040</v>
@@ -51383,7 +51386,7 @@
     </row>
     <row r="90" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="F90" s="36" t="s">
         <v>1709</v>
@@ -51392,16 +51395,16 @@
         <v>2054</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K90" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M90" s="36" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="V90" s="36" t="s">
         <v>2040</v>
@@ -51419,9 +51422,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="F91" s="36" t="s">
         <v>1709</v>
@@ -51430,16 +51433,16 @@
         <v>2054</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="J91" s="36" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="K91" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M91" s="36" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="V91" s="36" t="s">
         <v>2040</v>
@@ -51457,9 +51460,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="F92" s="36" t="s">
         <v>1709</v>
@@ -51468,22 +51471,22 @@
         <v>2054</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>110</v>
+        <v>1265</v>
       </c>
       <c r="K92" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M92" s="36" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="V92" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W92" s="36" t="s">
-        <v>1409</v>
+        <v>1380</v>
       </c>
       <c r="X92" s="36" t="s">
         <v>269</v>
@@ -51495,9 +51498,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="F93" s="36" t="s">
         <v>1709</v>
@@ -51506,22 +51509,22 @@
         <v>2054</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>1266</v>
+        <v>110</v>
       </c>
       <c r="K93" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="V93" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W93" s="36" t="s">
-        <v>1322</v>
+        <v>1409</v>
       </c>
       <c r="X93" s="36" t="s">
         <v>269</v>
@@ -51535,7 +51538,7 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="F94" s="36" t="s">
         <v>1709</v>
@@ -51544,22 +51547,22 @@
         <v>2054</v>
       </c>
       <c r="I94" s="36" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>210</v>
+        <v>1266</v>
       </c>
       <c r="K94" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M94" s="36" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="V94" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W94" s="36" t="s">
-        <v>1517</v>
+        <v>1322</v>
       </c>
       <c r="X94" s="36" t="s">
         <v>269</v>
@@ -51573,7 +51576,7 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="F95" s="36" t="s">
         <v>1709</v>
@@ -51582,22 +51585,22 @@
         <v>2054</v>
       </c>
       <c r="I95" s="36" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="J95" s="36" t="s">
-        <v>1289</v>
+        <v>210</v>
       </c>
       <c r="K95" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M95" s="36" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="V95" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W95" s="36" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="X95" s="36" t="s">
         <v>269</v>
@@ -51611,7 +51614,7 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="F96" s="36" t="s">
         <v>1709</v>
@@ -51620,22 +51623,22 @@
         <v>2054</v>
       </c>
       <c r="I96" s="36" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="J96" s="36" t="s">
-        <v>222</v>
+        <v>1289</v>
       </c>
       <c r="K96" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M96" s="36" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="V96" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W96" s="36" t="s">
-        <v>1538</v>
+        <v>1513</v>
       </c>
       <c r="X96" s="36" t="s">
         <v>269</v>
@@ -51649,7 +51652,7 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="F97" s="36" t="s">
         <v>1709</v>
@@ -51658,22 +51661,22 @@
         <v>2054</v>
       </c>
       <c r="I97" s="36" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="J97" s="36" t="s">
-        <v>1278</v>
+        <v>222</v>
       </c>
       <c r="K97" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M97" s="36" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="V97" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W97" s="36" t="s">
-        <v>1519</v>
+        <v>1538</v>
       </c>
       <c r="X97" s="36" t="s">
         <v>269</v>
@@ -51685,9 +51688,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="F98" s="36" t="s">
         <v>1709</v>
@@ -51696,22 +51699,22 @@
         <v>2054</v>
       </c>
       <c r="I98" s="36" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="K98" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M98" s="36" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="V98" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W98" s="36" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="X98" s="36" t="s">
         <v>269</v>
@@ -51723,9 +51726,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="F99" s="36" t="s">
         <v>1709</v>
@@ -51734,22 +51737,22 @@
         <v>2054</v>
       </c>
       <c r="I99" s="36" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="J99" s="36" t="s">
-        <v>1250</v>
+        <v>1288</v>
       </c>
       <c r="K99" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M99" s="36" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="V99" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W99" s="36" t="s">
-        <v>1299</v>
+        <v>1534</v>
       </c>
       <c r="X99" s="36" t="s">
         <v>269</v>
@@ -51763,7 +51766,7 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="F100" s="36" t="s">
         <v>1709</v>
@@ -51772,22 +51775,22 @@
         <v>2054</v>
       </c>
       <c r="I100" s="36" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="J100" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="K100" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M100" s="36" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="V100" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W100" s="36" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="X100" s="36" t="s">
         <v>269</v>
@@ -51801,7 +51804,7 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="F101" s="36" t="s">
         <v>1709</v>
@@ -51810,22 +51813,22 @@
         <v>2054</v>
       </c>
       <c r="I101" s="36" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="K101" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M101" s="36" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="V101" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W101" s="36" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="X101" s="36" t="s">
         <v>269</v>
@@ -51839,7 +51842,7 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="F102" s="36" t="s">
         <v>1709</v>
@@ -51848,22 +51851,22 @@
         <v>2054</v>
       </c>
       <c r="I102" s="36" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="J102" s="36" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K102" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M102" s="36" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="V102" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W102" s="36" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="X102" s="36" t="s">
         <v>269</v>
@@ -51877,7 +51880,7 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="F103" s="36" t="s">
         <v>1709</v>
@@ -51886,22 +51889,22 @@
         <v>2054</v>
       </c>
       <c r="I103" s="36" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="J103" s="36" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="K103" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M103" s="36" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="V103" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W103" s="36" t="s">
-        <v>1446</v>
+        <v>1301</v>
       </c>
       <c r="X103" s="36" t="s">
         <v>269</v>
@@ -51915,7 +51918,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="F104" s="36" t="s">
         <v>1709</v>
@@ -51924,22 +51927,22 @@
         <v>2054</v>
       </c>
       <c r="I104" s="36" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="J104" s="36" t="s">
-        <v>1103</v>
+        <v>1254</v>
       </c>
       <c r="K104" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M104" s="36" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="V104" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W104" s="36" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="X104" s="36" t="s">
         <v>269</v>
@@ -51953,7 +51956,7 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="F105" s="36" t="s">
         <v>1709</v>
@@ -51962,22 +51965,22 @@
         <v>2054</v>
       </c>
       <c r="I105" s="36" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="J105" s="36" t="s">
-        <v>1255</v>
+        <v>1103</v>
       </c>
       <c r="K105" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M105" s="36" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="V105" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W105" s="36" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
       <c r="X105" s="36" t="s">
         <v>269</v>
@@ -51991,7 +51994,7 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="F106" s="36" t="s">
         <v>1709</v>
@@ -52000,22 +52003,22 @@
         <v>2054</v>
       </c>
       <c r="I106" s="36" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="J106" s="36" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K106" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M106" s="36" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="V106" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W106" s="36" t="s">
-        <v>1347</v>
+        <v>1442</v>
       </c>
       <c r="X106" s="36" t="s">
         <v>269</v>
@@ -52029,7 +52032,7 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="F107" s="36" t="s">
         <v>1709</v>
@@ -52038,22 +52041,22 @@
         <v>2054</v>
       </c>
       <c r="I107" s="36" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>610</v>
+        <v>1256</v>
       </c>
       <c r="K107" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M107" s="36" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="V107" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W107" s="36" t="s">
-        <v>1426</v>
+        <v>1347</v>
       </c>
       <c r="X107" s="36" t="s">
         <v>269</v>
@@ -52067,7 +52070,7 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="F108" s="36" t="s">
         <v>1709</v>
@@ -52076,22 +52079,22 @@
         <v>2054</v>
       </c>
       <c r="I108" s="36" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>1104</v>
+        <v>610</v>
       </c>
       <c r="K108" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M108" s="36" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="V108" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W108" s="36" t="s">
-        <v>1449</v>
+        <v>1426</v>
       </c>
       <c r="X108" s="36" t="s">
         <v>269</v>
@@ -52105,7 +52108,7 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="F109" s="36" t="s">
         <v>1709</v>
@@ -52114,22 +52117,22 @@
         <v>2054</v>
       </c>
       <c r="I109" s="36" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="J109" s="36" t="s">
-        <v>1257</v>
+        <v>1104</v>
       </c>
       <c r="K109" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M109" s="36" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="V109" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W109" s="36" t="s">
-        <v>1433</v>
+        <v>1449</v>
       </c>
       <c r="X109" s="36" t="s">
         <v>269</v>
@@ -52143,7 +52146,7 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F110" s="36" t="s">
         <v>1709</v>
@@ -52152,22 +52155,22 @@
         <v>2054</v>
       </c>
       <c r="I110" s="36" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="J110" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K110" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M110" s="36" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="V110" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W110" s="36" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="X110" s="36" t="s">
         <v>269</v>
@@ -52181,7 +52184,7 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="F111" s="36" t="s">
         <v>1709</v>
@@ -52190,22 +52193,22 @@
         <v>2054</v>
       </c>
       <c r="I111" s="36" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="J111" s="36" t="s">
-        <v>423</v>
+        <v>1258</v>
       </c>
       <c r="K111" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M111" s="36" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="V111" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W111" s="36" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="X111" s="36" t="s">
         <v>269</v>
@@ -52219,7 +52222,7 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="F112" s="36" t="s">
         <v>1709</v>
@@ -52228,22 +52231,22 @@
         <v>2054</v>
       </c>
       <c r="I112" s="36" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="J112" s="36" t="s">
-        <v>1267</v>
+        <v>423</v>
       </c>
       <c r="K112" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M112" s="36" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="V112" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W112" s="36" t="s">
-        <v>1427</v>
+        <v>1437</v>
       </c>
       <c r="X112" s="36" t="s">
         <v>269</v>
@@ -52257,7 +52260,7 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="F113" s="36" t="s">
         <v>1709</v>
@@ -52266,22 +52269,22 @@
         <v>2054</v>
       </c>
       <c r="I113" s="36" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="J113" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="K113" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M113" s="36" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="V113" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W113" s="36" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="X113" s="36" t="s">
         <v>269</v>
@@ -52295,7 +52298,7 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F114" s="36" t="s">
         <v>1709</v>
@@ -52304,22 +52307,22 @@
         <v>2054</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="K114" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M114" s="36" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V114" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W114" s="36" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="X114" s="36" t="s">
         <v>269</v>
@@ -52331,9 +52334,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="F115" s="36" t="s">
         <v>1709</v>
@@ -52342,22 +52345,22 @@
         <v>2054</v>
       </c>
       <c r="I115" s="36" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="J115" s="36" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="K115" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M115" s="36" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V115" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W115" s="36" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="X115" s="36" t="s">
         <v>269</v>
@@ -52371,7 +52374,7 @@
     </row>
     <row r="116" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="F116" s="36" t="s">
         <v>1709</v>
@@ -52380,16 +52383,16 @@
         <v>2054</v>
       </c>
       <c r="I116" s="36" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="J116" s="36" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="K116" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M116" s="36" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="V116" s="36" t="s">
         <v>2040</v>
@@ -52409,7 +52412,7 @@
     </row>
     <row r="117" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F117" s="36" t="s">
         <v>1709</v>
@@ -52418,22 +52421,22 @@
         <v>2054</v>
       </c>
       <c r="I117" s="36" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="J117" s="36" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="K117" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M117" s="36" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V117" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W117" s="36" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="X117" s="36" t="s">
         <v>269</v>
@@ -52445,9 +52448,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="F118" s="36" t="s">
         <v>1709</v>
@@ -52456,22 +52459,22 @@
         <v>2054</v>
       </c>
       <c r="I118" s="36" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="J118" s="36" t="s">
-        <v>1133</v>
+        <v>1269</v>
       </c>
       <c r="K118" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M118" s="36" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V118" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W118" s="36" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="X118" s="36" t="s">
         <v>269</v>
@@ -52485,7 +52488,7 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="F119" s="36" t="s">
         <v>1709</v>
@@ -52494,22 +52497,22 @@
         <v>2054</v>
       </c>
       <c r="I119" s="36" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>132</v>
+        <v>1133</v>
       </c>
       <c r="K119" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M119" s="36" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="V119" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W119" s="36" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="X119" s="36" t="s">
         <v>269</v>
@@ -52523,7 +52526,7 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="F120" s="36" t="s">
         <v>1709</v>
@@ -52532,22 +52535,22 @@
         <v>2054</v>
       </c>
       <c r="I120" s="36" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>1283</v>
+        <v>132</v>
       </c>
       <c r="K120" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M120" s="36" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="V120" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W120" s="36" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="X120" s="36" t="s">
         <v>269</v>
@@ -52561,7 +52564,7 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="F121" s="36" t="s">
         <v>1709</v>
@@ -52570,22 +52573,22 @@
         <v>2054</v>
       </c>
       <c r="I121" s="36" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="J121" s="36" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
       <c r="K121" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M121" s="36" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="V121" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W121" s="36" t="s">
-        <v>1336</v>
+        <v>1431</v>
       </c>
       <c r="X121" s="36" t="s">
         <v>269</v>
@@ -52599,7 +52602,7 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="F122" s="36" t="s">
         <v>1709</v>
@@ -52608,22 +52611,22 @@
         <v>2054</v>
       </c>
       <c r="I122" s="36" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="K122" s="36" t="s">
         <v>268</v>
       </c>
       <c r="M122" s="36" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="V122" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W122" s="36" t="s">
-        <v>1429</v>
+        <v>1336</v>
       </c>
       <c r="X122" s="36" t="s">
         <v>269</v>
@@ -52631,10 +52634,13 @@
       <c r="Y122" s="106" t="s">
         <v>2623</v>
       </c>
+      <c r="Z122" s="36" t="s">
+        <v>1702</v>
+      </c>
     </row>
     <row r="123" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>2712</v>
+        <v>2780</v>
       </c>
       <c r="F123" s="36" t="s">
         <v>1709</v>
@@ -52643,31 +52649,22 @@
         <v>2054</v>
       </c>
       <c r="I123" s="36" t="s">
-        <v>2712</v>
+        <v>2780</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>2712</v>
+        <v>1271</v>
       </c>
       <c r="K123" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="L123" s="36" t="s">
-        <v>2046</v>
-      </c>
-      <c r="M123" s="39" t="s">
-        <v>1517</v>
-      </c>
-      <c r="N123" s="36" t="s">
-        <v>2237</v>
-      </c>
-      <c r="T123" s="40" t="s">
-        <v>1234</v>
+      <c r="M123" s="36" t="s">
+        <v>1642</v>
       </c>
       <c r="V123" s="36" t="s">
         <v>2040</v>
       </c>
       <c r="W123" s="36" t="s">
-        <v>1516</v>
+        <v>1429</v>
       </c>
       <c r="X123" s="36" t="s">
         <v>269</v>
@@ -52675,13 +52672,10 @@
       <c r="Y123" s="106" t="s">
         <v>2623</v>
       </c>
-      <c r="Z123" s="36" t="s">
-        <v>1702</v>
-      </c>
     </row>
     <row r="124" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="F124" s="36" t="s">
         <v>1709</v>
@@ -52690,16 +52684,16 @@
         <v>2054</v>
       </c>
       <c r="I124" s="36" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="J124" s="36" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="K124" s="36" t="s">
         <v>268</v>
       </c>
       <c r="L124" s="36" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="M124" s="39" t="s">
         <v>1517</v>
@@ -52708,7 +52702,7 @@
         <v>2237</v>
       </c>
       <c r="T124" s="40" t="s">
-        <v>612</v>
+        <v>1234</v>
       </c>
       <c r="V124" s="36" t="s">
         <v>2040</v>
@@ -52728,7 +52722,7 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="F125" s="36" t="s">
         <v>1709</v>
@@ -52737,10 +52731,10 @@
         <v>2054</v>
       </c>
       <c r="I125" s="36" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="J125" s="36" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="K125" s="36" t="s">
         <v>268</v>
@@ -52749,13 +52743,13 @@
         <v>2045</v>
       </c>
       <c r="M125" s="39" t="s">
-        <v>1544</v>
+        <v>1517</v>
       </c>
       <c r="N125" s="36" t="s">
         <v>2237</v>
       </c>
       <c r="T125" s="40" t="s">
-        <v>1234</v>
+        <v>612</v>
       </c>
       <c r="V125" s="36" t="s">
         <v>2040</v>
@@ -52775,7 +52769,7 @@
     </row>
     <row r="126" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="F126" s="36" t="s">
         <v>1709</v>
@@ -52784,16 +52778,16 @@
         <v>2054</v>
       </c>
       <c r="I126" s="36" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="J126" s="36" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="K126" s="36" t="s">
         <v>268</v>
       </c>
       <c r="L126" s="36" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="M126" s="39" t="s">
         <v>1544</v>
@@ -52802,7 +52796,7 @@
         <v>2237</v>
       </c>
       <c r="T126" s="40" t="s">
-        <v>612</v>
+        <v>1234</v>
       </c>
       <c r="V126" s="36" t="s">
         <v>2040</v>
@@ -52820,36 +52814,45 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="F127" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G127" s="36" t="s">
-        <v>2269</v>
+        <v>2054</v>
       </c>
       <c r="I127" s="36" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="J127" s="36" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="K127" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="T127" s="36" t="s">
-        <v>1234</v>
+      <c r="L127" s="36" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M127" s="39" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N127" s="36" t="s">
+        <v>2237</v>
+      </c>
+      <c r="T127" s="40" t="s">
+        <v>612</v>
       </c>
       <c r="V127" s="36" t="s">
-        <v>1689</v>
-      </c>
-      <c r="W127" s="36">
-        <v>8</v>
+        <v>2040</v>
+      </c>
+      <c r="W127" s="36" t="s">
+        <v>1516</v>
       </c>
       <c r="X127" s="36" t="s">
-        <v>620</v>
+        <v>269</v>
       </c>
       <c r="Y127" s="106" t="s">
         <v>2623</v>
@@ -52859,38 +52862,35 @@
       </c>
     </row>
     <row r="128" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="38" t="s">
-        <v>2308</v>
+      <c r="A128" s="36" t="s">
+        <v>2715</v>
       </c>
       <c r="F128" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>2278</v>
-      </c>
-      <c r="I128" s="38" t="s">
-        <v>2308</v>
-      </c>
-      <c r="J128" s="38" t="s">
-        <v>2234</v>
+        <v>2269</v>
+      </c>
+      <c r="I128" s="36" t="s">
+        <v>2715</v>
+      </c>
+      <c r="J128" s="36" t="s">
+        <v>2716</v>
       </c>
       <c r="K128" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="T128" s="41" t="s">
+      <c r="T128" s="36" t="s">
         <v>1234</v>
       </c>
-      <c r="U128" s="41" t="s">
-        <v>2235</v>
-      </c>
       <c r="V128" s="36" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="W128" s="36">
-        <v>14</v>
-      </c>
-      <c r="X128" s="42" t="s">
-        <v>2699</v>
+        <v>8</v>
+      </c>
+      <c r="X128" s="36" t="s">
+        <v>620</v>
       </c>
       <c r="Y128" s="106" t="s">
         <v>2623</v>
@@ -52899,45 +52899,42 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129" s="36" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C129" s="36" t="s">
-        <v>1647</v>
+    <row r="129" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="38" t="s">
+        <v>2308</v>
       </c>
       <c r="F129" s="36" t="s">
         <v>1709</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>2054</v>
-      </c>
-      <c r="I129" s="36" t="s">
-        <v>2314</v>
-      </c>
-      <c r="J129" s="43" t="s">
-        <v>613</v>
+        <v>2278</v>
+      </c>
+      <c r="I129" s="38" t="s">
+        <v>2308</v>
+      </c>
+      <c r="J129" s="38" t="s">
+        <v>2234</v>
       </c>
       <c r="K129" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="N129" s="36" t="s">
-        <v>1797</v>
-      </c>
-      <c r="S129" s="36" t="s">
-        <v>1238</v>
+      <c r="T129" s="41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="U129" s="41" t="s">
+        <v>2235</v>
       </c>
       <c r="V129" s="36" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W129" s="36">
-        <v>10</v>
-      </c>
-      <c r="X129" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y129" s="36" t="s">
-        <v>2624</v>
+        <v>14</v>
+      </c>
+      <c r="X129" s="42" t="s">
+        <v>2698</v>
+      </c>
+      <c r="Y129" s="106" t="s">
+        <v>2623</v>
       </c>
       <c r="Z129" s="36" t="s">
         <v>1702</v>
@@ -52945,7 +52942,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C130" s="36" t="s">
         <v>1647</v>
@@ -52957,10 +52954,10 @@
         <v>2054</v>
       </c>
       <c r="I130" s="36" t="s">
-        <v>2315</v>
-      </c>
-      <c r="J130" s="36" t="s">
-        <v>614</v>
+        <v>2314</v>
+      </c>
+      <c r="J130" s="43" t="s">
+        <v>613</v>
       </c>
       <c r="K130" s="36" t="s">
         <v>268</v>
@@ -52969,13 +52966,13 @@
         <v>1797</v>
       </c>
       <c r="S130" s="36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V130" s="36" t="s">
         <v>1687</v>
       </c>
       <c r="W130" s="36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X130" s="36" t="s">
         <v>524</v>
@@ -52989,10 +52986,10 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F131" s="36" t="s">
         <v>1709</v>
@@ -53001,10 +52998,10 @@
         <v>2054</v>
       </c>
       <c r="I131" s="36" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>2321</v>
+        <v>614</v>
       </c>
       <c r="K131" s="36" t="s">
         <v>268</v>
@@ -53013,16 +53010,16 @@
         <v>1797</v>
       </c>
       <c r="S131" s="36" t="s">
-        <v>2320</v>
+        <v>1239</v>
       </c>
       <c r="V131" s="36" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="W131" s="36">
-        <v>450</v>
-      </c>
-      <c r="X131" s="43" t="s">
-        <v>374</v>
+        <v>3</v>
+      </c>
+      <c r="X131" s="36" t="s">
+        <v>524</v>
       </c>
       <c r="Y131" s="36" t="s">
         <v>2624</v>
@@ -53031,12 +53028,12 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="F132" s="36" t="s">
         <v>1709</v>
@@ -53045,28 +53042,25 @@
         <v>2054</v>
       </c>
       <c r="I132" s="36" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="J132" s="36" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="K132" s="36" t="s">
         <v>268</v>
       </c>
       <c r="N132" s="36" t="s">
-        <v>1856</v>
-      </c>
-      <c r="P132" s="36" t="s">
-        <v>305</v>
+        <v>1797</v>
       </c>
       <c r="S132" s="36" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="V132" s="36" t="s">
         <v>1675</v>
       </c>
       <c r="W132" s="36">
-        <v>100000</v>
+        <v>450</v>
       </c>
       <c r="X132" s="43" t="s">
         <v>374</v>
@@ -53101,7 +53095,7 @@
         <v>268</v>
       </c>
       <c r="N133" s="36" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="P133" s="36" t="s">
         <v>305</v>
@@ -53125,12 +53119,12 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="F134" s="36" t="s">
         <v>1709</v>
@@ -53139,34 +53133,28 @@
         <v>2054</v>
       </c>
       <c r="I134" s="36" t="s">
-        <v>2326</v>
-      </c>
-      <c r="J134" s="43" t="s">
-        <v>2327</v>
+        <v>2324</v>
+      </c>
+      <c r="J134" s="36" t="s">
+        <v>2325</v>
       </c>
       <c r="K134" s="36" t="s">
         <v>268</v>
       </c>
       <c r="N134" s="36" t="s">
-        <v>1797</v>
-      </c>
-      <c r="O134" s="36" t="s">
-        <v>1645</v>
+        <v>1857</v>
+      </c>
+      <c r="P134" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="S134" s="36" t="s">
-        <v>1240</v>
-      </c>
-      <c r="T134" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="U134" s="36" t="s">
-        <v>1235</v>
+        <v>2323</v>
       </c>
       <c r="V134" s="36" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="W134" s="36">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="X134" s="43" t="s">
         <v>374</v>
@@ -53180,7 +53168,10 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>2328</v>
+        <v>2326</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>1647</v>
       </c>
       <c r="F135" s="36" t="s">
         <v>1709</v>
@@ -53189,22 +53180,37 @@
         <v>2054</v>
       </c>
       <c r="I135" s="36" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="J135" s="43" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="K135" s="36" t="s">
         <v>268</v>
       </c>
+      <c r="N135" s="36" t="s">
+        <v>1797</v>
+      </c>
+      <c r="O135" s="36" t="s">
+        <v>1645</v>
+      </c>
+      <c r="S135" s="36" t="s">
+        <v>1240</v>
+      </c>
       <c r="T135" s="36" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="U135" s="36" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X135" s="36" t="s">
-        <v>282</v>
+        <v>1235</v>
+      </c>
+      <c r="V135" s="36" t="s">
+        <v>1685</v>
+      </c>
+      <c r="W135" s="36">
+        <v>1000</v>
+      </c>
+      <c r="X135" s="43" t="s">
+        <v>374</v>
       </c>
       <c r="Y135" s="36" t="s">
         <v>2624</v>
@@ -53213,9 +53219,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F136" s="36" t="s">
         <v>1709</v>
@@ -53224,42 +53230,33 @@
         <v>2054</v>
       </c>
       <c r="I136" s="36" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="J136" s="43" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="K136" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="T136" s="44" t="s">
-        <v>403</v>
+      <c r="T136" s="36" t="s">
+        <v>287</v>
       </c>
       <c r="U136" s="36" t="s">
-        <v>387</v>
+        <v>1243</v>
+      </c>
+      <c r="X136" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="Y136" s="36" t="s">
-        <v>2718</v>
+        <v>2624</v>
       </c>
       <c r="Z136" s="36" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>2332</v>
-      </c>
-      <c r="B137" s="36" t="s">
         <v>2330</v>
-      </c>
-      <c r="C137" s="36" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D137" s="36" t="s">
-        <v>1656</v>
-      </c>
-      <c r="E137" s="36" t="s">
-        <v>1656</v>
       </c>
       <c r="F137" s="36" t="s">
         <v>1709</v>
@@ -53268,33 +53265,30 @@
         <v>2054</v>
       </c>
       <c r="I137" s="36" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="K137" s="36" t="s">
         <v>268</v>
       </c>
       <c r="T137" s="44" t="s">
-        <v>9</v>
+        <v>403</v>
       </c>
       <c r="U137" s="36" t="s">
-        <v>1232</v>
-      </c>
-      <c r="X137" s="36" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Y137" s="36" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="Z137" s="36" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="B138" s="36" t="s">
         <v>2330</v>
@@ -53305,6 +53299,9 @@
       <c r="D138" s="36" t="s">
         <v>1656</v>
       </c>
+      <c r="E138" s="36" t="s">
+        <v>1656</v>
+      </c>
       <c r="F138" s="36" t="s">
         <v>1709</v>
       </c>
@@ -53312,33 +53309,33 @@
         <v>2054</v>
       </c>
       <c r="I138" s="36" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="J138" s="43" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="K138" s="36" t="s">
         <v>268</v>
       </c>
       <c r="T138" s="44" t="s">
-        <v>979</v>
+        <v>9</v>
       </c>
       <c r="U138" s="36" t="s">
         <v>1232</v>
       </c>
-      <c r="W138" s="36" t="s">
-        <v>2337</v>
+      <c r="X138" s="36" t="s">
+        <v>374</v>
       </c>
       <c r="Y138" s="36" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="Z138" s="36" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="B139" s="36" t="s">
         <v>2330</v>
@@ -53346,6 +53343,9 @@
       <c r="C139" s="36" t="s">
         <v>1647</v>
       </c>
+      <c r="D139" s="36" t="s">
+        <v>1656</v>
+      </c>
       <c r="F139" s="36" t="s">
         <v>1709</v>
       </c>
@@ -53353,25 +53353,39 @@
         <v>2054</v>
       </c>
       <c r="I139" s="36" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="J139" s="43" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K139" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="T139" s="44"/>
+      <c r="T139" s="44" t="s">
+        <v>979</v>
+      </c>
+      <c r="U139" s="36" t="s">
+        <v>1232</v>
+      </c>
+      <c r="W139" s="36" t="s">
+        <v>2337</v>
+      </c>
       <c r="Y139" s="36" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="Z139" s="36" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>2340</v>
+        <v>2338</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>1647</v>
       </c>
       <c r="F140" s="36" t="s">
         <v>1709</v>
@@ -53380,19 +53394,46 @@
         <v>2054</v>
       </c>
       <c r="I140" s="36" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="J140" s="43" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="K140" s="36" t="s">
         <v>268</v>
       </c>
       <c r="T140" s="44"/>
       <c r="Y140" s="36" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="Z140" s="36" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" s="36" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G141" s="36" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I141" s="36" t="s">
+        <v>2340</v>
+      </c>
+      <c r="J141" s="43" t="s">
+        <v>2341</v>
+      </c>
+      <c r="K141" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="T141" s="44"/>
+      <c r="Y141" s="36" t="s">
+        <v>2721</v>
+      </c>
+      <c r="Z141" s="36" t="s">
         <v>1702</v>
       </c>
     </row>
@@ -55791,12 +55832,12 @@
         <v>520</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="108" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>1999</v>
@@ -55806,10 +55847,10 @@
       </c>
       <c r="D64" s="108"/>
       <c r="E64" s="108" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>2785</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>2786</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>268</v>
@@ -55821,12 +55862,12 @@
         <v>508</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A65" s="108" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>1999</v>
@@ -55836,10 +55877,10 @@
       </c>
       <c r="D65" s="108"/>
       <c r="E65" s="108" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>268</v>
@@ -55851,12 +55892,12 @@
         <v>508</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A66" s="108" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>1999</v>
@@ -55866,10 +55907,10 @@
       </c>
       <c r="D66" s="108"/>
       <c r="E66" s="108" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>268</v>
@@ -55881,12 +55922,12 @@
         <v>1241</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>1999</v>
@@ -55896,10 +55937,10 @@
       </c>
       <c r="D67" s="107"/>
       <c r="E67" s="15" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>268</v>
@@ -55911,7 +55952,7 @@
         <v>408</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -56902,12 +56943,12 @@
         <v>520</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1999</v>
@@ -56917,10 +56958,10 @@
       </c>
       <c r="D2" s="108"/>
       <c r="E2" s="108" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>2785</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>2786</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>268</v>
@@ -56932,12 +56973,12 @@
         <v>508</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="108" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>1999</v>
@@ -56947,10 +56988,10 @@
       </c>
       <c r="D3" s="108"/>
       <c r="E3" s="108" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>268</v>
@@ -56962,12 +57003,12 @@
         <v>508</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="108" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>1999</v>
@@ -56977,10 +57018,10 @@
       </c>
       <c r="D4" s="108"/>
       <c r="E4" s="108" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>268</v>
@@ -56992,12 +57033,12 @@
         <v>1241</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>1999</v>
@@ -57007,10 +57048,10 @@
       </c>
       <c r="D5" s="107"/>
       <c r="E5" s="15" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>268</v>
@@ -57022,7 +57063,7 @@
         <v>408</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
   </sheetData>
@@ -59151,7 +59192,7 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>392</v>
@@ -59161,13 +59202,13 @@
         <v>0</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>2806</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>2807</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A96984C-C847-41FA-8F7D-518D348BA86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB1A39C-1E88-4F9B-B867-134C84B05A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="36" r:id="rId1"/>
@@ -24,16 +24,17 @@
     <sheet name="Info" sheetId="13" r:id="rId9"/>
     <sheet name="Info(Global)" sheetId="40" r:id="rId10"/>
     <sheet name="Item" sheetId="15" r:id="rId11"/>
-    <sheet name="Mark" sheetId="3" r:id="rId12"/>
-    <sheet name="Meter" sheetId="19" r:id="rId13"/>
-    <sheet name="Price" sheetId="21" r:id="rId14"/>
-    <sheet name="Process" sheetId="23" r:id="rId15"/>
-    <sheet name="Role" sheetId="27" r:id="rId16"/>
-    <sheet name="Sign" sheetId="29" r:id="rId17"/>
-    <sheet name="Slice" sheetId="31" r:id="rId18"/>
-    <sheet name="Unit" sheetId="35" r:id="rId19"/>
-    <sheet name="Workbook" sheetId="38" r:id="rId20"/>
-    <sheet name="Workbook(Global)" sheetId="17" r:id="rId21"/>
+    <sheet name="Item(Global)" sheetId="41" r:id="rId12"/>
+    <sheet name="Mark" sheetId="3" r:id="rId13"/>
+    <sheet name="Meter" sheetId="19" r:id="rId14"/>
+    <sheet name="Price" sheetId="21" r:id="rId15"/>
+    <sheet name="Process" sheetId="23" r:id="rId16"/>
+    <sheet name="Role" sheetId="27" r:id="rId17"/>
+    <sheet name="Sign" sheetId="29" r:id="rId18"/>
+    <sheet name="Slice" sheetId="31" r:id="rId19"/>
+    <sheet name="Unit" sheetId="35" r:id="rId20"/>
+    <sheet name="Workbook" sheetId="38" r:id="rId21"/>
+    <sheet name="Workbook(Global)" sheetId="17" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15315" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15351" uniqueCount="2824">
   <si>
     <t/>
   </si>
@@ -8496,6 +8497,27 @@
   </si>
   <si>
     <t>AbcBasic=Deal.Basic;</t>
+  </si>
+  <si>
+    <t>пеня</t>
+  </si>
+  <si>
+    <t>вознаграждение</t>
+  </si>
+  <si>
+    <t>основной долг</t>
+  </si>
+  <si>
+    <t>AbcBasic=Item.Basic;AbcSectoral=Item.Pawnshop;</t>
+  </si>
+  <si>
+    <t>Item.Penalty</t>
+  </si>
+  <si>
+    <t>Item.Fee</t>
+  </si>
+  <si>
+    <t>Item.MainDebt</t>
   </si>
 </sst>
 </file>
@@ -11086,7 +11108,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11130,10 +11152,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11922,6 +11944,69 @@
         <v>2706</v>
       </c>
     </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>2820</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:G37">
     <sortCondition ref="E1:E37"/>
@@ -11932,6 +12017,90 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C758C98-22AE-4829-98F6-9AE0CEB92D72}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74704525-BEA2-44B0-B862-FFFE72E65A7B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12106,7 +12275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6487658-C509-4CF6-AABA-1DE2FA5D3D73}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12703,7 +12872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E304D26C-77C8-43BF-AF0F-D94F079385D4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13062,7 +13231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4D79CA-E27A-472E-8AB6-2E6E4B28EDF0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -30965,14 +31134,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF86879-31EB-437C-9145-BFE9CC9F7822}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
@@ -34064,7 +34233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863FF69B-72B1-42C9-A8F8-0EC86F04E93D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -35165,7 +35334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495BDFB7-7C97-4707-A048-AF4F8A52C74B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -35490,1354 +35659,6 @@
   </sortState>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97CE8A-FA37-4747-B9BA-C899131EC54A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="79.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="9" t="s">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>2757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1939</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>2761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>2763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>2765</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>2767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>1938</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>2774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>2777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>1936</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>2805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1942</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>2788</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>1940</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>2807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>2799</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:H55">
-    <sortCondition ref="E1:E55"/>
-  </sortState>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47253,6 +46074,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97CE8A-FA37-4747-B9BA-C899131EC54A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="79.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="9" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:H55">
+    <sortCondition ref="E1:E55"/>
+  </sortState>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5A54E-E5C7-4E33-825E-F4392C475C17}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
@@ -47303,14 +47472,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFFB933-7E45-4220-A611-276103225669}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
@@ -53356,8 +53525,8 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView topLeftCell="F59" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A58" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57514,7 +57683,7 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB1A39C-1E88-4F9B-B867-134C84B05A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A143BE72-5C62-400F-9877-B282515B63FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="36" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15351" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15357" uniqueCount="2825">
   <si>
     <t/>
   </si>
@@ -8518,6 +8518,9 @@
   </si>
   <si>
     <t>Item.MainDebt</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
   </si>
 </sst>
 </file>
@@ -8772,7 +8775,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1"/>
@@ -9024,6 +9027,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Гиперссылка" xfId="19" builtinId="8"/>
@@ -11155,13 +11159,14 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
@@ -11174,7 +11179,7 @@
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
@@ -11195,7 +11200,7 @@
       <c r="B2" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
@@ -11216,7 +11221,7 @@
       <c r="B3" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
@@ -11237,7 +11242,7 @@
       <c r="B4" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
@@ -11258,7 +11263,7 @@
       <c r="B5" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
@@ -11279,7 +11284,7 @@
       <c r="B6" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
@@ -11300,7 +11305,7 @@
       <c r="B7" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
@@ -11321,7 +11326,7 @@
       <c r="B8" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11" t="s">
         <v>0</v>
       </c>
@@ -11342,7 +11347,7 @@
       <c r="B9" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="11" t="s">
         <v>0</v>
       </c>
@@ -11363,7 +11368,7 @@
       <c r="B10" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
@@ -11384,7 +11389,7 @@
       <c r="B11" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="11" t="s">
         <v>0</v>
       </c>
@@ -11405,7 +11410,7 @@
       <c r="B12" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="11" t="s">
         <v>0</v>
       </c>
@@ -11426,7 +11431,7 @@
       <c r="B13" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
@@ -11447,7 +11452,7 @@
       <c r="B14" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="11" t="s">
         <v>0</v>
       </c>
@@ -11468,7 +11473,7 @@
       <c r="B15" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="11" t="s">
         <v>0</v>
       </c>
@@ -11489,7 +11494,7 @@
       <c r="B16" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="11" t="s">
         <v>0</v>
       </c>
@@ -11510,7 +11515,7 @@
       <c r="B17" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="11" t="s">
         <v>0</v>
       </c>
@@ -11531,7 +11536,7 @@
       <c r="B18" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
@@ -11552,7 +11557,7 @@
       <c r="B19" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="11" t="s">
         <v>0</v>
       </c>
@@ -11573,7 +11578,7 @@
       <c r="B20" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
@@ -11594,7 +11599,7 @@
       <c r="B21" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="11" t="s">
         <v>0</v>
       </c>
@@ -11615,7 +11620,7 @@
       <c r="B22" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="11" t="s">
         <v>0</v>
       </c>
@@ -11636,7 +11641,7 @@
       <c r="B23" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="11" t="s">
         <v>0</v>
       </c>
@@ -11657,7 +11662,7 @@
       <c r="B24" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="11" t="s">
         <v>0</v>
       </c>
@@ -11678,7 +11683,7 @@
       <c r="B25" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="11" t="s">
         <v>0</v>
       </c>
@@ -11699,7 +11704,7 @@
       <c r="B26" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="11" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11725,7 @@
       <c r="B27" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="11" t="s">
         <v>0</v>
       </c>
@@ -11741,7 +11746,7 @@
       <c r="B28" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="11" t="s">
         <v>0</v>
       </c>
@@ -11762,7 +11767,7 @@
       <c r="B29" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="11" t="s">
         <v>0</v>
       </c>
@@ -11783,7 +11788,7 @@
       <c r="B30" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="11" t="s">
         <v>0</v>
       </c>
@@ -11804,7 +11809,7 @@
       <c r="B31" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="11" t="s">
         <v>0</v>
       </c>
@@ -11825,7 +11830,7 @@
       <c r="B32" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="11" t="s">
         <v>0</v>
       </c>
@@ -11846,7 +11851,7 @@
       <c r="B33" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="11" t="s">
         <v>0</v>
       </c>
@@ -11867,7 +11872,7 @@
       <c r="B34" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="11" t="s">
         <v>0</v>
       </c>
@@ -11888,7 +11893,7 @@
       <c r="B35" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="11" t="s">
         <v>0</v>
       </c>
@@ -11909,7 +11914,7 @@
       <c r="B36" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="11" t="s">
         <v>0</v>
       </c>
@@ -11930,7 +11935,7 @@
       <c r="B37" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="11" t="s">
         <v>0</v>
       </c>
@@ -11951,7 +11956,9 @@
       <c r="B38" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="30" t="s">
+        <v>2824</v>
+      </c>
       <c r="D38" s="11" t="s">
         <v>0</v>
       </c>
@@ -11972,7 +11979,9 @@
       <c r="B39" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="30" t="s">
+        <v>2824</v>
+      </c>
       <c r="D39" s="11" t="s">
         <v>0</v>
       </c>
@@ -11993,7 +12002,9 @@
       <c r="B40" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="30" t="s">
+        <v>2824</v>
+      </c>
       <c r="D40" s="11" t="s">
         <v>0</v>
       </c>
@@ -12021,12 +12032,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="105" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
@@ -12039,7 +12051,9 @@
       <c r="B1" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="30" t="s">
+        <v>2824</v>
+      </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
@@ -12060,7 +12074,9 @@
       <c r="B2" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="30" t="s">
+        <v>2824</v>
+      </c>
       <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
@@ -12081,7 +12097,9 @@
       <c r="B3" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="30" t="s">
+        <v>2824</v>
+      </c>
       <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
@@ -47480,8 +47498,8 @@
   <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C52A6-1019-49A1-ADF7-C28EE7749B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEB708-2103-4156-96CC-E7EE0E4DC949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="36" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15357" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15357" uniqueCount="2826">
   <si>
     <t/>
   </si>
@@ -8112,48 +8112,12 @@
     <t>AbcBasic=Info.Basic;</t>
   </si>
   <si>
-    <t>FullName=Банковский идентификационный код;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=Бизнес-идентификационный номер;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=IBAN;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=Индивидуально-идентификационный номер;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=Код бенефициара;AbcBasic=Info.Basic;AbcCodePay=Tax.CodePay;</t>
-  </si>
-  <si>
-    <t>FullName=Код бюджетной классификации;AbcBasic=Info.Basic;AbcCodePay=Tax.CodePay;</t>
-  </si>
-  <si>
-    <t>FullName=Код назначения платежа;AbcBasic=Info.Basic;AbcCodePay=Tax.CodePay;</t>
-  </si>
-  <si>
-    <t>FullName=Регистрационный номер налогоплательщика;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
     <t>AbcBasic=Role.Basic;</t>
   </si>
   <si>
     <t>AbcBasic=Info.Basic;AbcUpdate=Info.Update;</t>
   </si>
   <si>
-    <t>FullName=Индивидуальный предприниматель;KBE=19;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=Товарищество с ограниченной ответственностью;KBE=17;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=Государственное учреждение;KBE=11;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
-    <t>FullName=Акционерное общество;KBE=17;AbcBasic=Info.Basic;</t>
-  </si>
-  <si>
     <t>KBE=19;AbcBasic=Info.Basic;</t>
   </si>
   <si>
@@ -8518,6 +8482,48 @@
   </si>
   <si>
     <t>InfoBaseId=;FullName=;BIN=;IIN=;RNN=;OKPO=;Comment=;HomeAddres=;LawAddress=;PostAddress=;RegAddress=;RegDescription=;AbcBasic=Face.Basic;AbcTemplate=Face.Template;</t>
+  </si>
+  <si>
+    <t>IBAN=?;AbcBasic=Face.Basic;AbcTemplate=Face.Template;Comment=;</t>
+  </si>
+  <si>
+    <t>AbcBasic=Item.Basic;AbcSectoral=Item.Pawnshop;AbcUpdate=Item.Update;</t>
+  </si>
+  <si>
+    <t>FullName=Индивидуально-идентификационный номер[RU];AbcBasic=Info.Basic;Numeric=12;</t>
+  </si>
+  <si>
+    <t>FullName=IBAN;AbcBasic=Info.Basic;Alphanumeric=20;</t>
+  </si>
+  <si>
+    <t>FullName=Банковский идентификационный код[RU];AbcBasic=Info.Basic;Alphanumeric=8;</t>
+  </si>
+  <si>
+    <t>FullName=Бизнес-идентификационный номер[RU];AbcBasic=Info.Basic;Numeric=12;</t>
+  </si>
+  <si>
+    <t>FullName=Регистрационный номер налогоплательщика[RU];AbcBasic=Info.Basic;</t>
+  </si>
+  <si>
+    <t>FullName=Код бенефициара[RU];AbcBasic=Info.Basic;AbcCodePay=Tax.CodePay;Numeric=2;</t>
+  </si>
+  <si>
+    <t>FullName=Код бюджетной классификации[RU];AbcBasic=Info.Basic;AbcCodePay=Tax.CodePay;Numeric=6;</t>
+  </si>
+  <si>
+    <t>FullName=Код назначения платежа[RU];AbcBasic=Info.Basic;AbcCodePay=Tax.CodePay;Numeric=3;</t>
+  </si>
+  <si>
+    <t>FullName=Индивидуальный предприниматель[RU];KBE=19;AbcBasic=Info.Basic;</t>
+  </si>
+  <si>
+    <t>FullName=Товарищество с ограниченной ответственностью[RU];KBE=17;AbcBasic=Info.Basic;</t>
+  </si>
+  <si>
+    <t>FullName=Государственное учреждение[RU];KBE=11;AbcBasic=Info.Basic;</t>
+  </si>
+  <si>
+    <t>FullName=Акционерное общество[RU];KBE=17;AbcBasic=Info.Basic;</t>
   </si>
 </sst>
 </file>
@@ -11140,7 +11146,7 @@
         <v>2629</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2697</v>
+        <v>2689</v>
       </c>
     </row>
   </sheetData>
@@ -11187,7 +11193,7 @@
         <v>538</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11208,7 +11214,7 @@
         <v>568</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11229,7 +11235,7 @@
         <v>586</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11250,7 +11256,7 @@
         <v>606</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11271,7 +11277,7 @@
         <v>584</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11292,7 +11298,7 @@
         <v>602</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11313,7 +11319,7 @@
         <v>552</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>2705</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11334,7 +11340,7 @@
         <v>609</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11355,7 +11361,7 @@
         <v>540</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11376,7 +11382,7 @@
         <v>562</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11397,7 +11403,7 @@
         <v>556</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11418,7 +11424,7 @@
         <v>546</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11439,7 +11445,7 @@
         <v>592</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11460,7 +11466,7 @@
         <v>572</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11481,7 +11487,7 @@
         <v>570</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11502,7 +11508,7 @@
         <v>590</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11523,7 +11529,7 @@
         <v>588</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11544,7 +11550,7 @@
         <v>566</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11565,7 +11571,7 @@
         <v>604</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11586,7 +11592,7 @@
         <v>596</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11607,7 +11613,7 @@
         <v>608</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11628,7 +11634,7 @@
         <v>564</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11649,7 +11655,7 @@
         <v>594</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11670,7 +11676,7 @@
         <v>582</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11691,7 +11697,7 @@
         <v>548</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11712,7 +11718,7 @@
         <v>560</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11733,7 +11739,7 @@
         <v>576</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11754,7 +11760,7 @@
         <v>542</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11775,7 +11781,7 @@
         <v>598</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11796,7 +11802,7 @@
         <v>550</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11817,7 +11823,7 @@
         <v>578</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11838,7 +11844,7 @@
         <v>580</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11859,7 +11865,7 @@
         <v>544</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11880,7 +11886,7 @@
         <v>574</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11901,7 +11907,7 @@
         <v>600</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11922,7 +11928,7 @@
         <v>558</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -11943,76 +11949,76 @@
         <v>554</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>2704</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
-        <v>2819</v>
+        <v>2807</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>2819</v>
+        <v>2807</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>2815</v>
+        <v>2803</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>2818</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
-        <v>2820</v>
+        <v>2808</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>2820</v>
+        <v>2808</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>2816</v>
+        <v>2804</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>2818</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
-        <v>2821</v>
+        <v>2809</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>2821</v>
+        <v>2809</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>2817</v>
+        <v>2805</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>2818</v>
+        <v>2806</v>
       </c>
     </row>
   </sheetData>
@@ -12029,7 +12035,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12043,71 +12049,71 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>2819</v>
+        <v>2807</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>2819</v>
+        <v>2807</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>2815</v>
+        <v>2803</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>2820</v>
+        <v>2808</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>2820</v>
+        <v>2808</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>2816</v>
+        <v>2804</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>2821</v>
+        <v>2809</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>2821</v>
+        <v>2809</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>2817</v>
+        <v>2805</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
     </row>
   </sheetData>
@@ -12152,7 +12158,7 @@
         <v>2056</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2706</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -12173,7 +12179,7 @@
         <v>272</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2706</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -12194,7 +12200,7 @@
         <v>273</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2707</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -12215,7 +12221,7 @@
         <v>274</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>2706</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -12236,7 +12242,7 @@
         <v>275</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>2706</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -12257,7 +12263,7 @@
         <v>278</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>2706</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -12278,7 +12284,7 @@
         <v>279</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>2706</v>
+        <v>2694</v>
       </c>
     </row>
   </sheetData>
@@ -12327,7 +12333,7 @@
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12351,7 +12357,7 @@
         <v>286</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>2709</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12375,7 +12381,7 @@
         <v>1940</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12395,7 +12401,7 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12419,7 +12425,7 @@
         <v>286</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12443,7 +12449,7 @@
         <v>639</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12467,7 +12473,7 @@
         <v>1936</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12491,7 +12497,7 @@
         <v>1936</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12515,7 +12521,7 @@
         <v>282</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12539,7 +12545,7 @@
         <v>626</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12563,7 +12569,7 @@
         <v>626</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12587,7 +12593,7 @@
         <v>630</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12611,7 +12617,7 @@
         <v>282</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12635,7 +12641,7 @@
         <v>282</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12659,7 +12665,7 @@
         <v>286</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12683,7 +12689,7 @@
         <v>282</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12707,7 +12713,7 @@
         <v>621</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12731,7 +12737,7 @@
         <v>524</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12755,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12779,7 +12785,7 @@
         <v>626</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12803,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12827,7 +12833,7 @@
         <v>293</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12851,7 +12857,7 @@
         <v>630</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -12875,7 +12881,7 @@
         <v>626</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
     </row>
   </sheetData>
@@ -12934,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -12964,7 +12970,7 @@
         <v>374</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>2711</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -12994,7 +13000,7 @@
         <v>367</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13024,7 +13030,7 @@
         <v>377</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13054,7 +13060,7 @@
         <v>380</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13084,7 +13090,7 @@
         <v>524</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13114,7 +13120,7 @@
         <v>374</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13144,7 +13150,7 @@
         <v>524</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13174,7 +13180,7 @@
         <v>704</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13204,7 +13210,7 @@
         <v>620</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -13234,7 +13240,7 @@
         <v>1187</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
     </row>
   </sheetData>
@@ -13354,7 +13360,7 @@
         <v>286</v>
       </c>
       <c r="X1" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y1" s="65" t="s">
         <v>1702</v>
@@ -13431,7 +13437,7 @@
         <v>639</v>
       </c>
       <c r="X2" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y2" s="65" t="s">
         <v>1699</v>
@@ -13508,7 +13514,7 @@
         <v>639</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y3" s="65" t="s">
         <v>1699</v>
@@ -13583,7 +13589,7 @@
         <v>374</v>
       </c>
       <c r="X4" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y4" s="65" t="s">
         <v>1699</v>
@@ -13644,7 +13650,7 @@
         <v>374</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y5" s="65" t="s">
         <v>1699</v>
@@ -13711,7 +13717,7 @@
         <v>374</v>
       </c>
       <c r="X6" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y6" s="65" t="s">
         <v>1699</v>
@@ -13778,7 +13784,7 @@
         <v>374</v>
       </c>
       <c r="X7" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y7" s="65" t="s">
         <v>1699</v>
@@ -13855,7 +13861,7 @@
         <v>639</v>
       </c>
       <c r="X8" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y8" s="65" t="s">
         <v>1699</v>
@@ -13930,7 +13936,7 @@
         <v>374</v>
       </c>
       <c r="X9" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y9" s="65" t="s">
         <v>1699</v>
@@ -14007,7 +14013,7 @@
         <v>374</v>
       </c>
       <c r="X10" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y10" s="65" t="s">
         <v>1699</v>
@@ -14082,7 +14088,7 @@
         <v>374</v>
       </c>
       <c r="X11" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y11" s="65" t="s">
         <v>1699</v>
@@ -14159,7 +14165,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y12" s="65" t="s">
         <v>1699</v>
@@ -14234,7 +14240,7 @@
         <v>374</v>
       </c>
       <c r="X13" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y13" s="65" t="s">
         <v>1699</v>
@@ -14309,7 +14315,7 @@
         <v>374</v>
       </c>
       <c r="X14" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y14" s="65" t="s">
         <v>1699</v>
@@ -14384,7 +14390,7 @@
         <v>374</v>
       </c>
       <c r="X15" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y15" s="65" t="s">
         <v>1699</v>
@@ -14459,7 +14465,7 @@
         <v>374</v>
       </c>
       <c r="X16" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y16" s="65" t="s">
         <v>1699</v>
@@ -14534,7 +14540,7 @@
         <v>374</v>
       </c>
       <c r="X17" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y17" s="65" t="s">
         <v>1699</v>
@@ -14609,7 +14615,7 @@
         <v>374</v>
       </c>
       <c r="X18" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y18" s="65" t="s">
         <v>1699</v>
@@ -14686,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y19" s="65" t="s">
         <v>1699</v>
@@ -14763,7 +14769,7 @@
         <v>374</v>
       </c>
       <c r="X20" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y20" s="65" t="s">
         <v>1699</v>
@@ -14840,7 +14846,7 @@
         <v>374</v>
       </c>
       <c r="X21" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y21" s="65" t="s">
         <v>1699</v>
@@ -14917,7 +14923,7 @@
         <v>374</v>
       </c>
       <c r="X22" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y22" s="65" t="s">
         <v>1699</v>
@@ -14992,7 +14998,7 @@
         <v>374</v>
       </c>
       <c r="X23" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y23" s="65" t="s">
         <v>1699</v>
@@ -15069,7 +15075,7 @@
         <v>374</v>
       </c>
       <c r="X24" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y24" s="65" t="s">
         <v>1699</v>
@@ -15146,7 +15152,7 @@
         <v>639</v>
       </c>
       <c r="X25" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y25" s="65" t="s">
         <v>1699</v>
@@ -15209,7 +15215,7 @@
         <v>374</v>
       </c>
       <c r="X26" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y26" s="65" t="s">
         <v>1699</v>
@@ -15272,7 +15278,7 @@
         <v>374</v>
       </c>
       <c r="X27" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y27" s="65" t="s">
         <v>1699</v>
@@ -15349,7 +15355,7 @@
         <v>639</v>
       </c>
       <c r="X28" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y28" s="65" t="s">
         <v>1699</v>
@@ -15424,7 +15430,7 @@
         <v>374</v>
       </c>
       <c r="X29" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y29" s="65" t="s">
         <v>1699</v>
@@ -15499,7 +15505,7 @@
         <v>374</v>
       </c>
       <c r="X30" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y30" s="65" t="s">
         <v>1699</v>
@@ -15560,7 +15566,7 @@
         <v>639</v>
       </c>
       <c r="X31" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y31" s="65" t="s">
         <v>1699</v>
@@ -15637,7 +15643,7 @@
         <v>374</v>
       </c>
       <c r="X32" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y32" s="65" t="s">
         <v>1699</v>
@@ -15714,7 +15720,7 @@
         <v>374</v>
       </c>
       <c r="X33" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y33" s="65" t="s">
         <v>1699</v>
@@ -15791,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y34" s="65" t="s">
         <v>1699</v>
@@ -15866,7 +15872,7 @@
         <v>639</v>
       </c>
       <c r="X35" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y35" s="65" t="s">
         <v>1699</v>
@@ -15941,7 +15947,7 @@
         <v>282</v>
       </c>
       <c r="X36" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y36" s="65" t="s">
         <v>1699</v>
@@ -16018,7 +16024,7 @@
         <v>374</v>
       </c>
       <c r="X37" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y37" s="65" t="s">
         <v>1699</v>
@@ -16093,7 +16099,7 @@
         <v>374</v>
       </c>
       <c r="X38" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y38" s="65" t="s">
         <v>1699</v>
@@ -16168,7 +16174,7 @@
         <v>374</v>
       </c>
       <c r="X39" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y39" s="65" t="s">
         <v>1699</v>
@@ -16241,7 +16247,7 @@
         <v>374</v>
       </c>
       <c r="X40" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y40" s="65" t="s">
         <v>1699</v>
@@ -16310,7 +16316,7 @@
         <v>374</v>
       </c>
       <c r="X41" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y41" s="65" t="s">
         <v>1699</v>
@@ -16379,7 +16385,7 @@
         <v>374</v>
       </c>
       <c r="X42" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y42" s="65" t="s">
         <v>1699</v>
@@ -16456,7 +16462,7 @@
         <v>639</v>
       </c>
       <c r="X43" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y43" s="65" t="s">
         <v>1699</v>
@@ -16517,7 +16523,7 @@
       </c>
       <c r="W44" s="59"/>
       <c r="X44" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y44" s="65" t="s">
         <v>1699</v>
@@ -16594,7 +16600,7 @@
         <v>374</v>
       </c>
       <c r="X45" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y45" s="65" t="s">
         <v>1699</v>
@@ -16671,7 +16677,7 @@
         <v>374</v>
       </c>
       <c r="X46" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y46" s="65" t="s">
         <v>1699</v>
@@ -16746,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y47" s="65" t="s">
         <v>1699</v>
@@ -16821,7 +16827,7 @@
       </c>
       <c r="W48" s="59"/>
       <c r="X48" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y48" s="65" t="s">
         <v>1699</v>
@@ -16898,7 +16904,7 @@
         <v>374</v>
       </c>
       <c r="X49" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y49" s="65" t="s">
         <v>1699</v>
@@ -16971,7 +16977,7 @@
       </c>
       <c r="W50" s="59"/>
       <c r="X50" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y50" s="65" t="s">
         <v>1699</v>
@@ -17048,7 +17054,7 @@
         <v>374</v>
       </c>
       <c r="X51" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y51" s="65" t="s">
         <v>1699</v>
@@ -17125,7 +17131,7 @@
         <v>374</v>
       </c>
       <c r="X52" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y52" s="65" t="s">
         <v>1699</v>
@@ -17198,7 +17204,7 @@
         <v>639</v>
       </c>
       <c r="X53" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y53" s="65" t="s">
         <v>1699</v>
@@ -17263,7 +17269,7 @@
         <v>282</v>
       </c>
       <c r="X54" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y54" s="65" t="s">
         <v>1699</v>
@@ -17334,7 +17340,7 @@
         <v>639</v>
       </c>
       <c r="X55" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y55" s="65" t="s">
         <v>1699</v>
@@ -17411,7 +17417,7 @@
         <v>282</v>
       </c>
       <c r="X56" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y56" s="65" t="s">
         <v>1699</v>
@@ -17484,7 +17490,7 @@
         <v>374</v>
       </c>
       <c r="X57" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y57" s="65" t="s">
         <v>1699</v>
@@ -17561,7 +17567,7 @@
         <v>374</v>
       </c>
       <c r="X58" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y58" s="65" t="s">
         <v>1699</v>
@@ -17638,7 +17644,7 @@
         <v>374</v>
       </c>
       <c r="X59" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y59" s="65" t="s">
         <v>1699</v>
@@ -17715,7 +17721,7 @@
         <v>374</v>
       </c>
       <c r="X60" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y60" s="65" t="s">
         <v>1699</v>
@@ -17786,7 +17792,7 @@
         <v>639</v>
       </c>
       <c r="X61" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y61" s="65" t="s">
         <v>1699</v>
@@ -17859,7 +17865,7 @@
         <v>282</v>
       </c>
       <c r="X62" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y62" s="65" t="s">
         <v>1699</v>
@@ -17932,7 +17938,7 @@
         <v>374</v>
       </c>
       <c r="X63" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y63" s="65" t="s">
         <v>1699</v>
@@ -18009,7 +18015,7 @@
         <v>374</v>
       </c>
       <c r="X64" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y64" s="65" t="s">
         <v>1699</v>
@@ -18084,7 +18090,7 @@
         <v>639</v>
       </c>
       <c r="X65" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y65" s="65" t="s">
         <v>1699</v>
@@ -18157,7 +18163,7 @@
         <v>374</v>
       </c>
       <c r="X66" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y66" s="65" t="s">
         <v>1699</v>
@@ -18234,7 +18240,7 @@
         <v>374</v>
       </c>
       <c r="X67" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y67" s="65" t="s">
         <v>1699</v>
@@ -18311,7 +18317,7 @@
         <v>374</v>
       </c>
       <c r="X68" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y68" s="65" t="s">
         <v>1699</v>
@@ -18384,7 +18390,7 @@
         <v>639</v>
       </c>
       <c r="X69" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y69" s="65" t="s">
         <v>1699</v>
@@ -18457,7 +18463,7 @@
         <v>639</v>
       </c>
       <c r="X70" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y70" s="65" t="s">
         <v>1699</v>
@@ -18530,7 +18536,7 @@
         <v>639</v>
       </c>
       <c r="X71" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y71" s="65" t="s">
         <v>1699</v>
@@ -18605,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y72" s="65" t="s">
         <v>1699</v>
@@ -18682,7 +18688,7 @@
         <v>374</v>
       </c>
       <c r="X73" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y73" s="65" t="s">
         <v>1699</v>
@@ -18759,7 +18765,7 @@
         <v>380</v>
       </c>
       <c r="X74" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y74" s="65" t="s">
         <v>1699</v>
@@ -18836,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y75" s="65" t="s">
         <v>1699</v>
@@ -18913,7 +18919,7 @@
         <v>1935</v>
       </c>
       <c r="X76" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y76" s="65" t="s">
         <v>1699</v>
@@ -18990,7 +18996,7 @@
         <v>1935</v>
       </c>
       <c r="X77" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y77" s="65" t="s">
         <v>1699</v>
@@ -19067,7 +19073,7 @@
         <v>374</v>
       </c>
       <c r="X78" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y78" s="65" t="s">
         <v>1699</v>
@@ -19144,7 +19150,7 @@
         <v>1935</v>
       </c>
       <c r="X79" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y79" s="65" t="s">
         <v>1699</v>
@@ -19221,7 +19227,7 @@
         <v>1935</v>
       </c>
       <c r="X80" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y80" s="65" t="s">
         <v>1699</v>
@@ -19298,7 +19304,7 @@
         <v>1935</v>
       </c>
       <c r="X81" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y81" s="65" t="s">
         <v>1699</v>
@@ -19375,7 +19381,7 @@
         <v>374</v>
       </c>
       <c r="X82" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y82" s="65" t="s">
         <v>1699</v>
@@ -19452,7 +19458,7 @@
         <v>1935</v>
       </c>
       <c r="X83" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y83" s="65" t="s">
         <v>1699</v>
@@ -19529,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y84" s="65" t="s">
         <v>1699</v>
@@ -19606,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y85" s="65" t="s">
         <v>1699</v>
@@ -19683,7 +19689,7 @@
         <v>374</v>
       </c>
       <c r="X86" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y86" s="65" t="s">
         <v>1699</v>
@@ -19760,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y87" s="65" t="s">
         <v>1699</v>
@@ -19837,7 +19843,7 @@
         <v>1935</v>
       </c>
       <c r="X88" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y88" s="65" t="s">
         <v>1699</v>
@@ -19912,7 +19918,7 @@
         <v>374</v>
       </c>
       <c r="X89" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y89" s="65" t="s">
         <v>1699</v>
@@ -19987,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y90" s="65" t="s">
         <v>1699</v>
@@ -20062,7 +20068,7 @@
         <v>704</v>
       </c>
       <c r="X91" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y91" s="65" t="s">
         <v>1699</v>
@@ -20137,7 +20143,7 @@
         <v>620</v>
       </c>
       <c r="X92" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y92" s="65" t="s">
         <v>1699</v>
@@ -20212,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y93" s="65" t="s">
         <v>1699</v>
@@ -20287,7 +20293,7 @@
         <v>374</v>
       </c>
       <c r="X94" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y94" s="65" t="s">
         <v>1699</v>
@@ -20362,7 +20368,7 @@
         <v>374</v>
       </c>
       <c r="X95" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y95" s="65" t="s">
         <v>1699</v>
@@ -20437,7 +20443,7 @@
         <v>374</v>
       </c>
       <c r="X96" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y96" s="65" t="s">
         <v>1699</v>
@@ -20512,7 +20518,7 @@
         <v>374</v>
       </c>
       <c r="X97" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y97" s="65" t="s">
         <v>1699</v>
@@ -20587,7 +20593,7 @@
         <v>374</v>
       </c>
       <c r="X98" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y98" s="65" t="s">
         <v>1699</v>
@@ -20662,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y99" s="65" t="s">
         <v>1699</v>
@@ -20737,7 +20743,7 @@
         <v>374</v>
       </c>
       <c r="X100" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y100" s="65" t="s">
         <v>1699</v>
@@ -20812,7 +20818,7 @@
         <v>374</v>
       </c>
       <c r="X101" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y101" s="65" t="s">
         <v>1699</v>
@@ -20889,7 +20895,7 @@
         <v>374</v>
       </c>
       <c r="X102" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y102" s="65" t="s">
         <v>1699</v>
@@ -20966,7 +20972,7 @@
         <v>374</v>
       </c>
       <c r="X103" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y103" s="65" t="s">
         <v>1699</v>
@@ -21043,7 +21049,7 @@
         <v>374</v>
       </c>
       <c r="X104" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y104" s="65" t="s">
         <v>1699</v>
@@ -21120,7 +21126,7 @@
         <v>374</v>
       </c>
       <c r="X105" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y105" s="65" t="s">
         <v>1699</v>
@@ -21197,7 +21203,7 @@
         <v>374</v>
       </c>
       <c r="X106" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y106" s="65" t="s">
         <v>1699</v>
@@ -21272,7 +21278,7 @@
         <v>374</v>
       </c>
       <c r="X107" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y107" s="65" t="s">
         <v>1699</v>
@@ -21349,7 +21355,7 @@
         <v>374</v>
       </c>
       <c r="X108" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y108" s="65" t="s">
         <v>1699</v>
@@ -21426,7 +21432,7 @@
         <v>374</v>
       </c>
       <c r="X109" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y109" s="65" t="s">
         <v>1699</v>
@@ -21503,7 +21509,7 @@
         <v>374</v>
       </c>
       <c r="X110" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y110" s="65" t="s">
         <v>1699</v>
@@ -21580,7 +21586,7 @@
         <v>374</v>
       </c>
       <c r="X111" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y111" s="65" t="s">
         <v>1699</v>
@@ -21657,7 +21663,7 @@
         <v>374</v>
       </c>
       <c r="X112" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y112" s="65" t="s">
         <v>1699</v>
@@ -21734,7 +21740,7 @@
         <v>374</v>
       </c>
       <c r="X113" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y113" s="65" t="s">
         <v>1699</v>
@@ -21811,7 +21817,7 @@
         <v>374</v>
       </c>
       <c r="X114" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y114" s="65" t="s">
         <v>1699</v>
@@ -21888,7 +21894,7 @@
         <v>374</v>
       </c>
       <c r="X115" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y115" s="65" t="s">
         <v>1699</v>
@@ -21963,7 +21969,7 @@
         <v>374</v>
       </c>
       <c r="X116" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y116" s="65" t="s">
         <v>1699</v>
@@ -22038,7 +22044,7 @@
         <v>374</v>
       </c>
       <c r="X117" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y117" s="65" t="s">
         <v>1699</v>
@@ -22113,7 +22119,7 @@
         <v>374</v>
       </c>
       <c r="X118" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y118" s="65" t="s">
         <v>1699</v>
@@ -22188,7 +22194,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y119" s="65" t="s">
         <v>1699</v>
@@ -22263,7 +22269,7 @@
         <v>374</v>
       </c>
       <c r="X120" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y120" s="65" t="s">
         <v>1699</v>
@@ -22338,7 +22344,7 @@
         <v>374</v>
       </c>
       <c r="X121" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y121" s="65" t="s">
         <v>1699</v>
@@ -22413,7 +22419,7 @@
         <v>374</v>
       </c>
       <c r="X122" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y122" s="65" t="s">
         <v>1699</v>
@@ -22488,7 +22494,7 @@
         <v>374</v>
       </c>
       <c r="X123" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y123" s="65" t="s">
         <v>1699</v>
@@ -22563,7 +22569,7 @@
         <v>374</v>
       </c>
       <c r="X124" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y124" s="65" t="s">
         <v>1699</v>
@@ -22638,7 +22644,7 @@
         <v>374</v>
       </c>
       <c r="X125" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y125" s="65" t="s">
         <v>1699</v>
@@ -22713,7 +22719,7 @@
         <v>374</v>
       </c>
       <c r="X126" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y126" s="65" t="s">
         <v>1699</v>
@@ -22788,7 +22794,7 @@
         <v>374</v>
       </c>
       <c r="X127" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y127" s="65" t="s">
         <v>1699</v>
@@ -22863,7 +22869,7 @@
         <v>0</v>
       </c>
       <c r="X128" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y128" s="65" t="s">
         <v>1699</v>
@@ -22938,7 +22944,7 @@
         <v>374</v>
       </c>
       <c r="X129" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y129" s="65" t="s">
         <v>1699</v>
@@ -23013,7 +23019,7 @@
         <v>374</v>
       </c>
       <c r="X130" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y130" s="65" t="s">
         <v>1699</v>
@@ -23088,7 +23094,7 @@
         <v>374</v>
       </c>
       <c r="X131" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y131" s="65" t="s">
         <v>1699</v>
@@ -23165,7 +23171,7 @@
         <v>0</v>
       </c>
       <c r="X132" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y132" s="65" t="s">
         <v>1699</v>
@@ -23242,7 +23248,7 @@
         <v>374</v>
       </c>
       <c r="X133" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y133" s="65" t="s">
         <v>1699</v>
@@ -23319,7 +23325,7 @@
         <v>374</v>
       </c>
       <c r="X134" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y134" s="65" t="s">
         <v>1699</v>
@@ -23396,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X135" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y135" s="65" t="s">
         <v>1699</v>
@@ -23473,7 +23479,7 @@
         <v>374</v>
       </c>
       <c r="X136" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y136" s="65" t="s">
         <v>1699</v>
@@ -23550,7 +23556,7 @@
         <v>374</v>
       </c>
       <c r="X137" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y137" s="65" t="s">
         <v>1699</v>
@@ -23625,7 +23631,7 @@
         <v>0</v>
       </c>
       <c r="X138" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y138" s="65" t="s">
         <v>1699</v>
@@ -23702,7 +23708,7 @@
         <v>374</v>
       </c>
       <c r="X139" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y139" s="65" t="s">
         <v>1699</v>
@@ -23779,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="X140" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y140" s="65" t="s">
         <v>1699</v>
@@ -23856,7 +23862,7 @@
         <v>374</v>
       </c>
       <c r="X141" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y141" s="65" t="s">
         <v>1699</v>
@@ -23933,7 +23939,7 @@
         <v>374</v>
       </c>
       <c r="X142" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y142" s="65" t="s">
         <v>1699</v>
@@ -24010,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="X143" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y143" s="65" t="s">
         <v>1699</v>
@@ -24087,7 +24093,7 @@
         <v>374</v>
       </c>
       <c r="X144" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y144" s="65" t="s">
         <v>1699</v>
@@ -24164,7 +24170,7 @@
         <v>374</v>
       </c>
       <c r="X145" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y145" s="65" t="s">
         <v>1699</v>
@@ -24241,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="X146" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y146" s="65" t="s">
         <v>1699</v>
@@ -24318,7 +24324,7 @@
         <v>374</v>
       </c>
       <c r="X147" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y147" s="65" t="s">
         <v>1699</v>
@@ -24395,7 +24401,7 @@
         <v>374</v>
       </c>
       <c r="X148" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y148" s="65" t="s">
         <v>1699</v>
@@ -24470,7 +24476,7 @@
         <v>0</v>
       </c>
       <c r="X149" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y149" s="65" t="s">
         <v>1699</v>
@@ -24547,7 +24553,7 @@
         <v>763</v>
       </c>
       <c r="X150" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y150" s="65" t="s">
         <v>1699</v>
@@ -24624,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="X151" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y151" s="65" t="s">
         <v>1699</v>
@@ -24699,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="X152" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y152" s="65" t="s">
         <v>1699</v>
@@ -24776,7 +24782,7 @@
         <v>1935</v>
       </c>
       <c r="X153" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y153" s="65" t="s">
         <v>1699</v>
@@ -24853,7 +24859,7 @@
         <v>0</v>
       </c>
       <c r="X154" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y154" s="65" t="s">
         <v>1699</v>
@@ -24930,7 +24936,7 @@
         <v>1935</v>
       </c>
       <c r="X155" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y155" s="65" t="s">
         <v>1699</v>
@@ -25007,7 +25013,7 @@
         <v>374</v>
       </c>
       <c r="X156" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y156" s="65" t="s">
         <v>1699</v>
@@ -25084,7 +25090,7 @@
         <v>374</v>
       </c>
       <c r="X157" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y157" s="65" t="s">
         <v>1699</v>
@@ -25159,7 +25165,7 @@
         <v>374</v>
       </c>
       <c r="X158" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y158" s="65" t="s">
         <v>1699</v>
@@ -25234,7 +25240,7 @@
         <v>374</v>
       </c>
       <c r="X159" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y159" s="65" t="s">
         <v>1699</v>
@@ -25311,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="X160" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y160" s="65" t="s">
         <v>1699</v>
@@ -25388,7 +25394,7 @@
         <v>374</v>
       </c>
       <c r="X161" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y161" s="65" t="s">
         <v>1699</v>
@@ -25465,7 +25471,7 @@
         <v>374</v>
       </c>
       <c r="X162" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y162" s="65" t="s">
         <v>1699</v>
@@ -25542,7 +25548,7 @@
         <v>374</v>
       </c>
       <c r="X163" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y163" s="65" t="s">
         <v>1699</v>
@@ -25619,7 +25625,7 @@
         <v>0</v>
       </c>
       <c r="X164" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y164" s="65" t="s">
         <v>1699</v>
@@ -25694,7 +25700,7 @@
         <v>0</v>
       </c>
       <c r="X165" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y165" s="65" t="s">
         <v>1699</v>
@@ -25771,7 +25777,7 @@
         <v>1935</v>
       </c>
       <c r="X166" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y166" s="65" t="s">
         <v>1699</v>
@@ -25848,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="X167" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y167" s="65" t="s">
         <v>1699</v>
@@ -25925,7 +25931,7 @@
         <v>1935</v>
       </c>
       <c r="X168" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y168" s="65" t="s">
         <v>1699</v>
@@ -26002,7 +26008,7 @@
         <v>374</v>
       </c>
       <c r="X169" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y169" s="65" t="s">
         <v>1699</v>
@@ -26079,7 +26085,7 @@
         <v>374</v>
       </c>
       <c r="X170" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y170" s="65" t="s">
         <v>1699</v>
@@ -26156,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="X171" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y171" s="65" t="s">
         <v>1699</v>
@@ -26233,7 +26239,7 @@
         <v>374</v>
       </c>
       <c r="X172" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y172" s="65" t="s">
         <v>1699</v>
@@ -26308,7 +26314,7 @@
         <v>374</v>
       </c>
       <c r="X173" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y173" s="65" t="s">
         <v>1699</v>
@@ -26383,7 +26389,7 @@
         <v>374</v>
       </c>
       <c r="X174" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y174" s="65" t="s">
         <v>1699</v>
@@ -26458,7 +26464,7 @@
         <v>374</v>
       </c>
       <c r="X175" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y175" s="65" t="s">
         <v>1699</v>
@@ -26535,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="X176" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y176" s="65" t="s">
         <v>1699</v>
@@ -26612,7 +26618,7 @@
         <v>374</v>
       </c>
       <c r="X177" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y177" s="65" t="s">
         <v>1699</v>
@@ -26689,7 +26695,7 @@
         <v>374</v>
       </c>
       <c r="X178" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y178" s="65" t="s">
         <v>1699</v>
@@ -26766,7 +26772,7 @@
         <v>374</v>
       </c>
       <c r="X179" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y179" s="65" t="s">
         <v>1699</v>
@@ -26841,7 +26847,7 @@
         <v>0</v>
       </c>
       <c r="X180" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y180" s="65" t="s">
         <v>1699</v>
@@ -26918,7 +26924,7 @@
         <v>0</v>
       </c>
       <c r="X181" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y181" s="65" t="s">
         <v>1699</v>
@@ -26995,7 +27001,7 @@
         <v>374</v>
       </c>
       <c r="X182" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y182" s="65" t="s">
         <v>1699</v>
@@ -27072,7 +27078,7 @@
         <v>374</v>
       </c>
       <c r="X183" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y183" s="65" t="s">
         <v>1699</v>
@@ -27147,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="X184" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y184" s="65" t="s">
         <v>1699</v>
@@ -27224,7 +27230,7 @@
         <v>1935</v>
       </c>
       <c r="X185" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y185" s="65" t="s">
         <v>1699</v>
@@ -27301,7 +27307,7 @@
         <v>374</v>
       </c>
       <c r="X186" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y186" s="65" t="s">
         <v>1699</v>
@@ -27378,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="X187" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y187" s="65" t="s">
         <v>1699</v>
@@ -27455,7 +27461,7 @@
         <v>374</v>
       </c>
       <c r="X188" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y188" s="65" t="s">
         <v>1699</v>
@@ -27532,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="X189" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y189" s="65" t="s">
         <v>1699</v>
@@ -27609,7 +27615,7 @@
         <v>374</v>
       </c>
       <c r="X190" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y190" s="65" t="s">
         <v>1699</v>
@@ -27686,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="X191" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y191" s="65" t="s">
         <v>1699</v>
@@ -27763,7 +27769,7 @@
         <v>374</v>
       </c>
       <c r="X192" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y192" s="65" t="s">
         <v>1699</v>
@@ -27840,7 +27846,7 @@
         <v>374</v>
       </c>
       <c r="X193" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y193" s="65" t="s">
         <v>1699</v>
@@ -27917,7 +27923,7 @@
         <v>0</v>
       </c>
       <c r="X194" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y194" s="65" t="s">
         <v>1699</v>
@@ -27994,7 +28000,7 @@
         <v>1935</v>
       </c>
       <c r="X195" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y195" s="65" t="s">
         <v>1699</v>
@@ -28071,7 +28077,7 @@
         <v>374</v>
       </c>
       <c r="X196" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y196" s="65" t="s">
         <v>1699</v>
@@ -28148,7 +28154,7 @@
         <v>1935</v>
       </c>
       <c r="X197" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y197" s="65" t="s">
         <v>1699</v>
@@ -28225,7 +28231,7 @@
         <v>374</v>
       </c>
       <c r="X198" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y198" s="65" t="s">
         <v>1699</v>
@@ -28302,7 +28308,7 @@
         <v>374</v>
       </c>
       <c r="X199" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y199" s="65" t="s">
         <v>1699</v>
@@ -28377,7 +28383,7 @@
         <v>374</v>
       </c>
       <c r="X200" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y200" s="65" t="s">
         <v>1699</v>
@@ -28452,7 +28458,7 @@
         <v>374</v>
       </c>
       <c r="X201" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y201" s="65" t="s">
         <v>1699</v>
@@ -28527,7 +28533,7 @@
         <v>374</v>
       </c>
       <c r="X202" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y202" s="65" t="s">
         <v>1699</v>
@@ -28604,7 +28610,7 @@
         <v>374</v>
       </c>
       <c r="X203" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y203" s="65" t="s">
         <v>1699</v>
@@ -28681,7 +28687,7 @@
         <v>374</v>
       </c>
       <c r="X204" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y204" s="65" t="s">
         <v>1699</v>
@@ -28758,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="X205" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y205" s="65" t="s">
         <v>1699</v>
@@ -28835,7 +28841,7 @@
         <v>0</v>
       </c>
       <c r="X206" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y206" s="65" t="s">
         <v>1699</v>
@@ -28910,7 +28916,7 @@
         <v>639</v>
       </c>
       <c r="X207" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y207" s="65" t="s">
         <v>1699</v>
@@ -28987,7 +28993,7 @@
         <v>1168</v>
       </c>
       <c r="X208" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y208" s="65" t="s">
         <v>1699</v>
@@ -29064,7 +29070,7 @@
         <v>639</v>
       </c>
       <c r="X209" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y209" s="65" t="s">
         <v>1699</v>
@@ -29139,7 +29145,7 @@
         <v>0</v>
       </c>
       <c r="X210" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y210" s="65" t="s">
         <v>1699</v>
@@ -29214,7 +29220,7 @@
         <v>374</v>
       </c>
       <c r="X211" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y211" s="65" t="s">
         <v>1699</v>
@@ -29291,7 +29297,7 @@
         <v>374</v>
       </c>
       <c r="X212" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y212" s="65" t="s">
         <v>1699</v>
@@ -29368,7 +29374,7 @@
         <v>374</v>
       </c>
       <c r="X213" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y213" s="65" t="s">
         <v>1699</v>
@@ -29443,7 +29449,7 @@
         <v>374</v>
       </c>
       <c r="X214" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y214" s="65" t="s">
         <v>1699</v>
@@ -29518,7 +29524,7 @@
         <v>374</v>
       </c>
       <c r="X215" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y215" s="65" t="s">
         <v>1699</v>
@@ -29595,7 +29601,7 @@
         <v>0</v>
       </c>
       <c r="X216" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y216" s="65" t="s">
         <v>1699</v>
@@ -29672,7 +29678,7 @@
         <v>1935</v>
       </c>
       <c r="X217" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y217" s="65" t="s">
         <v>1699</v>
@@ -29749,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="X218" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y218" s="65" t="s">
         <v>1699</v>
@@ -29826,7 +29832,7 @@
         <v>1935</v>
       </c>
       <c r="X219" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y219" s="65" t="s">
         <v>1699</v>
@@ -29903,7 +29909,7 @@
         <v>374</v>
       </c>
       <c r="X220" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y220" s="65" t="s">
         <v>1699</v>
@@ -29980,7 +29986,7 @@
         <v>1935</v>
       </c>
       <c r="X221" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y221" s="65" t="s">
         <v>1699</v>
@@ -30057,7 +30063,7 @@
         <v>374</v>
       </c>
       <c r="X222" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y222" s="65" t="s">
         <v>1699</v>
@@ -30134,7 +30140,7 @@
         <v>0</v>
       </c>
       <c r="X223" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y223" s="65" t="s">
         <v>1699</v>
@@ -30211,7 +30217,7 @@
         <v>374</v>
       </c>
       <c r="X224" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y224" s="65" t="s">
         <v>1699</v>
@@ -30288,7 +30294,7 @@
         <v>374</v>
       </c>
       <c r="X225" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y225" s="65" t="s">
         <v>1699</v>
@@ -30365,7 +30371,7 @@
         <v>374</v>
       </c>
       <c r="X226" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y226" s="65" t="s">
         <v>1699</v>
@@ -30440,7 +30446,7 @@
         <v>0</v>
       </c>
       <c r="X227" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y227" s="65" t="s">
         <v>1699</v>
@@ -30517,7 +30523,7 @@
         <v>1935</v>
       </c>
       <c r="X228" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y228" s="65" t="s">
         <v>1699</v>
@@ -30594,7 +30600,7 @@
         <v>0</v>
       </c>
       <c r="X229" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y229" s="65" t="s">
         <v>1699</v>
@@ -30671,7 +30677,7 @@
         <v>1935</v>
       </c>
       <c r="X230" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y230" s="65" t="s">
         <v>1699</v>
@@ -30748,7 +30754,7 @@
         <v>374</v>
       </c>
       <c r="X231" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y231" s="65" t="s">
         <v>1699</v>
@@ -30825,7 +30831,7 @@
         <v>374</v>
       </c>
       <c r="X232" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y232" s="65" t="s">
         <v>1699</v>
@@ -30902,7 +30908,7 @@
         <v>1935</v>
       </c>
       <c r="X233" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y233" s="65" t="s">
         <v>1699</v>
@@ -30979,7 +30985,7 @@
         <v>1935</v>
       </c>
       <c r="X234" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y234" s="65" t="s">
         <v>1699</v>
@@ -31056,7 +31062,7 @@
         <v>374</v>
       </c>
       <c r="X235" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y235" s="65" t="s">
         <v>1699</v>
@@ -31133,7 +31139,7 @@
         <v>374</v>
       </c>
       <c r="X236" s="62" t="s">
-        <v>2712</v>
+        <v>2700</v>
       </c>
       <c r="Y236" s="65" t="s">
         <v>1699</v>
@@ -31189,7 +31195,7 @@
         <v>850</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31210,7 +31216,7 @@
         <v>266</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31233,7 +31239,7 @@
         <v>866</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31256,7 +31262,7 @@
         <v>1229</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31279,7 +31285,7 @@
         <v>867</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31300,7 +31306,7 @@
         <v>868</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31319,7 +31325,7 @@
         <v>869</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31340,7 +31346,7 @@
         <v>852</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31361,7 +31367,7 @@
         <v>853</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31382,7 +31388,7 @@
         <v>854</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31403,7 +31409,7 @@
         <v>855</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31424,7 +31430,7 @@
         <v>856</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31445,7 +31451,7 @@
         <v>857</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31466,7 +31472,7 @@
         <v>858</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31487,7 +31493,7 @@
         <v>860</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31508,7 +31514,7 @@
         <v>861</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31529,7 +31535,7 @@
         <v>862</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31550,7 +31556,7 @@
         <v>863</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31571,7 +31577,7 @@
         <v>864</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31592,7 +31598,7 @@
         <v>865</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31611,7 +31617,7 @@
         <v>280</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31632,7 +31638,7 @@
         <v>871</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31653,7 +31659,7 @@
         <v>872</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31674,7 +31680,7 @@
         <v>873</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31695,7 +31701,7 @@
         <v>875</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31716,7 +31722,7 @@
         <v>877</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31737,7 +31743,7 @@
         <v>878</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31758,7 +31764,7 @@
         <v>880</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31779,7 +31785,7 @@
         <v>882</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31800,7 +31806,7 @@
         <v>883</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31821,7 +31827,7 @@
         <v>884</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31842,7 +31848,7 @@
         <v>885</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31863,7 +31869,7 @@
         <v>886</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31884,7 +31890,7 @@
         <v>888</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31905,7 +31911,7 @@
         <v>890</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31926,7 +31932,7 @@
         <v>891</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31947,7 +31953,7 @@
         <v>893</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31968,7 +31974,7 @@
         <v>895</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -31989,7 +31995,7 @@
         <v>894</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32010,7 +32016,7 @@
         <v>299</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32031,7 +32037,7 @@
         <v>901</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32052,7 +32058,7 @@
         <v>903</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32073,7 +32079,7 @@
         <v>473</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32094,7 +32100,7 @@
         <v>2307</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32115,7 +32121,7 @@
         <v>902</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32136,7 +32142,7 @@
         <v>905</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32157,7 +32163,7 @@
         <v>435</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32178,7 +32184,7 @@
         <v>907</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>2713</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32199,7 +32205,7 @@
         <v>910</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>2714</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32220,7 +32226,7 @@
         <v>911</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>2715</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32241,7 +32247,7 @@
         <v>912</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>2716</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32262,7 +32268,7 @@
         <v>913</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>2717</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32283,7 +32289,7 @@
         <v>958</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32304,7 +32310,7 @@
         <v>959</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32325,7 +32331,7 @@
         <v>914</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>2718</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32346,7 +32352,7 @@
         <v>915</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>2719</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32367,7 +32373,7 @@
         <v>916</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>2720</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32388,7 +32394,7 @@
         <v>917</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>2721</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32409,7 +32415,7 @@
         <v>488</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32430,7 +32436,7 @@
         <v>918</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>2722</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32451,7 +32457,7 @@
         <v>919</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>2723</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32472,7 +32478,7 @@
         <v>489</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>2724</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32493,7 +32499,7 @@
         <v>920</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>2725</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32514,7 +32520,7 @@
         <v>921</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>2726</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32535,7 +32541,7 @@
         <v>2352</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>2727</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32556,7 +32562,7 @@
         <v>2351</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>2728</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32577,7 +32583,7 @@
         <v>490</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32598,7 +32604,7 @@
         <v>922</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>2729</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32619,7 +32625,7 @@
         <v>923</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>2730</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32640,7 +32646,7 @@
         <v>554</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>2731</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32661,7 +32667,7 @@
         <v>265</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32682,7 +32688,7 @@
         <v>906</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>2732</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32703,7 +32709,7 @@
         <v>926</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32724,7 +32730,7 @@
         <v>927</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>2733</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32745,7 +32751,7 @@
         <v>929</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32766,7 +32772,7 @@
         <v>930</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>2733</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32787,7 +32793,7 @@
         <v>932</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32808,7 +32814,7 @@
         <v>424</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>2734</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32829,7 +32835,7 @@
         <v>933</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>2733</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32850,7 +32856,7 @@
         <v>934</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32871,7 +32877,7 @@
         <v>2219</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32892,7 +32898,7 @@
         <v>935</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32913,7 +32919,7 @@
         <v>452</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32934,7 +32940,7 @@
         <v>462</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32955,7 +32961,7 @@
         <v>458</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32976,7 +32982,7 @@
         <v>471</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -32997,7 +33003,7 @@
         <v>276</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33018,7 +33024,7 @@
         <v>940</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33039,7 +33045,7 @@
         <v>941</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33060,7 +33066,7 @@
         <v>943</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33081,7 +33087,7 @@
         <v>945</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33102,7 +33108,7 @@
         <v>947</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33123,7 +33129,7 @@
         <v>949</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33144,7 +33150,7 @@
         <v>951</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33165,7 +33171,7 @@
         <v>953</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33186,7 +33192,7 @@
         <v>954</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33207,7 +33213,7 @@
         <v>956</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33228,7 +33234,7 @@
         <v>957</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33249,7 +33255,7 @@
         <v>616</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33270,7 +33276,7 @@
         <v>897</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33291,7 +33297,7 @@
         <v>968</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33312,7 +33318,7 @@
         <v>963</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33333,7 +33339,7 @@
         <v>964</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33354,7 +33360,7 @@
         <v>898</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33375,7 +33381,7 @@
         <v>969</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33396,7 +33402,7 @@
         <v>970</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33417,7 +33423,7 @@
         <v>966</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33438,7 +33444,7 @@
         <v>971</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33459,7 +33465,7 @@
         <v>967</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33480,7 +33486,7 @@
         <v>498</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33501,7 +33507,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33522,7 +33528,7 @@
         <v>981</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33543,7 +33549,7 @@
         <v>983</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33564,7 +33570,7 @@
         <v>984</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33585,7 +33591,7 @@
         <v>986</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33606,7 +33612,7 @@
         <v>987</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33627,7 +33633,7 @@
         <v>989</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33648,7 +33654,7 @@
         <v>991</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33669,7 +33675,7 @@
         <v>993</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33690,7 +33696,7 @@
         <v>995</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33711,7 +33717,7 @@
         <v>1004</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33732,7 +33738,7 @@
         <v>997</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33753,7 +33759,7 @@
         <v>999</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33774,7 +33780,7 @@
         <v>1001</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33795,7 +33801,7 @@
         <v>1003</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33816,7 +33822,7 @@
         <v>1006</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33837,7 +33843,7 @@
         <v>1008</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33858,7 +33864,7 @@
         <v>1010</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33879,7 +33885,7 @@
         <v>1012</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33900,7 +33906,7 @@
         <v>2042</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33921,7 +33927,7 @@
         <v>2044</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33942,7 +33948,7 @@
         <v>1014</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33963,7 +33969,7 @@
         <v>1016</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -33984,7 +33990,7 @@
         <v>1018</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34005,7 +34011,7 @@
         <v>1020</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34026,7 +34032,7 @@
         <v>1021</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34047,7 +34053,7 @@
         <v>1023</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34068,7 +34074,7 @@
         <v>1025</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34089,7 +34095,7 @@
         <v>1027</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34110,7 +34116,7 @@
         <v>1029</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34131,7 +34137,7 @@
         <v>1031</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34152,7 +34158,7 @@
         <v>1032</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34173,7 +34179,7 @@
         <v>2062</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34194,7 +34200,7 @@
         <v>1034</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34215,7 +34221,7 @@
         <v>1036</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34236,7 +34242,7 @@
         <v>1038</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
   </sheetData>
@@ -34287,7 +34293,7 @@
         <v>1062</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34308,7 +34314,7 @@
         <v>271</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34329,7 +34335,7 @@
         <v>1039</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34350,7 +34356,7 @@
         <v>1040</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34371,7 +34377,7 @@
         <v>1041</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>2736</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34392,7 +34398,7 @@
         <v>1042</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34413,7 +34419,7 @@
         <v>1043</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34434,7 +34440,7 @@
         <v>1044</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34455,7 +34461,7 @@
         <v>1045</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34476,7 +34482,7 @@
         <v>1046</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34497,7 +34503,7 @@
         <v>1047</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34518,7 +34524,7 @@
         <v>1048</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2737</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34539,7 +34545,7 @@
         <v>1049</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2738</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34560,7 +34566,7 @@
         <v>1050</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2739</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34581,7 +34587,7 @@
         <v>1051</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2740</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34602,7 +34608,7 @@
         <v>1052</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2741</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34623,7 +34629,7 @@
         <v>1053</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2742</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34644,7 +34650,7 @@
         <v>1054</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>2743</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34665,7 +34671,7 @@
         <v>1055</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2744</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34686,7 +34692,7 @@
         <v>1056</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2745</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34707,7 +34713,7 @@
         <v>1057</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>2746</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34728,7 +34734,7 @@
         <v>1058</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2747</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34749,7 +34755,7 @@
         <v>611</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34770,7 +34776,7 @@
         <v>1059</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34791,7 +34797,7 @@
         <v>1060</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34812,7 +34818,7 @@
         <v>1061</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34833,7 +34839,7 @@
         <v>1063</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34854,7 +34860,7 @@
         <v>1064</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34875,7 +34881,7 @@
         <v>1065</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34896,7 +34902,7 @@
         <v>1066</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34917,7 +34923,7 @@
         <v>1067</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34938,7 +34944,7 @@
         <v>1068</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34959,7 +34965,7 @@
         <v>610</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -34980,7 +34986,7 @@
         <v>1069</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35001,7 +35007,7 @@
         <v>1070</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>2748</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35022,7 +35028,7 @@
         <v>1071</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>2748</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35043,7 +35049,7 @@
         <v>1072</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>2749</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35064,7 +35070,7 @@
         <v>1073</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>2748</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35085,7 +35091,7 @@
         <v>1074</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>2749</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35106,7 +35112,7 @@
         <v>1075</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>2748</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35127,7 +35133,7 @@
         <v>1076</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>2749</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35148,7 +35154,7 @@
         <v>1077</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35169,7 +35175,7 @@
         <v>1078</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35190,7 +35196,7 @@
         <v>1079</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35211,7 +35217,7 @@
         <v>1080</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35232,7 +35238,7 @@
         <v>1081</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35253,7 +35259,7 @@
         <v>1082</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35274,7 +35280,7 @@
         <v>1084</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35295,7 +35301,7 @@
         <v>1085</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35316,7 +35322,7 @@
         <v>1086</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35337,7 +35343,7 @@
         <v>1087</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>2735</v>
+        <v>2723</v>
       </c>
     </row>
   </sheetData>
@@ -35386,7 +35392,7 @@
         <v>2058</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35407,7 +35413,7 @@
         <v>1088</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>2751</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35428,7 +35434,7 @@
         <v>908</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35449,7 +35455,7 @@
         <v>1089</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35470,7 +35476,7 @@
         <v>1090</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35491,7 +35497,7 @@
         <v>1091</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35512,7 +35518,7 @@
         <v>1092</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35533,7 +35539,7 @@
         <v>1093</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35554,7 +35560,7 @@
         <v>1094</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35575,7 +35581,7 @@
         <v>1095</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35596,7 +35602,7 @@
         <v>1096</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35617,7 +35623,7 @@
         <v>1097</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -35638,7 +35644,7 @@
         <v>1098</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -46128,7 +46134,7 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="9" t="s">
-        <v>2752</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46152,7 +46158,7 @@
         <v>612</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2753</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46176,7 +46182,7 @@
         <v>1234</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>2754</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46200,7 +46206,7 @@
         <v>1234</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>2755</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46224,7 +46230,7 @@
         <v>1234</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2756</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46248,7 +46254,7 @@
         <v>1234</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>2798</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46272,7 +46278,7 @@
         <v>1234</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2757</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46296,7 +46302,7 @@
         <v>1234</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2758</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46320,7 +46326,7 @@
         <v>612</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2759</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46344,7 +46350,7 @@
         <v>612</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2760</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46368,7 +46374,7 @@
         <v>612</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2761</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46392,7 +46398,7 @@
         <v>612</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>2762</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46416,7 +46422,7 @@
         <v>612</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>2763</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46440,7 +46446,7 @@
         <v>896</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2764</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46464,7 +46470,7 @@
         <v>1234</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2765</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46488,7 +46494,7 @@
         <v>612</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2766</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46512,7 +46518,7 @@
         <v>612</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>2767</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46536,7 +46542,7 @@
         <v>1234</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2768</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46560,7 +46566,7 @@
         <v>1234</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2769</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46584,7 +46590,7 @@
         <v>612</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2770</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46608,7 +46614,7 @@
         <v>612</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2771</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46632,7 +46638,7 @@
         <v>612</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2772</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46656,7 +46662,7 @@
         <v>1234</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2773</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46680,7 +46686,7 @@
         <v>1234</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2799</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46704,7 +46710,7 @@
         <v>1234</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2800</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46728,7 +46734,7 @@
         <v>896</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2774</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46752,7 +46758,7 @@
         <v>1234</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>2801</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46776,7 +46782,7 @@
         <v>1234</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2802</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46800,7 +46806,7 @@
         <v>612</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2775</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46824,7 +46830,7 @@
         <v>612</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2776</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46848,7 +46854,7 @@
         <v>1234</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2777</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46872,7 +46878,7 @@
         <v>1234</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2778</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46896,7 +46902,7 @@
         <v>612</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2779</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46920,7 +46926,7 @@
         <v>1234</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>2780</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46944,7 +46950,7 @@
         <v>1234</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>2781</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46968,7 +46974,7 @@
         <v>1234</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>2782</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -46992,7 +46998,7 @@
         <v>612</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>2783</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47016,7 +47022,7 @@
         <v>1234</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2803</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47040,7 +47046,7 @@
         <v>612</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2784</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47064,7 +47070,7 @@
         <v>1234</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>2785</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47088,7 +47094,7 @@
         <v>612</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>2786</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47112,7 +47118,7 @@
         <v>612</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>2787</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47136,7 +47142,7 @@
         <v>1234</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2788</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47160,7 +47166,7 @@
         <v>896</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2789</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47184,7 +47190,7 @@
         <v>1234</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>2790</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47208,7 +47214,7 @@
         <v>612</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>2791</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47232,7 +47238,7 @@
         <v>1234</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>2804</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47256,7 +47262,7 @@
         <v>1234</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>2805</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47280,7 +47286,7 @@
         <v>612</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>2792</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47304,7 +47310,7 @@
         <v>896</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>2793</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47328,7 +47334,7 @@
         <v>612</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2794</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47352,7 +47358,7 @@
         <v>1234</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2795</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47376,7 +47382,7 @@
         <v>1234</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>2796</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47400,7 +47406,7 @@
         <v>1234</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>2806</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -47424,7 +47430,7 @@
         <v>1234</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>2797</v>
+        <v>2785</v>
       </c>
     </row>
   </sheetData>
@@ -47478,7 +47484,7 @@
       <c r="W1" s="100"/>
       <c r="X1" s="100"/>
       <c r="Y1" s="9" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
     </row>
   </sheetData>
@@ -47494,7 +47500,7 @@
   </sheetPr>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
@@ -47638,7 +47644,7 @@
         <v>1293</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z2" s="35" t="s">
         <v>1702</v>
@@ -47673,7 +47679,7 @@
         <v>1293</v>
       </c>
       <c r="Y3" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z3" s="35" t="s">
         <v>1702</v>
@@ -47708,7 +47714,7 @@
         <v>1293</v>
       </c>
       <c r="Y4" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z4" s="35" t="s">
         <v>1702</v>
@@ -47746,7 +47752,7 @@
         <v>1293</v>
       </c>
       <c r="Y5" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z5" s="35" t="s">
         <v>1702</v>
@@ -47784,7 +47790,7 @@
         <v>1293</v>
       </c>
       <c r="Y6" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z6" s="35" t="s">
         <v>1702</v>
@@ -47819,7 +47825,7 @@
         <v>1293</v>
       </c>
       <c r="Y7" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z7" s="35" t="s">
         <v>1702</v>
@@ -47854,7 +47860,7 @@
         <v>1293</v>
       </c>
       <c r="Y8" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z8" s="35" t="s">
         <v>1702</v>
@@ -47889,7 +47895,7 @@
         <v>1293</v>
       </c>
       <c r="Y9" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z9" s="35" t="s">
         <v>1702</v>
@@ -47924,7 +47930,7 @@
         <v>1293</v>
       </c>
       <c r="Y10" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z10" s="35" t="s">
         <v>1702</v>
@@ -47959,7 +47965,7 @@
         <v>1293</v>
       </c>
       <c r="Y11" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z11" s="35" t="s">
         <v>1702</v>
@@ -47994,7 +48000,7 @@
         <v>1293</v>
       </c>
       <c r="Y12" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z12" s="35" t="s">
         <v>1702</v>
@@ -48029,7 +48035,7 @@
         <v>1293</v>
       </c>
       <c r="Y13" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z13" s="35" t="s">
         <v>1702</v>
@@ -48064,7 +48070,7 @@
         <v>1293</v>
       </c>
       <c r="Y14" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z14" s="35" t="s">
         <v>1702</v>
@@ -48102,7 +48108,7 @@
         <v>1293</v>
       </c>
       <c r="Y15" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z15" s="35" t="s">
         <v>1702</v>
@@ -48140,7 +48146,7 @@
         <v>1293</v>
       </c>
       <c r="Y16" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z16" s="35" t="s">
         <v>1702</v>
@@ -48175,7 +48181,7 @@
         <v>1293</v>
       </c>
       <c r="Y17" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z17" s="35" t="s">
         <v>1702</v>
@@ -48213,7 +48219,7 @@
         <v>1293</v>
       </c>
       <c r="Y18" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z18" s="35" t="s">
         <v>1702</v>
@@ -48248,7 +48254,7 @@
         <v>1293</v>
       </c>
       <c r="Y19" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z19" s="35" t="s">
         <v>1702</v>
@@ -48283,7 +48289,7 @@
         <v>1293</v>
       </c>
       <c r="Y20" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z20" s="35" t="s">
         <v>1702</v>
@@ -48321,7 +48327,7 @@
         <v>1296</v>
       </c>
       <c r="Y21" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z21" s="35" t="s">
         <v>1702</v>
@@ -48359,7 +48365,7 @@
         <v>1296</v>
       </c>
       <c r="Y22" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z22" s="35" t="s">
         <v>1702</v>
@@ -48397,7 +48403,7 @@
         <v>1296</v>
       </c>
       <c r="Y23" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z23" s="35" t="s">
         <v>1702</v>
@@ -48435,7 +48441,7 @@
         <v>1296</v>
       </c>
       <c r="Y24" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z24" s="35" t="s">
         <v>1702</v>
@@ -48473,7 +48479,7 @@
         <v>1296</v>
       </c>
       <c r="Y25" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z25" s="35" t="s">
         <v>1702</v>
@@ -48511,7 +48517,7 @@
         <v>374</v>
       </c>
       <c r="Y26" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z26" s="35" t="s">
         <v>1702</v>
@@ -48549,7 +48555,7 @@
         <v>374</v>
       </c>
       <c r="Y27" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z27" s="35" t="s">
         <v>1702</v>
@@ -48587,7 +48593,7 @@
         <v>374</v>
       </c>
       <c r="Y28" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z28" s="35" t="s">
         <v>1702</v>
@@ -48625,7 +48631,7 @@
         <v>374</v>
       </c>
       <c r="Y29" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z29" s="35" t="s">
         <v>1702</v>
@@ -48663,7 +48669,7 @@
         <v>374</v>
       </c>
       <c r="Y30" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z30" s="35" t="s">
         <v>1702</v>
@@ -48701,7 +48707,7 @@
         <v>374</v>
       </c>
       <c r="Y31" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z31" s="35" t="s">
         <v>1702</v>
@@ -48739,7 +48745,7 @@
         <v>374</v>
       </c>
       <c r="Y32" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z32" s="35" t="s">
         <v>1702</v>
@@ -48777,7 +48783,7 @@
         <v>374</v>
       </c>
       <c r="Y33" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z33" s="35" t="s">
         <v>1702</v>
@@ -48815,7 +48821,7 @@
         <v>374</v>
       </c>
       <c r="Y34" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z34" s="35" t="s">
         <v>1702</v>
@@ -48853,7 +48859,7 @@
         <v>374</v>
       </c>
       <c r="Y35" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z35" s="35" t="s">
         <v>1702</v>
@@ -48891,7 +48897,7 @@
         <v>374</v>
       </c>
       <c r="Y36" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z36" s="35" t="s">
         <v>1702</v>
@@ -48929,7 +48935,7 @@
         <v>374</v>
       </c>
       <c r="Y37" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z37" s="35" t="s">
         <v>1702</v>
@@ -48970,7 +48976,7 @@
         <v>524</v>
       </c>
       <c r="Y38" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z38" s="35" t="s">
         <v>1702</v>
@@ -49011,7 +49017,7 @@
         <v>524</v>
       </c>
       <c r="Y39" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z39" s="35" t="s">
         <v>1702</v>
@@ -49052,7 +49058,7 @@
         <v>524</v>
       </c>
       <c r="Y40" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z40" s="35" t="s">
         <v>1702</v>
@@ -49093,7 +49099,7 @@
         <v>524</v>
       </c>
       <c r="Y41" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z41" s="35" t="s">
         <v>1702</v>
@@ -49134,7 +49140,7 @@
         <v>524</v>
       </c>
       <c r="Y42" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z42" s="35" t="s">
         <v>1702</v>
@@ -49175,7 +49181,7 @@
         <v>524</v>
       </c>
       <c r="Y43" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z43" s="35" t="s">
         <v>1702</v>
@@ -49216,7 +49222,7 @@
         <v>524</v>
       </c>
       <c r="Y44" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z44" s="35" t="s">
         <v>1702</v>
@@ -49254,7 +49260,7 @@
         <v>510</v>
       </c>
       <c r="Y45" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z45" s="35" t="s">
         <v>1702</v>
@@ -49292,7 +49298,7 @@
         <v>510</v>
       </c>
       <c r="Y46" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z46" s="35" t="s">
         <v>1702</v>
@@ -49333,7 +49339,7 @@
         <v>510</v>
       </c>
       <c r="Y47" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z47" s="35" t="s">
         <v>1702</v>
@@ -49374,7 +49380,7 @@
         <v>510</v>
       </c>
       <c r="Y48" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z48" s="35" t="s">
         <v>1702</v>
@@ -49415,7 +49421,7 @@
         <v>524</v>
       </c>
       <c r="Y49" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z49" s="35" t="s">
         <v>1702</v>
@@ -49456,7 +49462,7 @@
         <v>524</v>
       </c>
       <c r="Y50" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z50" s="35" t="s">
         <v>1702</v>
@@ -49497,7 +49503,7 @@
         <v>524</v>
       </c>
       <c r="Y51" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z51" s="35" t="s">
         <v>1702</v>
@@ -49538,7 +49544,7 @@
         <v>524</v>
       </c>
       <c r="Y52" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z52" s="35" t="s">
         <v>1702</v>
@@ -49582,7 +49588,7 @@
         <v>524</v>
       </c>
       <c r="Y53" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z53" s="35" t="s">
         <v>1702</v>
@@ -49626,7 +49632,7 @@
         <v>524</v>
       </c>
       <c r="Y54" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z54" s="35" t="s">
         <v>1702</v>
@@ -49670,7 +49676,7 @@
         <v>524</v>
       </c>
       <c r="Y55" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z55" s="35" t="s">
         <v>1702</v>
@@ -49714,7 +49720,7 @@
         <v>524</v>
       </c>
       <c r="Y56" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z56" s="35" t="s">
         <v>1702</v>
@@ -49758,7 +49764,7 @@
         <v>524</v>
       </c>
       <c r="Y57" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z57" s="35" t="s">
         <v>1702</v>
@@ -49796,7 +49802,7 @@
         <v>510</v>
       </c>
       <c r="Y58" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z58" s="35" t="s">
         <v>1702</v>
@@ -49834,7 +49840,7 @@
         <v>510</v>
       </c>
       <c r="Y59" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z59" s="35" t="s">
         <v>1702</v>
@@ -49875,7 +49881,7 @@
         <v>524</v>
       </c>
       <c r="Y60" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z60" s="35" t="s">
         <v>1702</v>
@@ -49916,7 +49922,7 @@
         <v>524</v>
       </c>
       <c r="Y61" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z61" s="35" t="s">
         <v>1702</v>
@@ -49957,7 +49963,7 @@
         <v>524</v>
       </c>
       <c r="Y62" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z62" s="35" t="s">
         <v>1702</v>
@@ -49998,7 +50004,7 @@
         <v>524</v>
       </c>
       <c r="Y63" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z63" s="35" t="s">
         <v>1702</v>
@@ -50036,7 +50042,7 @@
         <v>524</v>
       </c>
       <c r="Y64" s="102" t="s">
-        <v>2808</v>
+        <v>2796</v>
       </c>
       <c r="Z64" s="35" t="s">
         <v>1702</v>
@@ -50074,7 +50080,7 @@
         <v>269</v>
       </c>
       <c r="Y65" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z65" s="35" t="s">
         <v>1702</v>
@@ -50112,7 +50118,7 @@
         <v>269</v>
       </c>
       <c r="Y66" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z66" s="35" t="s">
         <v>1702</v>
@@ -50150,7 +50156,7 @@
         <v>269</v>
       </c>
       <c r="Y67" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z67" s="35" t="s">
         <v>1702</v>
@@ -50188,7 +50194,7 @@
         <v>269</v>
       </c>
       <c r="Y68" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z68" s="35" t="s">
         <v>1702</v>
@@ -50226,7 +50232,7 @@
         <v>269</v>
       </c>
       <c r="Y69" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z69" s="35" t="s">
         <v>1702</v>
@@ -50264,7 +50270,7 @@
         <v>269</v>
       </c>
       <c r="Y70" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z70" s="35" t="s">
         <v>1702</v>
@@ -50302,7 +50308,7 @@
         <v>269</v>
       </c>
       <c r="Y71" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z71" s="35" t="s">
         <v>1702</v>
@@ -50340,7 +50346,7 @@
         <v>269</v>
       </c>
       <c r="Y72" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z72" s="35" t="s">
         <v>1702</v>
@@ -50378,7 +50384,7 @@
         <v>269</v>
       </c>
       <c r="Y73" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z73" s="35" t="s">
         <v>1702</v>
@@ -50416,7 +50422,7 @@
         <v>269</v>
       </c>
       <c r="Y74" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z74" s="35" t="s">
         <v>1702</v>
@@ -50454,7 +50460,7 @@
         <v>269</v>
       </c>
       <c r="Y75" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z75" s="35" t="s">
         <v>1702</v>
@@ -50492,7 +50498,7 @@
         <v>269</v>
       </c>
       <c r="Y76" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z76" s="35" t="s">
         <v>1702</v>
@@ -50530,7 +50536,7 @@
         <v>269</v>
       </c>
       <c r="Y77" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z77" s="35" t="s">
         <v>1702</v>
@@ -50568,7 +50574,7 @@
         <v>269</v>
       </c>
       <c r="Y78" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z78" s="35" t="s">
         <v>1702</v>
@@ -50606,7 +50612,7 @@
         <v>269</v>
       </c>
       <c r="Y79" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z79" s="35" t="s">
         <v>1702</v>
@@ -50644,7 +50650,7 @@
         <v>269</v>
       </c>
       <c r="Y80" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z80" s="35" t="s">
         <v>1702</v>
@@ -50682,7 +50688,7 @@
         <v>269</v>
       </c>
       <c r="Y81" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z81" s="35" t="s">
         <v>1702</v>
@@ -50720,7 +50726,7 @@
         <v>269</v>
       </c>
       <c r="Y82" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z82" s="35" t="s">
         <v>1702</v>
@@ -50758,7 +50764,7 @@
         <v>269</v>
       </c>
       <c r="Y83" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z83" s="35" t="s">
         <v>1702</v>
@@ -50796,7 +50802,7 @@
         <v>269</v>
       </c>
       <c r="Y84" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z84" s="35" t="s">
         <v>1702</v>
@@ -50834,7 +50840,7 @@
         <v>269</v>
       </c>
       <c r="Y85" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z85" s="35" t="s">
         <v>1702</v>
@@ -50872,7 +50878,7 @@
         <v>269</v>
       </c>
       <c r="Y86" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z86" s="35" t="s">
         <v>1702</v>
@@ -50910,7 +50916,7 @@
         <v>269</v>
       </c>
       <c r="Y87" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z87" s="35" t="s">
         <v>1702</v>
@@ -50948,7 +50954,7 @@
         <v>269</v>
       </c>
       <c r="Y88" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z88" s="35" t="s">
         <v>1702</v>
@@ -50986,7 +50992,7 @@
         <v>269</v>
       </c>
       <c r="Y89" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z89" s="35" t="s">
         <v>1702</v>
@@ -51024,7 +51030,7 @@
         <v>269</v>
       </c>
       <c r="Y90" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z90" s="35" t="s">
         <v>1702</v>
@@ -51062,7 +51068,7 @@
         <v>269</v>
       </c>
       <c r="Y91" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z91" s="35" t="s">
         <v>1702</v>
@@ -51100,7 +51106,7 @@
         <v>269</v>
       </c>
       <c r="Y92" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z92" s="35" t="s">
         <v>1702</v>
@@ -51138,7 +51144,7 @@
         <v>269</v>
       </c>
       <c r="Y93" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z93" s="35" t="s">
         <v>1702</v>
@@ -51176,7 +51182,7 @@
         <v>269</v>
       </c>
       <c r="Y94" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z94" s="35" t="s">
         <v>1702</v>
@@ -51214,7 +51220,7 @@
         <v>269</v>
       </c>
       <c r="Y95" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z95" s="35" t="s">
         <v>1702</v>
@@ -51252,7 +51258,7 @@
         <v>269</v>
       </c>
       <c r="Y96" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z96" s="35" t="s">
         <v>1702</v>
@@ -51290,7 +51296,7 @@
         <v>269</v>
       </c>
       <c r="Y97" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z97" s="35" t="s">
         <v>1702</v>
@@ -51328,7 +51334,7 @@
         <v>269</v>
       </c>
       <c r="Y98" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z98" s="35" t="s">
         <v>1702</v>
@@ -51366,7 +51372,7 @@
         <v>269</v>
       </c>
       <c r="Y99" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z99" s="35" t="s">
         <v>1702</v>
@@ -51404,7 +51410,7 @@
         <v>269</v>
       </c>
       <c r="Y100" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z100" s="35" t="s">
         <v>1702</v>
@@ -51442,7 +51448,7 @@
         <v>269</v>
       </c>
       <c r="Y101" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z101" s="35" t="s">
         <v>1702</v>
@@ -51480,7 +51486,7 @@
         <v>269</v>
       </c>
       <c r="Y102" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z102" s="35" t="s">
         <v>1702</v>
@@ -51518,7 +51524,7 @@
         <v>269</v>
       </c>
       <c r="Y103" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z103" s="35" t="s">
         <v>1702</v>
@@ -51556,7 +51562,7 @@
         <v>269</v>
       </c>
       <c r="Y104" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z104" s="35" t="s">
         <v>1702</v>
@@ -51594,7 +51600,7 @@
         <v>269</v>
       </c>
       <c r="Y105" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z105" s="35" t="s">
         <v>1702</v>
@@ -51632,7 +51638,7 @@
         <v>269</v>
       </c>
       <c r="Y106" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z106" s="35" t="s">
         <v>1702</v>
@@ -51670,7 +51676,7 @@
         <v>269</v>
       </c>
       <c r="Y107" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z107" s="35" t="s">
         <v>1702</v>
@@ -51708,7 +51714,7 @@
         <v>269</v>
       </c>
       <c r="Y108" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z108" s="35" t="s">
         <v>1702</v>
@@ -51746,7 +51752,7 @@
         <v>269</v>
       </c>
       <c r="Y109" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z109" s="35" t="s">
         <v>1702</v>
@@ -51784,7 +51790,7 @@
         <v>269</v>
       </c>
       <c r="Y110" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z110" s="35" t="s">
         <v>1702</v>
@@ -51822,7 +51828,7 @@
         <v>269</v>
       </c>
       <c r="Y111" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z111" s="35" t="s">
         <v>1702</v>
@@ -51860,7 +51866,7 @@
         <v>269</v>
       </c>
       <c r="Y112" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z112" s="35" t="s">
         <v>1702</v>
@@ -51898,7 +51904,7 @@
         <v>269</v>
       </c>
       <c r="Y113" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z113" s="35" t="s">
         <v>1702</v>
@@ -51936,7 +51942,7 @@
         <v>269</v>
       </c>
       <c r="Y114" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z114" s="35" t="s">
         <v>1702</v>
@@ -51974,7 +51980,7 @@
         <v>269</v>
       </c>
       <c r="Y115" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z115" s="35" t="s">
         <v>1702</v>
@@ -52012,7 +52018,7 @@
         <v>269</v>
       </c>
       <c r="Y116" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z116" s="35" t="s">
         <v>1702</v>
@@ -52050,7 +52056,7 @@
         <v>269</v>
       </c>
       <c r="Y117" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z117" s="35" t="s">
         <v>1702</v>
@@ -52088,7 +52094,7 @@
         <v>269</v>
       </c>
       <c r="Y118" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z118" s="35" t="s">
         <v>1702</v>
@@ -52126,7 +52132,7 @@
         <v>269</v>
       </c>
       <c r="Y119" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z119" s="35" t="s">
         <v>1702</v>
@@ -52164,7 +52170,7 @@
         <v>269</v>
       </c>
       <c r="Y120" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z120" s="35" t="s">
         <v>1702</v>
@@ -52202,7 +52208,7 @@
         <v>269</v>
       </c>
       <c r="Y121" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z121" s="35" t="s">
         <v>1702</v>
@@ -52240,7 +52246,7 @@
         <v>269</v>
       </c>
       <c r="Y122" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z122" s="35" t="s">
         <v>1702</v>
@@ -52278,7 +52284,7 @@
         <v>269</v>
       </c>
       <c r="Y123" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -52322,7 +52328,7 @@
         <v>269</v>
       </c>
       <c r="Y124" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z124" s="35" t="s">
         <v>1702</v>
@@ -52369,7 +52375,7 @@
         <v>269</v>
       </c>
       <c r="Y125" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z125" s="35" t="s">
         <v>1702</v>
@@ -52416,7 +52422,7 @@
         <v>269</v>
       </c>
       <c r="Y126" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z126" s="35" t="s">
         <v>1702</v>
@@ -52463,7 +52469,7 @@
         <v>269</v>
       </c>
       <c r="Y127" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z127" s="35" t="s">
         <v>1702</v>
@@ -52501,7 +52507,7 @@
         <v>620</v>
       </c>
       <c r="Y128" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z128" s="35" t="s">
         <v>1702</v>
@@ -52542,7 +52548,7 @@
         <v>2528</v>
       </c>
       <c r="Y129" s="102" t="s">
-        <v>2807</v>
+        <v>2795</v>
       </c>
       <c r="Z129" s="35" t="s">
         <v>1702</v>
@@ -52586,7 +52592,7 @@
         <v>524</v>
       </c>
       <c r="Y130" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z130" s="35" t="s">
         <v>1702</v>
@@ -52630,7 +52636,7 @@
         <v>524</v>
       </c>
       <c r="Y131" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z131" s="35" t="s">
         <v>1702</v>
@@ -52674,7 +52680,7 @@
         <v>374</v>
       </c>
       <c r="Y132" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z132" s="35" t="s">
         <v>1702</v>
@@ -52721,7 +52727,7 @@
         <v>374</v>
       </c>
       <c r="Y133" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z133" s="35" t="s">
         <v>1702</v>
@@ -52768,7 +52774,7 @@
         <v>374</v>
       </c>
       <c r="Y134" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z134" s="35" t="s">
         <v>1702</v>
@@ -52821,7 +52827,7 @@
         <v>374</v>
       </c>
       <c r="Y135" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z135" s="35" t="s">
         <v>1702</v>
@@ -52856,7 +52862,7 @@
         <v>282</v>
       </c>
       <c r="Y136" s="35" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="Z136" s="35" t="s">
         <v>1702</v>
@@ -52888,7 +52894,7 @@
         <v>387</v>
       </c>
       <c r="Y137" s="35" t="s">
-        <v>2810</v>
+        <v>2798</v>
       </c>
       <c r="Z137" s="35" t="s">
         <v>1702</v>
@@ -52979,7 +52985,7 @@
         <v>2192</v>
       </c>
       <c r="Y139" s="35" t="s">
-        <v>2811</v>
+        <v>2799</v>
       </c>
       <c r="Z139" s="35" t="s">
         <v>1702</v>
@@ -53012,7 +53018,7 @@
       </c>
       <c r="T140" s="43"/>
       <c r="Y140" s="35" t="s">
-        <v>2812</v>
+        <v>2800</v>
       </c>
       <c r="Z140" s="35" t="s">
         <v>1702</v>
@@ -53039,7 +53045,7 @@
       </c>
       <c r="T141" s="43"/>
       <c r="Y141" s="35" t="s">
-        <v>2813</v>
+        <v>2801</v>
       </c>
       <c r="Z141" s="35" t="s">
         <v>1702</v>
@@ -53239,7 +53245,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53274,7 +53280,7 @@
         <v>304</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53309,7 +53315,7 @@
         <v>307</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53416,7 +53422,7 @@
         <v>311</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53451,7 +53457,7 @@
         <v>311</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53486,7 +53492,7 @@
         <v>307</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53521,7 +53527,7 @@
         <v>311</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
     </row>
   </sheetData>
@@ -56506,8 +56512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA5C64F-5FC7-47F1-9485-73E8F12C9FBE}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56689,8 +56695,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56793,7 +56799,7 @@
         <v>386</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>2823</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -57243,7 +57249,7 @@
         <v>1232</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>2671</v>
+        <v>2812</v>
       </c>
     </row>
   </sheetData>
@@ -57698,8 +57704,8 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57959,7 +57965,7 @@
         <v>396</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>2688</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -57980,7 +57986,7 @@
         <v>484</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>2689</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58211,7 +58217,7 @@
         <v>400</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>2690</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58232,7 +58238,7 @@
         <v>485</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>2691</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58253,7 +58259,7 @@
         <v>402</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>2692</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58274,7 +58280,7 @@
         <v>405</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>2693</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58295,7 +58301,7 @@
         <v>409</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>2694</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58610,7 +58616,7 @@
         <v>486</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>2695</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58631,7 +58637,7 @@
         <v>465</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58652,7 +58658,7 @@
         <v>466</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58673,7 +58679,7 @@
         <v>467</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58694,7 +58700,7 @@
         <v>468</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58713,7 +58719,7 @@
         <v>2283</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58734,7 +58740,7 @@
         <v>469</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58755,7 +58761,7 @@
         <v>482</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58776,7 +58782,7 @@
         <v>974</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58797,7 +58803,7 @@
         <v>415</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -58818,7 +58824,7 @@
         <v>2629</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>2697</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59154,7 +59160,7 @@
         <v>439</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>2698</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59175,7 +59181,7 @@
         <v>440</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>2699</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59196,7 +59202,7 @@
         <v>441</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>2700</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59217,7 +59223,7 @@
         <v>443</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>2701</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59259,7 +59265,7 @@
         <v>445</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>2702</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59280,7 +59286,7 @@
         <v>447</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>2703</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -59301,7 +59307,7 @@
         <v>449</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>2703</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17701F54-20C7-480D-97BD-70DE47658141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CE260B-FFCA-4B90-B2C1-A5CBBD01FAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="1" r:id="rId1"/>
@@ -11544,7 +11544,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12335,7 +12335,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12493,7 +12493,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13160,7 +13160,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13489,7 +13489,9 @@
   </sheetPr>
   <dimension ref="A1:Y246"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27887,7 +27889,7 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView topLeftCell="A110" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30799,7 +30801,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31793,7 +31795,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32092,7 +32094,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33466,7 +33468,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33519,8 +33521,8 @@
   </sheetPr>
   <dimension ref="A1:J346"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48147,7 +48149,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48265,7 +48267,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48779,7 +48781,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51734,14 +51736,14 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31" style="17" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="17" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" style="17" customWidth="1"/>
@@ -52345,7 +52347,7 @@
     </row>
     <row r="22" spans="1:10" s="58" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>1126</v>
+        <v>2905</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>778</v>
@@ -52477,7 +52479,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52854,8 +52856,8 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="A138" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A216C8-C203-48DB-8DA7-4DE5C91EA93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8AEBF7-A9EE-4442-B676-C31639B9012B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13233" uniqueCount="3144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13231" uniqueCount="3143">
   <si>
     <t>WB_Specification</t>
   </si>
@@ -9028,9 +9028,6 @@
     <t>Process Accrual penalty</t>
   </si>
   <si>
-    <t>EveryEndDay</t>
-  </si>
-  <si>
     <t>Account.Borrower</t>
   </si>
   <si>
@@ -9307,9 +9304,6 @@
     <t>Deal.Face.Pawnshop.Template1.2024-11-08.Accrual</t>
   </si>
   <si>
-    <t>AbcBasic=Deal.Basic;AbcTemplate=Deal.Template;AbcSectoral=Deal.Pawnshop; PawnId=?;GoldContent=?; ProductCondition=?;VIN=;IMEI=;CarDoc=;CarNumber=;Producer=; EstimatedValue=?(Unit.KZT); PartMainDebt=?(Unit.KZT); WeightLogicalLimit=0.5 - 100.0(Unit.Gr); CountLimit=1.0 - 10.0(Unit.Piece); AllowedPartialRansomIfCountActivePawn=2.0 - 10.0(Unit.Pawn);</t>
-  </si>
-  <si>
     <t>AbcBasic=Deal.Basic;AbcTemplate=Deal.Template;AbcSectoral=Deal.Pawnshop; DurationDealLimit=1.0 - 365.0(Unit.CalendarDay); DurationWarrantySpan=30.0(Unit.CalendarDay); MainDebtLimit=45.001 - 812.56(Unit.MinRate);</t>
   </si>
   <si>
@@ -9476,6 +9470,9 @@
   </si>
   <si>
     <t>Process SeeDebtBorrower4</t>
+  </si>
+  <si>
+    <t>AbcBasic=Deal.Basic;AbcTemplate=Deal.Template;AbcSectoral=Deal.Pawnshop; PawnId=?;GoldContent=?; ProductCondition=?;VINCode=;IMEICode=;DateMFG=;CarDoc=;CarNumber=;Color=;Producer=; EstimatedValue=?(Unit.KZT); PartMainDebt=?(Unit.KZT); WeightLogicalLimit=0.5 - 100.0(Unit.Gr);WeightGross=?(Unit.Gr);WeightNetto=?(Unit.Gr);WeightCarat=;CountLimit=1.0 - 10.0(Unit.Piece); AllowedPartialRansomIfCountActivePawn=2.0 - 10.0(Unit.Pawn);</t>
   </si>
 </sst>
 </file>
@@ -13667,12 +13664,12 @@
         <v>754</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B32" s="68" t="s">
         <v>1542</v>
@@ -13682,21 +13679,21 @@
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F32" s="68" t="s">
         <v>3002</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>3003</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>754</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="68" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B33" s="68" t="s">
         <v>1542</v>
@@ -13706,16 +13703,16 @@
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="68" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F33" s="68" t="s">
         <v>3004</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>3005</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>754</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
   </sheetData>
@@ -14061,8 +14058,8 @@
   </sheetPr>
   <dimension ref="A1:Y260"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14623,7 +14620,7 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>60</v>
@@ -14641,7 +14638,7 @@
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="89" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="J11" s="89" t="s">
         <v>2977</v>
@@ -14670,7 +14667,7 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="89" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>60</v>
@@ -14688,7 +14685,7 @@
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="89" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="J12" s="89" t="s">
         <v>2978</v>
@@ -14721,7 +14718,7 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>60</v>
@@ -14739,7 +14736,7 @@
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="89" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="J13" s="89" t="s">
         <v>2979</v>
@@ -14782,7 +14779,7 @@
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="89" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="J14" s="89" t="s">
         <v>2980</v>
@@ -15103,9 +15100,7 @@
       <c r="G21" s="70" t="s">
         <v>2957</v>
       </c>
-      <c r="H21" s="70" t="s">
-        <v>2994</v>
-      </c>
+      <c r="H21" s="70"/>
       <c r="I21" s="89" t="s">
         <v>2992</v>
       </c>
@@ -15154,9 +15149,7 @@
       <c r="G22" s="70" t="s">
         <v>2957</v>
       </c>
-      <c r="H22" s="70" t="s">
-        <v>2994</v>
-      </c>
+      <c r="H22" s="70"/>
       <c r="I22" s="89" t="s">
         <v>2993</v>
       </c>
@@ -29374,7 +29367,7 @@
         <v>2170</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -29397,7 +29390,7 @@
         <v>2174</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -29418,7 +29411,7 @@
         <v>2175</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -29437,7 +29430,7 @@
         <v>2177</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -29456,7 +29449,7 @@
         <v>2178</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -30088,7 +30081,7 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>2228</v>
@@ -30096,7 +30089,7 @@
       <c r="C47" s="49"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>2229</v>
@@ -30244,20 +30237,20 @@
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>2228</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29" t="s">
+        <v>3048</v>
+      </c>
+      <c r="F55" s="29" t="s">
         <v>3049</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>3050</v>
       </c>
       <c r="G55" s="50" t="s">
         <v>1255</v>
@@ -30265,20 +30258,20 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>2228</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>3056</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>3057</v>
       </c>
       <c r="G56" s="50" t="s">
         <v>1255</v>
@@ -30286,20 +30279,20 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>2228</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="G57" s="50" t="s">
         <v>2233</v>
@@ -31128,7 +31121,7 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A101" s="29" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>2302</v>
@@ -31138,10 +31131,10 @@
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="G101" s="50" t="s">
         <v>1255</v>
@@ -33593,8 +33586,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33888,7 +33881,7 @@
         <v>2541</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -33915,7 +33908,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>36</v>
@@ -33925,21 +33918,21 @@
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="69" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>36</v>
@@ -33949,16 +33942,16 @@
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H16" s="69" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34156,7 +34149,7 @@
         <v>836</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34200,7 +34193,7 @@
         <v>836</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34222,7 +34215,7 @@
         <v>2541</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34244,7 +34237,7 @@
         <v>836</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34266,7 +34259,7 @@
         <v>836</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34620,7 +34613,7 @@
         <v>836</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34642,7 +34635,7 @@
         <v>2541</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34683,7 +34676,7 @@
         <v>2597</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="H49" s="69" t="s">
         <v>2938</v>
@@ -34730,7 +34723,7 @@
         <v>836</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34774,7 +34767,7 @@
         <v>2541</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34818,7 +34811,7 @@
         <v>836</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34840,7 +34833,7 @@
         <v>836</v>
       </c>
       <c r="H56" s="69" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34862,7 +34855,7 @@
         <v>836</v>
       </c>
       <c r="H57" s="69" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -34935,26 +34928,26 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A61" s="69" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B61" s="69" t="s">
         <v>2840</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D61" s="69"/>
       <c r="E61" s="69" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F61" s="69" t="s">
         <v>3073</v>
-      </c>
-      <c r="F61" s="69" t="s">
-        <v>3074</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -35034,7 +35027,7 @@
         <v>2973</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>2957</v>
@@ -35047,7 +35040,7 @@
         <v>2971</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="H65" s="69" t="s">
         <v>2972</v>
@@ -35055,7 +35048,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A66" s="69" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B66" s="69" t="s">
         <v>1579</v>
@@ -35065,21 +35058,21 @@
       </c>
       <c r="D66" s="69"/>
       <c r="E66" s="69" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F66" s="69" t="s">
         <v>2999</v>
-      </c>
-      <c r="F66" s="69" t="s">
-        <v>3000</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H66" s="69" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B67" s="69" t="s">
         <v>748</v>
@@ -35089,45 +35082,45 @@
       </c>
       <c r="D67" s="69"/>
       <c r="E67" s="69" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F67" s="69" t="s">
         <v>3007</v>
-      </c>
-      <c r="F67" s="69" t="s">
-        <v>3008</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B68" s="69" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D68" s="69"/>
       <c r="E68" s="69" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A69" s="69" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B69" s="69" t="s">
         <v>36</v>
@@ -35135,69 +35128,69 @@
       <c r="C69" s="49"/>
       <c r="D69" s="69"/>
       <c r="E69" s="69" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B70" s="69" t="s">
         <v>754</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D70" s="69"/>
       <c r="E70" s="69" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A71" s="69" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B71" s="69" t="s">
         <v>754</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D71" s="69"/>
       <c r="E71" s="69" t="s">
+        <v>3069</v>
+      </c>
+      <c r="F71" s="69" t="s">
         <v>3070</v>
-      </c>
-      <c r="F71" s="69" t="s">
-        <v>3071</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>836</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="69" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="B72" s="69" t="s">
         <v>2548</v>
@@ -35207,93 +35200,93 @@
       </c>
       <c r="D72" s="69"/>
       <c r="E72" s="69" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A73" s="69" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="B73" s="69" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C73" s="70" t="s">
         <v>2750</v>
       </c>
       <c r="D73" s="69"/>
       <c r="E73" s="69" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H73" s="69" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A74" s="69" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="B74" s="69" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C74" s="70" t="s">
         <v>2750</v>
       </c>
       <c r="D74" s="69"/>
       <c r="E74" s="69" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H74" s="69" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A75" s="69" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="B75" s="69" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C75" s="70" t="s">
         <v>2750</v>
       </c>
       <c r="D75" s="69"/>
       <c r="E75" s="69" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="G75" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="B76" s="69" t="s">
         <v>36</v>
@@ -35303,21 +35296,21 @@
       </c>
       <c r="D76" s="69"/>
       <c r="E76" s="69" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>840</v>
       </c>
       <c r="H76" s="69" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="B77" s="69" t="s">
         <v>36</v>
@@ -35327,16 +35320,16 @@
       </c>
       <c r="D77" s="69"/>
       <c r="E77" s="69" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="H77" s="69" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
   </sheetData>
@@ -35474,7 +35467,7 @@
         <v>84</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35502,7 +35495,7 @@
         <v>84</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35530,7 +35523,7 @@
         <v>84</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35556,7 +35549,7 @@
         <v>84</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35584,7 +35577,7 @@
         <v>84</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35610,7 +35603,7 @@
         <v>84</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35636,7 +35629,7 @@
         <v>84</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35662,7 +35655,7 @@
         <v>84</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35688,7 +35681,7 @@
         <v>84</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35714,7 +35707,7 @@
         <v>84</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35742,7 +35735,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35770,7 +35763,7 @@
         <v>84</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35796,7 +35789,7 @@
         <v>84</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35822,7 +35815,7 @@
         <v>84</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35848,7 +35841,7 @@
         <v>84</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35874,7 +35867,7 @@
         <v>84</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35900,7 +35893,7 @@
         <v>84</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35926,7 +35919,7 @@
         <v>84</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35954,7 +35947,7 @@
         <v>109</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -35982,7 +35975,7 @@
         <v>84</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36008,7 +36001,7 @@
         <v>132</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36034,7 +36027,7 @@
         <v>84</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36060,7 +36053,7 @@
         <v>84</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36086,7 +36079,7 @@
         <v>84</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36112,7 +36105,7 @@
         <v>132</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36138,7 +36131,7 @@
         <v>84</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36164,7 +36157,7 @@
         <v>84</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36192,7 +36185,7 @@
         <v>109</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36220,7 +36213,7 @@
         <v>84</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36246,7 +36239,7 @@
         <v>84</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36272,7 +36265,7 @@
         <v>84</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36298,7 +36291,7 @@
         <v>84</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36324,7 +36317,7 @@
         <v>84</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36350,7 +36343,7 @@
         <v>84</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36378,7 +36371,7 @@
         <v>109</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36404,7 +36397,7 @@
         <v>84</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36432,7 +36425,7 @@
         <v>84</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36458,7 +36451,7 @@
         <v>84</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36484,7 +36477,7 @@
         <v>84</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36510,7 +36503,7 @@
         <v>84</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36538,7 +36531,7 @@
         <v>84</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36564,7 +36557,7 @@
         <v>84</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36590,7 +36583,7 @@
         <v>84</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36618,7 +36611,7 @@
         <v>109</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36646,7 +36639,7 @@
         <v>84</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36672,7 +36665,7 @@
         <v>84</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36698,7 +36691,7 @@
         <v>84</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36726,7 +36719,7 @@
         <v>109</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36754,7 +36747,7 @@
         <v>84</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36780,7 +36773,7 @@
         <v>84</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36806,7 +36799,7 @@
         <v>84</v>
       </c>
       <c r="J52" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36832,7 +36825,7 @@
         <v>84</v>
       </c>
       <c r="J53" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36860,7 +36853,7 @@
         <v>109</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36886,7 +36879,7 @@
         <v>84</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36914,7 +36907,7 @@
         <v>84</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36942,7 +36935,7 @@
         <v>84</v>
       </c>
       <c r="J57" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36968,7 +36961,7 @@
         <v>84</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -36994,7 +36987,7 @@
         <v>84</v>
       </c>
       <c r="J59" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37020,7 +37013,7 @@
         <v>84</v>
       </c>
       <c r="J60" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37046,7 +37039,7 @@
         <v>84</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37072,7 +37065,7 @@
         <v>84</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37098,7 +37091,7 @@
         <v>84</v>
       </c>
       <c r="J63" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37124,7 +37117,7 @@
         <v>84</v>
       </c>
       <c r="J64" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37152,7 +37145,7 @@
         <v>109</v>
       </c>
       <c r="J65" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37180,7 +37173,7 @@
         <v>84</v>
       </c>
       <c r="J66" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37206,7 +37199,7 @@
         <v>84</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37232,7 +37225,7 @@
         <v>84</v>
       </c>
       <c r="J68" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37258,7 +37251,7 @@
         <v>84</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37284,7 +37277,7 @@
         <v>84</v>
       </c>
       <c r="J70" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37310,7 +37303,7 @@
         <v>84</v>
       </c>
       <c r="J71" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37336,7 +37329,7 @@
         <v>84</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37362,7 +37355,7 @@
         <v>84</v>
       </c>
       <c r="J73" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37390,7 +37383,7 @@
         <v>109</v>
       </c>
       <c r="J74" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37418,7 +37411,7 @@
         <v>84</v>
       </c>
       <c r="J75" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37444,7 +37437,7 @@
         <v>84</v>
       </c>
       <c r="J76" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37470,7 +37463,7 @@
         <v>84</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37498,7 +37491,7 @@
         <v>109</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37526,7 +37519,7 @@
         <v>84</v>
       </c>
       <c r="J79" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37552,7 +37545,7 @@
         <v>84</v>
       </c>
       <c r="J80" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37580,7 +37573,7 @@
         <v>109</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37608,7 +37601,7 @@
         <v>109</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37636,7 +37629,7 @@
         <v>84</v>
       </c>
       <c r="J83" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37664,7 +37657,7 @@
         <v>84</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37692,7 +37685,7 @@
         <v>109</v>
       </c>
       <c r="J85" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37720,7 +37713,7 @@
         <v>109</v>
       </c>
       <c r="J86" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37746,7 +37739,7 @@
         <v>84</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37774,7 +37767,7 @@
         <v>109</v>
       </c>
       <c r="J88" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37802,7 +37795,7 @@
         <v>109</v>
       </c>
       <c r="J89" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37830,7 +37823,7 @@
         <v>84</v>
       </c>
       <c r="J90" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37856,7 +37849,7 @@
         <v>84</v>
       </c>
       <c r="J91" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37882,7 +37875,7 @@
         <v>84</v>
       </c>
       <c r="J92" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37910,7 +37903,7 @@
         <v>109</v>
       </c>
       <c r="J93" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37938,7 +37931,7 @@
         <v>109</v>
       </c>
       <c r="J94" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37966,7 +37959,7 @@
         <v>84</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -37992,7 +37985,7 @@
         <v>84</v>
       </c>
       <c r="J96" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38020,7 +38013,7 @@
         <v>109</v>
       </c>
       <c r="J97" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38048,7 +38041,7 @@
         <v>109</v>
       </c>
       <c r="J98" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38076,7 +38069,7 @@
         <v>84</v>
       </c>
       <c r="J99" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38102,7 +38095,7 @@
         <v>84</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38130,7 +38123,7 @@
         <v>109</v>
       </c>
       <c r="J101" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38156,7 +38149,7 @@
         <v>84</v>
       </c>
       <c r="J102" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38184,7 +38177,7 @@
         <v>109</v>
       </c>
       <c r="J103" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38212,7 +38205,7 @@
         <v>109</v>
       </c>
       <c r="J104" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38238,7 +38231,7 @@
         <v>84</v>
       </c>
       <c r="J105" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38266,7 +38259,7 @@
         <v>109</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38294,7 +38287,7 @@
         <v>109</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38322,7 +38315,7 @@
         <v>84</v>
       </c>
       <c r="J108" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38348,7 +38341,7 @@
         <v>84</v>
       </c>
       <c r="J109" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38376,7 +38369,7 @@
         <v>84</v>
       </c>
       <c r="J110" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38402,7 +38395,7 @@
         <v>84</v>
       </c>
       <c r="J111" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38428,7 +38421,7 @@
         <v>84</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38456,7 +38449,7 @@
         <v>84</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38482,7 +38475,7 @@
         <v>84</v>
       </c>
       <c r="J114" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38510,7 +38503,7 @@
         <v>109</v>
       </c>
       <c r="J115" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38536,7 +38529,7 @@
         <v>84</v>
       </c>
       <c r="J116" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38564,7 +38557,7 @@
         <v>109</v>
       </c>
       <c r="J117" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38592,7 +38585,7 @@
         <v>109</v>
       </c>
       <c r="J118" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38618,7 +38611,7 @@
         <v>84</v>
       </c>
       <c r="J119" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38646,7 +38639,7 @@
         <v>109</v>
       </c>
       <c r="J120" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38674,7 +38667,7 @@
         <v>109</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38700,7 +38693,7 @@
         <v>109</v>
       </c>
       <c r="J122" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38726,7 +38719,7 @@
         <v>109</v>
       </c>
       <c r="J123" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38752,7 +38745,7 @@
         <v>109</v>
       </c>
       <c r="J124" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38778,7 +38771,7 @@
         <v>109</v>
       </c>
       <c r="J125" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38804,7 +38797,7 @@
         <v>109</v>
       </c>
       <c r="J126" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38830,7 +38823,7 @@
         <v>109</v>
       </c>
       <c r="J127" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38856,7 +38849,7 @@
         <v>109</v>
       </c>
       <c r="J128" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38882,7 +38875,7 @@
         <v>109</v>
       </c>
       <c r="J129" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38910,7 +38903,7 @@
         <v>337</v>
       </c>
       <c r="J130" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38936,7 +38929,7 @@
         <v>109</v>
       </c>
       <c r="J131" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38962,7 +38955,7 @@
         <v>109</v>
       </c>
       <c r="J132" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -38988,7 +38981,7 @@
         <v>109</v>
       </c>
       <c r="J133" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39014,7 +39007,7 @@
         <v>109</v>
       </c>
       <c r="J134" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39040,7 +39033,7 @@
         <v>109</v>
       </c>
       <c r="J135" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39066,7 +39059,7 @@
         <v>109</v>
       </c>
       <c r="J136" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39092,7 +39085,7 @@
         <v>109</v>
       </c>
       <c r="J137" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39118,7 +39111,7 @@
         <v>109</v>
       </c>
       <c r="J138" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39144,7 +39137,7 @@
         <v>109</v>
       </c>
       <c r="J139" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39172,7 +39165,7 @@
         <v>337</v>
       </c>
       <c r="J140" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39198,7 +39191,7 @@
         <v>109</v>
       </c>
       <c r="J141" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39224,7 +39217,7 @@
         <v>109</v>
       </c>
       <c r="J142" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39250,7 +39243,7 @@
         <v>109</v>
       </c>
       <c r="J143" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39276,7 +39269,7 @@
         <v>109</v>
       </c>
       <c r="J144" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39304,7 +39297,7 @@
         <v>337</v>
       </c>
       <c r="J145" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39330,7 +39323,7 @@
         <v>109</v>
       </c>
       <c r="J146" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39356,7 +39349,7 @@
         <v>109</v>
       </c>
       <c r="J147" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39382,7 +39375,7 @@
         <v>109</v>
       </c>
       <c r="J148" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39408,7 +39401,7 @@
         <v>109</v>
       </c>
       <c r="J149" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39436,7 +39429,7 @@
         <v>109</v>
       </c>
       <c r="J150" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39462,7 +39455,7 @@
         <v>109</v>
       </c>
       <c r="J151" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39488,7 +39481,7 @@
         <v>109</v>
       </c>
       <c r="J152" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39514,7 +39507,7 @@
         <v>109</v>
       </c>
       <c r="J153" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39540,7 +39533,7 @@
         <v>109</v>
       </c>
       <c r="J154" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39566,7 +39559,7 @@
         <v>109</v>
       </c>
       <c r="J155" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39592,7 +39585,7 @@
         <v>109</v>
       </c>
       <c r="J156" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39618,7 +39611,7 @@
         <v>109</v>
       </c>
       <c r="J157" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39644,7 +39637,7 @@
         <v>109</v>
       </c>
       <c r="J158" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39672,7 +39665,7 @@
         <v>109</v>
       </c>
       <c r="J159" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39698,7 +39691,7 @@
         <v>109</v>
       </c>
       <c r="J160" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39724,7 +39717,7 @@
         <v>109</v>
       </c>
       <c r="J161" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39750,7 +39743,7 @@
         <v>109</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39776,7 +39769,7 @@
         <v>109</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39802,7 +39795,7 @@
         <v>109</v>
       </c>
       <c r="J164" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39828,7 +39821,7 @@
         <v>109</v>
       </c>
       <c r="J165" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39856,7 +39849,7 @@
         <v>109</v>
       </c>
       <c r="J166" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39884,7 +39877,7 @@
         <v>109</v>
       </c>
       <c r="J167" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39910,7 +39903,7 @@
         <v>109</v>
       </c>
       <c r="J168" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39936,7 +39929,7 @@
         <v>109</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39962,7 +39955,7 @@
         <v>109</v>
       </c>
       <c r="J170" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -39988,7 +39981,7 @@
         <v>109</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40014,7 +40007,7 @@
         <v>109</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40040,7 +40033,7 @@
         <v>109</v>
       </c>
       <c r="J173" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40068,7 +40061,7 @@
         <v>109</v>
       </c>
       <c r="J174" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40094,7 +40087,7 @@
         <v>109</v>
       </c>
       <c r="J175" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40120,7 +40113,7 @@
         <v>109</v>
       </c>
       <c r="J176" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40146,7 +40139,7 @@
         <v>109</v>
       </c>
       <c r="J177" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40172,7 +40165,7 @@
         <v>109</v>
       </c>
       <c r="J178" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40198,7 +40191,7 @@
         <v>109</v>
       </c>
       <c r="J179" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40224,7 +40217,7 @@
         <v>109</v>
       </c>
       <c r="J180" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40252,7 +40245,7 @@
         <v>109</v>
       </c>
       <c r="J181" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40278,7 +40271,7 @@
         <v>109</v>
       </c>
       <c r="J182" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40304,7 +40297,7 @@
         <v>109</v>
       </c>
       <c r="J183" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40330,7 +40323,7 @@
         <v>109</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40356,7 +40349,7 @@
         <v>109</v>
       </c>
       <c r="J185" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40384,7 +40377,7 @@
         <v>109</v>
       </c>
       <c r="J186" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40410,7 +40403,7 @@
         <v>109</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40436,7 +40429,7 @@
         <v>109</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40464,7 +40457,7 @@
         <v>109</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40490,7 +40483,7 @@
         <v>109</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40516,7 +40509,7 @@
         <v>109</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40542,7 +40535,7 @@
         <v>109</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40568,7 +40561,7 @@
         <v>109</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40596,7 +40589,7 @@
         <v>109</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40624,7 +40617,7 @@
         <v>109</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40650,7 +40643,7 @@
         <v>109</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40676,7 +40669,7 @@
         <v>109</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40702,7 +40695,7 @@
         <v>109</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40730,7 +40723,7 @@
         <v>84</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40756,7 +40749,7 @@
         <v>109</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40784,7 +40777,7 @@
         <v>109</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40810,7 +40803,7 @@
         <v>109</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40838,7 +40831,7 @@
         <v>109</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40864,7 +40857,7 @@
         <v>109</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40892,7 +40885,7 @@
         <v>109</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40918,7 +40911,7 @@
         <v>109</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40944,7 +40937,7 @@
         <v>109</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40972,7 +40965,7 @@
         <v>109</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -40998,7 +40991,7 @@
         <v>109</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41024,7 +41017,7 @@
         <v>109</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41050,7 +41043,7 @@
         <v>109</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41076,7 +41069,7 @@
         <v>109</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41102,7 +41095,7 @@
         <v>109</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41128,7 +41121,7 @@
         <v>109</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41154,7 +41147,7 @@
         <v>109</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41182,7 +41175,7 @@
         <v>337</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41208,7 +41201,7 @@
         <v>109</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41234,7 +41227,7 @@
         <v>109</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41262,7 +41255,7 @@
         <v>337</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41288,7 +41281,7 @@
         <v>337</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41316,7 +41309,7 @@
         <v>109</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41344,7 +41337,7 @@
         <v>109</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41370,7 +41363,7 @@
         <v>109</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41396,7 +41389,7 @@
         <v>84</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41422,7 +41415,7 @@
         <v>84</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41450,7 +41443,7 @@
         <v>109</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41476,7 +41469,7 @@
         <v>109</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41502,7 +41495,7 @@
         <v>109</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41528,7 +41521,7 @@
         <v>109</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41554,7 +41547,7 @@
         <v>109</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41580,7 +41573,7 @@
         <v>109</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41606,7 +41599,7 @@
         <v>109</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41634,7 +41627,7 @@
         <v>109</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41660,7 +41653,7 @@
         <v>109</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41686,7 +41679,7 @@
         <v>109</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41712,7 +41705,7 @@
         <v>109</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41738,7 +41731,7 @@
         <v>109</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41764,7 +41757,7 @@
         <v>109</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41790,7 +41783,7 @@
         <v>109</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41816,7 +41809,7 @@
         <v>109</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41842,7 +41835,7 @@
         <v>109</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41868,7 +41861,7 @@
         <v>109</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41896,7 +41889,7 @@
         <v>109</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41922,7 +41915,7 @@
         <v>109</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41948,7 +41941,7 @@
         <v>109</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -41974,7 +41967,7 @@
         <v>109</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42000,7 +41993,7 @@
         <v>109</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42028,7 +42021,7 @@
         <v>84</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42056,7 +42049,7 @@
         <v>84</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42082,7 +42075,7 @@
         <v>84</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42108,7 +42101,7 @@
         <v>84</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42134,7 +42127,7 @@
         <v>84</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42162,7 +42155,7 @@
         <v>84</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42188,7 +42181,7 @@
         <v>84</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42216,7 +42209,7 @@
         <v>84</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42242,7 +42235,7 @@
         <v>84</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42268,7 +42261,7 @@
         <v>84</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42294,7 +42287,7 @@
         <v>84</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42320,7 +42313,7 @@
         <v>84</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42348,7 +42341,7 @@
         <v>84</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42374,7 +42367,7 @@
         <v>84</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42400,7 +42393,7 @@
         <v>84</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42426,7 +42419,7 @@
         <v>84</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42452,7 +42445,7 @@
         <v>84</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42478,7 +42471,7 @@
         <v>84</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42504,7 +42497,7 @@
         <v>84</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42530,7 +42523,7 @@
         <v>84</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42556,7 +42549,7 @@
         <v>84</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42584,7 +42577,7 @@
         <v>84</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42610,7 +42603,7 @@
         <v>84</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42638,7 +42631,7 @@
         <v>84</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42664,7 +42657,7 @@
         <v>84</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42690,7 +42683,7 @@
         <v>84</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42718,7 +42711,7 @@
         <v>84</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42744,7 +42737,7 @@
         <v>84</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42772,7 +42765,7 @@
         <v>84</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42800,7 +42793,7 @@
         <v>84</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42826,7 +42819,7 @@
         <v>84</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42854,7 +42847,7 @@
         <v>84</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42880,7 +42873,7 @@
         <v>84</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42908,7 +42901,7 @@
         <v>84</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42934,7 +42927,7 @@
         <v>84</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42962,7 +42955,7 @@
         <v>84</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -42988,7 +42981,7 @@
         <v>84</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43016,7 +43009,7 @@
         <v>84</v>
       </c>
       <c r="J285" s="28" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -43044,7 +43037,7 @@
         <v>77</v>
       </c>
       <c r="J286" s="28" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43072,7 +43065,7 @@
         <v>84</v>
       </c>
       <c r="J287" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43100,7 +43093,7 @@
         <v>84</v>
       </c>
       <c r="J288" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43128,7 +43121,7 @@
         <v>84</v>
       </c>
       <c r="J289" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43156,7 +43149,7 @@
         <v>84</v>
       </c>
       <c r="J290" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43184,7 +43177,7 @@
         <v>84</v>
       </c>
       <c r="J291" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43212,7 +43205,7 @@
         <v>84</v>
       </c>
       <c r="J292" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43240,7 +43233,7 @@
         <v>84</v>
       </c>
       <c r="J293" s="30" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43268,7 +43261,7 @@
         <v>84</v>
       </c>
       <c r="J294" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43296,7 +43289,7 @@
         <v>84</v>
       </c>
       <c r="J295" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43324,7 +43317,7 @@
         <v>84</v>
       </c>
       <c r="J296" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43352,7 +43345,7 @@
         <v>84</v>
       </c>
       <c r="J297" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43380,7 +43373,7 @@
         <v>109</v>
       </c>
       <c r="J298" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43408,7 +43401,7 @@
         <v>109</v>
       </c>
       <c r="J299" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43436,7 +43429,7 @@
         <v>84</v>
       </c>
       <c r="J300" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43464,7 +43457,7 @@
         <v>84</v>
       </c>
       <c r="J301" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43492,7 +43485,7 @@
         <v>84</v>
       </c>
       <c r="J302" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43520,7 +43513,7 @@
         <v>84</v>
       </c>
       <c r="J303" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43548,7 +43541,7 @@
         <v>84</v>
       </c>
       <c r="J304" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43576,7 +43569,7 @@
         <v>84</v>
       </c>
       <c r="J305" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43604,7 +43597,7 @@
         <v>84</v>
       </c>
       <c r="J306" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43632,7 +43625,7 @@
         <v>84</v>
       </c>
       <c r="J307" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43660,7 +43653,7 @@
         <v>84</v>
       </c>
       <c r="J308" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43688,7 +43681,7 @@
         <v>109</v>
       </c>
       <c r="J309" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43716,7 +43709,7 @@
         <v>84</v>
       </c>
       <c r="J310" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43744,7 +43737,7 @@
         <v>84</v>
       </c>
       <c r="J311" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43772,7 +43765,7 @@
         <v>84</v>
       </c>
       <c r="J312" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43800,7 +43793,7 @@
         <v>84</v>
       </c>
       <c r="J313" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43828,7 +43821,7 @@
         <v>84</v>
       </c>
       <c r="J314" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43856,7 +43849,7 @@
         <v>84</v>
       </c>
       <c r="J315" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43884,7 +43877,7 @@
         <v>84</v>
       </c>
       <c r="J316" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43912,7 +43905,7 @@
         <v>109</v>
       </c>
       <c r="J317" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43940,7 +43933,7 @@
         <v>109</v>
       </c>
       <c r="J318" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43968,7 +43961,7 @@
         <v>109</v>
       </c>
       <c r="J319" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -43996,7 +43989,7 @@
         <v>109</v>
       </c>
       <c r="J320" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44024,7 +44017,7 @@
         <v>109</v>
       </c>
       <c r="J321" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44052,7 +44045,7 @@
         <v>84</v>
       </c>
       <c r="J322" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44080,7 +44073,7 @@
         <v>84</v>
       </c>
       <c r="J323" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44108,7 +44101,7 @@
         <v>84</v>
       </c>
       <c r="J324" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44136,7 +44129,7 @@
         <v>84</v>
       </c>
       <c r="J325" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44164,7 +44157,7 @@
         <v>109</v>
       </c>
       <c r="J326" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44192,7 +44185,7 @@
         <v>109</v>
       </c>
       <c r="J327" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44220,7 +44213,7 @@
         <v>109</v>
       </c>
       <c r="J328" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44248,7 +44241,7 @@
         <v>109</v>
       </c>
       <c r="J329" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44276,7 +44269,7 @@
         <v>109</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44304,7 +44297,7 @@
         <v>109</v>
       </c>
       <c r="J331" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44332,7 +44325,7 @@
         <v>109</v>
       </c>
       <c r="J332" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44360,7 +44353,7 @@
         <v>109</v>
       </c>
       <c r="J333" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44388,7 +44381,7 @@
         <v>109</v>
       </c>
       <c r="J334" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44416,7 +44409,7 @@
         <v>109</v>
       </c>
       <c r="J335" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44444,7 +44437,7 @@
         <v>109</v>
       </c>
       <c r="J336" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44472,7 +44465,7 @@
         <v>109</v>
       </c>
       <c r="J337" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44500,7 +44493,7 @@
         <v>109</v>
       </c>
       <c r="J338" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44528,7 +44521,7 @@
         <v>109</v>
       </c>
       <c r="J339" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44556,7 +44549,7 @@
         <v>109</v>
       </c>
       <c r="J340" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44584,7 +44577,7 @@
         <v>109</v>
       </c>
       <c r="J341" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44612,7 +44605,7 @@
         <v>109</v>
       </c>
       <c r="J342" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44640,7 +44633,7 @@
         <v>109</v>
       </c>
       <c r="J343" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44668,7 +44661,7 @@
         <v>84</v>
       </c>
       <c r="J344" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -44696,7 +44689,7 @@
         <v>109</v>
       </c>
       <c r="J345" s="30" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -44724,12 +44717,12 @@
         <v>77</v>
       </c>
       <c r="J346" s="30" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="30" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>634</v>
@@ -44740,7 +44733,7 @@
       <c r="D347" s="31"/>
       <c r="E347" s="30"/>
       <c r="F347" s="30" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="G347" s="30" t="s">
         <v>2876</v>
@@ -44752,7 +44745,7 @@
         <v>84</v>
       </c>
       <c r="J347" s="30" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
   </sheetData>
@@ -50209,7 +50202,7 @@
         <v>748</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="L3" s="109" t="s">
         <v>1532</v>
@@ -50229,7 +50222,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50597,7 +50590,7 @@
         <v>792</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="N10" s="109" t="s">
         <v>1536</v>
@@ -50605,7 +50598,7 @@
     </row>
     <row r="11" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>37</v>
@@ -50620,14 +50613,14 @@
         <v>46</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="41" t="s">
+        <v>3045</v>
+      </c>
+      <c r="I11" s="41" t="s">
         <v>3046</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>3047</v>
       </c>
       <c r="J11" s="41" t="s">
         <v>751</v>
@@ -50639,7 +50632,7 @@
         <v>794</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="N11" s="109" t="s">
         <v>1536</v>
@@ -50647,10 +50640,10 @@
     </row>
     <row r="12" spans="1:14" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>772</v>
@@ -50662,37 +50655,37 @@
         <v>46</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="41" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>751</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="L12" s="46" t="s">
         <v>798</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="N12" s="109" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>772</v>
@@ -50704,14 +50697,14 @@
         <v>46</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="41" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="J13" s="41" t="s">
         <v>751</v>
@@ -50723,7 +50716,7 @@
         <v>796</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>3087</v>
+        <v>3142</v>
       </c>
       <c r="N13" s="109" t="s">
         <v>1536</v>
@@ -50731,10 +50724,10 @@
     </row>
     <row r="14" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>772</v>
@@ -50746,14 +50739,14 @@
         <v>46</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="41" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="J14" s="41" t="s">
         <v>751</v>
@@ -50765,7 +50758,7 @@
         <v>798</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="N14" s="109" t="s">
         <v>1536</v>
@@ -50773,10 +50766,10 @@
     </row>
     <row r="15" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>772</v>
@@ -50788,26 +50781,26 @@
         <v>46</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="41" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="J15" s="41" t="s">
         <v>751</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="L15" s="46" t="s">
         <v>798</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="N15" s="109" t="s">
         <v>1536</v>
@@ -50815,10 +50808,10 @@
     </row>
     <row r="16" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>772</v>
@@ -50830,26 +50823,26 @@
         <v>46</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="41" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>751</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="L16" s="46" t="s">
         <v>798</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="N16" s="109" t="s">
         <v>1536</v>
@@ -50857,10 +50850,10 @@
     </row>
     <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>772</v>
@@ -50872,26 +50865,26 @@
         <v>46</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="41" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>751</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="L17" s="46" t="s">
         <v>1355</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="N17" s="109" t="s">
         <v>1536</v>
@@ -50899,10 +50892,10 @@
     </row>
     <row r="18" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>772</v>
@@ -50914,14 +50907,14 @@
         <v>46</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="41" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>751</v>
@@ -50933,7 +50926,7 @@
         <v>799</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="N18" s="109" t="s">
         <v>1536</v>
@@ -50941,10 +50934,10 @@
     </row>
     <row r="19" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>772</v>
@@ -50956,26 +50949,26 @@
         <v>46</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="41" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>751</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="L19" s="46" t="s">
         <v>799</v>
       </c>
       <c r="M19" s="41" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="N19" s="109" t="s">
         <v>1536</v>
@@ -50983,10 +50976,10 @@
     </row>
     <row r="20" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>772</v>
@@ -50998,26 +50991,26 @@
         <v>46</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="41" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>751</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="L20" s="46" t="s">
         <v>799</v>
       </c>
       <c r="M20" s="41" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="N20" s="109" t="s">
         <v>1536</v>
@@ -53803,20 +53796,20 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="B99" s="48" t="s">
         <v>38</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D99" s="48"/>
       <c r="E99" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="F99" s="48" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="G99" s="48" t="s">
         <v>751</v>
@@ -53825,25 +53818,25 @@
         <v>2860</v>
       </c>
       <c r="I99" s="46" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D100" s="52"/>
       <c r="E100" s="48" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="F100" s="48" t="s">
         <v>1524</v>
@@ -53858,22 +53851,22 @@
         <v>833</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D101" s="52"/>
       <c r="E101" s="48" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="F101" s="48" t="s">
         <v>1522</v>
@@ -53888,22 +53881,22 @@
         <v>837</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D102" s="52"/>
       <c r="E102" s="48" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F102" s="48" t="s">
         <v>1519</v>
@@ -53915,10 +53908,10 @@
         <v>840</v>
       </c>
       <c r="I102" s="46" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
@@ -54104,20 +54097,20 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>751</v>
@@ -54126,25 +54119,25 @@
         <v>2860</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="48" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>1524</v>
@@ -54159,22 +54152,22 @@
         <v>833</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="48" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>1522</v>
@@ -54189,22 +54182,22 @@
         <v>837</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="48" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>1519</v>
@@ -54216,10 +54209,10 @@
         <v>840</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
@@ -54868,7 +54861,7 @@
         <v>798</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="K20" s="109" t="s">
         <v>1532</v>
@@ -55154,7 +55147,7 @@
       </c>
       <c r="H4" s="61"/>
       <c r="I4" s="61" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55177,7 +55170,7 @@
       </c>
       <c r="H5" s="61"/>
       <c r="I5" s="61" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55200,7 +55193,7 @@
       </c>
       <c r="H6" s="61"/>
       <c r="I6" s="61" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55271,7 +55264,7 @@
       </c>
       <c r="H9" s="61"/>
       <c r="I9" s="61" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55319,7 +55312,7 @@
         <v>1151</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55344,7 +55337,7 @@
         <v>1154</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55369,7 +55362,7 @@
         <v>1157</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55392,7 +55385,7 @@
       </c>
       <c r="H14" s="61"/>
       <c r="I14" s="61" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -55420,7 +55413,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B16" s="61" t="s">
         <v>1050</v>
@@ -55430,22 +55423,22 @@
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>2310</v>
       </c>
       <c r="H16" s="61"/>
       <c r="I16" s="61" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B17" s="61" t="s">
         <v>26</v>
@@ -55453,17 +55446,17 @@
       <c r="C17" s="49"/>
       <c r="D17" s="61"/>
       <c r="E17" s="61" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F17" s="61" t="s">
         <v>3019</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>3020</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>1131</v>
       </c>
       <c r="H17" s="61"/>
       <c r="I17" s="61" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
   </sheetData>
@@ -56854,7 +56847,7 @@
         <v>1310</v>
       </c>
       <c r="G70" s="62" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -56880,7 +56873,7 @@
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B72" s="46" t="s">
         <v>1178</v>
@@ -56890,13 +56883,13 @@
       </c>
       <c r="D72" s="46"/>
       <c r="E72" s="46" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F72" s="46" t="s">
         <v>2996</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="G72" s="62" t="s">
         <v>2997</v>
-      </c>
-      <c r="G72" s="62" t="s">
-        <v>2998</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -58649,7 +58642,7 @@
     </row>
     <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="46" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B163" s="46" t="s">
         <v>1406</v>
@@ -58657,10 +58650,10 @@
       <c r="C163" s="26"/>
       <c r="D163" s="46"/>
       <c r="E163" s="46" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F163" s="46" t="s">
         <v>3082</v>
-      </c>
-      <c r="F163" s="46" t="s">
-        <v>3083</v>
       </c>
       <c r="G163" s="62" t="s">
         <v>2967</v>
@@ -58763,7 +58756,7 @@
     </row>
     <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="46" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B169" s="46" t="s">
         <v>1406</v>
@@ -58771,10 +58764,10 @@
       <c r="C169" s="26"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F169" s="46" t="s">
         <v>3084</v>
-      </c>
-      <c r="F169" s="46" t="s">
-        <v>3085</v>
       </c>
       <c r="G169" s="62" t="s">
         <v>2967</v>

--- a/WB_DatabaseTemplateGlobal_tables.xlsx
+++ b/WB_DatabaseTemplateGlobal_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDE879-6C7E-4290-8DC8-9320907218F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D2139-3378-4E2B-B0B5-A671E6C950F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13379" uniqueCount="3374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13389" uniqueCount="3377">
   <si>
     <t>WB_Specification</t>
   </si>
@@ -10167,6 +10167,15 @@
   </si>
   <si>
     <t>UserId=3; Password=; StaffTableId=Face.FA1.StaffTable1.Boss; AbcBasic=Face.Basic; Comment=; FullName=; Access=Paymaster;</t>
+  </si>
+  <si>
+    <t>Face.FA1.User4</t>
+  </si>
+  <si>
+    <t>Лицо учета1.User4</t>
+  </si>
+  <si>
+    <t>UserId=3; Password=; StaffTableId=Face.FA1.StaffTable1.Boss; AbcBasic=Face.Basic; Comment=; FullName=; Access=Manager;</t>
   </si>
 </sst>
 </file>
@@ -56300,10 +56309,10 @@
   <sheetPr codeName="Лист7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57021,7 +57030,7 @@
         <v>3370</v>
       </c>
       <c r="K21" s="100" t="s">
-        <v>1381</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -57054,58 +57063,56 @@
         <v>3373</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>1381</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>2950</v>
+        <v>3374</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="101" t="s">
+        <v>2510</v>
+      </c>
       <c r="D23" s="101"/>
       <c r="E23" s="50" t="s">
-        <v>2950</v>
+        <v>3374</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>2951</v>
+        <v>3375</v>
       </c>
       <c r="G23" s="50" t="s">
         <v>1034</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>2948</v>
+        <v>2926</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>787</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>3061</v>
+        <v>3376</v>
       </c>
       <c r="K23" s="100" t="s">
-        <v>1381</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="B24" s="50" t="s">
+        <v>763</v>
+      </c>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="50" t="s">
         <v>2950</v>
       </c>
-      <c r="C24" s="101" t="s">
-        <v>2902</v>
-      </c>
-      <c r="D24" s="101" t="s">
-        <v>2903</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>2953</v>
-      </c>
       <c r="F24" s="50" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>1034</v>
@@ -57117,7 +57124,7 @@
         <v>787</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="K24" s="100" t="s">
         <v>1381</v>
@@ -57125,20 +57132,22 @@
     </row>
     <row r="25" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B25" s="50" t="s">
         <v>2950</v>
       </c>
       <c r="C25" s="101" t="s">
-        <v>2941</v>
-      </c>
-      <c r="D25" s="101"/>
+        <v>2902</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>2903</v>
+      </c>
       <c r="E25" s="50" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="G25" s="50" t="s">
         <v>1034</v>
@@ -57150,7 +57159,7 @@
         <v>787</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="K25" s="100" t="s">
         <v>1381</v>
@@ -57158,18 +57167,20 @@
     </row>
     <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="C26" s="101"/>
+        <v>2950</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>2941</v>
+      </c>
       <c r="D26" s="101"/>
       <c r="E26" s="50" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="G26" s="50" t="s">
         <v>1034</v>
@@ -57181,7 +57192,7 @@
         <v>787</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="K26" s="100" t="s">
         <v>1381</v>
@@ -57189,20 +57200,18 @@
     </row>
     <row r="27" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>2952</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>2941</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="C27" s="101"/>
       <c r="D27" s="101"/>
       <c r="E27" s="50" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>1034</v>
@@ -57214,7 +57223,7 @@
         <v>787</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="K27" s="100" t="s">
         <v>1381</v>
@@ -57222,7 +57231,7 @@
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>2952</v>
@@ -57232,10 +57241,10 @@
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="50" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="G28" s="50" t="s">
         <v>1034</v>
@@ -57247,67 +57256,69 @@
         <v>787</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="K28" s="100" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>767</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="50"/>
+        <v>2958</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D29" s="101"/>
       <c r="E29" s="50" t="s">
-        <v>767</v>
+        <v>2958</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>1056</v>
+        <v>2961</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>1057</v>
+        <v>1034</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>2948</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>3002</v>
+        <v>787</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>3066</v>
       </c>
       <c r="K29" s="100" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B30" s="50" t="s">
         <v>767</v>
       </c>
+      <c r="B30" s="50"/>
       <c r="C30" s="97"/>
       <c r="D30" s="50"/>
       <c r="E30" s="50" t="s">
-        <v>1058</v>
+        <v>767</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="G30" s="50" t="s">
         <v>746</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>92</v>
+        <v>1057</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>787</v>
+        <v>1031</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>2943</v>
+        <v>3002</v>
       </c>
       <c r="K30" s="100" t="s">
         <v>1381</v>
@@ -57315,7 +57326,7 @@
     </row>
     <row r="31" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>767</v>
@@ -57323,10 +57334,10 @@
       <c r="C31" s="97"/>
       <c r="D31" s="50"/>
       <c r="E31" s="50" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="G31" s="50" t="s">
         <v>746</v>
@@ -57338,7 +57349,7 @@
         <v>787</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="K31" s="100" t="s">
         <v>1381</v>
@@ -57346,7 +57357,7 @@
     </row>
     <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>2946</v>
+        <v>1061</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>767</v>
@@ -57354,7 +57365,7 @@
       <c r="C32" s="97"/>
       <c r="D32" s="50"/>
       <c r="E32" s="50" t="s">
-        <v>2946</v>
+        <v>1061</v>
       </c>
       <c r="F32" s="50" t="s">
         <v>1062</v>
@@ -57377,7 +57388,7 @@
     </row>
     <row r="33" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>1063</v>
+        <v>2946</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>767</v>
@@ -57385,10 +57396,10 @@
       <c r="C33" s="97"/>
       <c r="D33" s="50"/>
       <c r="E33" s="50" t="s">
-        <v>1063</v>
+        <v>2946</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G33" s="50" t="s">
         <v>746</v>
@@ -57400,98 +57411,98 @@
         <v>787</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="K33" s="100" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>771</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51" t="s">
-        <v>771</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G34" s="51" t="s">
+    <row r="34" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>767</v>
+      </c>
+      <c r="C34" s="97"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>746</v>
       </c>
-      <c r="H34" s="51" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J34" s="51" t="s">
-        <v>3003</v>
+      <c r="H34" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>2945</v>
       </c>
       <c r="K34" s="100" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="51" t="s">
         <v>771</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
-        <v>1067</v>
+      <c r="B35" s="51"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51" t="s">
+        <v>771</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G35" s="50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G35" s="51" t="s">
         <v>746</v>
       </c>
-      <c r="H35" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>787</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>2942</v>
+      <c r="H35" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J35" s="51" t="s">
+        <v>3003</v>
       </c>
       <c r="K35" s="100" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="48" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="48" t="s">
+      <c r="A36" s="50" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G36" s="50" t="s">
         <v>746</v>
       </c>
-      <c r="H36" s="39" t="s">
-        <v>1071</v>
+      <c r="H36" s="50" t="s">
+        <v>92</v>
       </c>
       <c r="I36" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="J36" s="48" t="s">
-        <v>3075</v>
+      <c r="J36" s="37" t="s">
+        <v>2942</v>
       </c>
       <c r="K36" s="100" t="s">
         <v>1381</v>
@@ -57499,32 +57510,30 @@
     </row>
     <row r="37" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B37" s="48" t="s">
         <v>1069</v>
       </c>
+      <c r="B37" s="50"/>
       <c r="C37" s="48" t="s">
         <v>1070</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>1073</v>
+        <v>45</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="H37" s="53" t="s">
-        <v>92</v>
+      <c r="H37" s="39" t="s">
+        <v>1071</v>
       </c>
       <c r="I37" s="50" t="s">
         <v>787</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>3050</v>
+        <v>3075</v>
       </c>
       <c r="K37" s="100" t="s">
         <v>1381</v>
@@ -57532,7 +57541,7 @@
     </row>
     <row r="38" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>1069</v>
@@ -57542,22 +57551,22 @@
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G38" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="H38" s="50" t="s">
-        <v>1053</v>
+      <c r="H38" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="I38" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="J38" s="37" t="s">
-        <v>3051</v>
+      <c r="J38" s="48" t="s">
+        <v>3050</v>
       </c>
       <c r="K38" s="100" t="s">
         <v>1381</v>
@@ -57565,28 +57574,32 @@
     </row>
     <row r="39" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
+        <v>1074</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D39" s="48"/>
       <c r="E39" s="48" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G39" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="H39" s="40" t="s">
-        <v>2937</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>765</v>
-      </c>
-      <c r="J39" s="48" t="s">
-        <v>3076</v>
+      <c r="H39" s="50" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>3051</v>
       </c>
       <c r="K39" s="100" t="s">
         <v>1381</v>
@@ -57594,42 +57607,36 @@
     </row>
     <row r="40" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B40" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="C40" s="101" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D40" s="101" t="s">
-        <v>3030</v>
-      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="48" t="s">
-        <v>3031</v>
+        <v>1076</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>3028</v>
-      </c>
-      <c r="G40" s="107" t="s">
-        <v>2704</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>3026</v>
+        <v>1077</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>2937</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>3004</v>
+        <v>765</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>3052</v>
+        <v>3076</v>
       </c>
       <c r="K40" s="100" t="s">
-        <v>2906</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>1076</v>
@@ -57641,10 +57648,10 @@
         <v>3030</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="G41" s="107" t="s">
         <v>2704</v>
@@ -57653,10 +57660,10 @@
         <v>3026</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>3034</v>
+        <v>3004</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="K41" s="100" t="s">
         <v>2906</v>
@@ -57664,63 +57671,63 @@
     </row>
     <row r="42" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>2982</v>
+        <v>3032</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>1076</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>2989</v>
+        <v>3029</v>
       </c>
       <c r="D42" s="101" t="s">
-        <v>2903</v>
+        <v>3030</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>2985</v>
+        <v>3032</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>2986</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>746</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>2983</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>787</v>
+        <v>3033</v>
+      </c>
+      <c r="G42" s="107" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>3026</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>3034</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="K42" s="100" t="s">
         <v>2906</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>3347</v>
+        <v>2982</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>1076</v>
       </c>
       <c r="C43" s="101" t="s">
-        <v>2510</v>
+        <v>2989</v>
       </c>
       <c r="D43" s="101" t="s">
-        <v>2998</v>
+        <v>2903</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>3343</v>
+        <v>2985</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>3345</v>
+        <v>2986</v>
       </c>
       <c r="G43" s="48" t="s">
         <v>746</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="I43" s="50" t="s">
         <v>787</v>
@@ -57734,22 +57741,22 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>1076</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>3342</v>
+        <v>2510</v>
       </c>
       <c r="D44" s="101" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="G44" s="48" t="s">
         <v>746</v>
@@ -57767,36 +57774,36 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>2962</v>
+        <v>3348</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>1076</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>2902</v>
+        <v>3342</v>
       </c>
       <c r="D45" s="101" t="s">
-        <v>2947</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>3358</v>
+        <v>2999</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>3344</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>2939</v>
+        <v>3346</v>
       </c>
       <c r="G45" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="H45" s="39" t="s">
-        <v>1047</v>
+      <c r="H45" s="40" t="s">
+        <v>2987</v>
       </c>
       <c r="I45" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="J45" s="35" t="s">
-        <v>3146</v>
+      <c r="J45" s="48" t="s">
+        <v>3049</v>
       </c>
       <c r="K45" s="100" t="s">
         <v>2906</v>
@@ -57804,20 +57811,22 @@
     </row>
     <row r="46" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B46" s="48" t="s">
         <v>1076</v>
       </c>
       <c r="C46" s="101" t="s">
-        <v>2920</v>
-      </c>
-      <c r="D46" s="101"/>
+        <v>2902</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>2947</v>
+      </c>
       <c r="E46" s="50" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="G46" s="48" t="s">
         <v>746</v>
@@ -57825,11 +57834,11 @@
       <c r="H46" s="39" t="s">
         <v>1047</v>
       </c>
-      <c r="I46" s="42" t="s">
-        <v>788</v>
+      <c r="I46" s="50" t="s">
+        <v>787</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>3046</v>
+        <v>3146</v>
       </c>
       <c r="K46" s="100" t="s">
         <v>2906</v>
@@ -57837,63 +57846,65 @@
     </row>
     <row r="47" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>2604</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48" t="s">
-        <v>2605</v>
+        <v>2963</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D47" s="101"/>
+      <c r="E47" s="50" t="s">
+        <v>3359</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>2606</v>
+        <v>2940</v>
       </c>
       <c r="G47" s="48" t="s">
         <v>746</v>
       </c>
       <c r="H47" s="39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>788</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>3046</v>
+      </c>
+      <c r="K47" s="100" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>763</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="H48" s="39" t="s">
         <v>2087</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I48" s="40" t="s">
         <v>1078</v>
       </c>
-      <c r="J47" s="48" t="s">
+      <c r="J48" s="48" t="s">
         <v>3073</v>
-      </c>
-      <c r="K47" s="100" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="48" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G48" s="50" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I48" s="50" t="s">
-        <v>787</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>3047</v>
       </c>
       <c r="K48" s="100" t="s">
         <v>1381</v>
@@ -57901,7 +57912,7 @@
     </row>
     <row r="49" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="48" t="s">
@@ -57909,22 +57920,22 @@
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="50" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>700</v>
+        <v>1081</v>
       </c>
       <c r="G49" s="50" t="s">
         <v>1034</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>87</v>
+        <v>1053</v>
       </c>
       <c r="I49" s="50" t="s">
         <v>787</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="K49" s="100" t="s">
         <v>1381</v>
@@ -57932,78 +57943,78 @@
     </row>
     <row r="50" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
-        <v>3005</v>
+        <v>1082</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="48" t="s">
-        <v>3007</v>
+        <v>1070</v>
       </c>
       <c r="D50" s="50"/>
       <c r="E50" s="50" t="s">
-        <v>3005</v>
+        <v>1082</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>3006</v>
+        <v>700</v>
       </c>
       <c r="G50" s="50" t="s">
         <v>1034</v>
       </c>
-      <c r="H50" s="53" t="s">
-        <v>92</v>
+      <c r="H50" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="I50" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="J50" s="48" t="s">
-        <v>3045</v>
+      <c r="J50" s="37" t="s">
+        <v>3048</v>
       </c>
       <c r="K50" s="100" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+    <row r="51" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="48" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>3006</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K51" s="100" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
         <v>3149</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35" t="s">
-        <v>3149</v>
-      </c>
-      <c r="F51" s="99" t="s">
-        <v>3152</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>746</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I51" s="42" t="s">
-        <v>3147</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>3099</v>
-      </c>
-      <c r="K51" s="95" t="s">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>3149</v>
-      </c>
+      <c r="B52" s="35"/>
       <c r="C52" s="97"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="F52" s="99" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>746</v>
@@ -58015,15 +58026,15 @@
         <v>3147</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>3155</v>
+        <v>3099</v>
       </c>
       <c r="K52" s="95" t="s">
         <v>2906</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>3149</v>
@@ -58031,10 +58042,10 @@
       <c r="C53" s="97"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="F53" s="99" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>746</v>
@@ -58046,44 +58057,75 @@
         <v>3147</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="K53" s="95" t="s">
         <v>2906</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+    <row r="54" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C54" s="97"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F54" s="99" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>3156</v>
+      </c>
+      <c r="K54" s="95" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
         <v>3321</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B55" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="C54" s="101" t="s">
+      <c r="C55" s="101" t="s">
         <v>2902</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D55" s="101" t="s">
         <v>3324</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E55" s="50" t="s">
         <v>3321</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F55" s="50" t="s">
         <v>3322</v>
       </c>
-      <c r="G54" s="50" t="s">
+      <c r="G55" s="50" t="s">
         <v>1034</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H55" s="36" t="s">
         <v>3026</v>
       </c>
-      <c r="I54" s="50" t="s">
+      <c r="I55" s="50" t="s">
         <v>3319</v>
       </c>
-      <c r="J54" s="37" t="s">
+      <c r="J55" s="37" t="s">
         <v>3323</v>
       </c>
-      <c r="K54" s="100" t="s">
+      <c r="K55" s="100" t="s">
         <v>2906</v>
       </c>
     </row>
